--- a/src/main/resources/ProductData/Stage5.xlsx
+++ b/src/main/resources/ProductData/Stage5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\MGR\diet-application\src\main\resources\ProductData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\diet-application\src\main\resources\ProductData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6DD7AC-54DB-4DAB-B998-DAB2775AFB14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B164EC-36C8-4A09-8AB2-7836428862AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7ECD213A-A037-479A-9783-8B02D3DEE5C2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{7ECD213A-A037-479A-9783-8B02D3DEE5C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -1565,7 +1565,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1582,20 +1582,8 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Roboto"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1617,18 +1605,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFCE8B2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4C7C3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB7E1CD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1660,7 +1636,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1676,24 +1652,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2009,15 +1967,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE98940D-A261-4722-8A50-DE23E7E7DD8D}">
-  <dimension ref="A1:Z78"/>
+  <dimension ref="A1:AF92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y78" sqref="A2:Y78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="21" style="1" customWidth="1"/>
+    <col min="1" max="1" width="38.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21" style="1" customWidth="1"/>
     <col min="3" max="3" width="31.54296875" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.54296875" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.7265625" style="2" customWidth="1"/>
@@ -2042,7 +2001,7 @@
     <col min="24" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="39.5" thickBot="1">
+    <row r="1" spans="1:32" ht="39.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>107</v>
       </c>
@@ -2122,5603 +2081,6541 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="26.5" thickBot="1">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" t="s">
         <v>173</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" t="s">
         <v>174</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" t="s">
         <v>109</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" t="s">
         <v>110</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" t="s">
         <v>111</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" t="s">
         <v>112</v>
       </c>
-      <c r="J2" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K2" s="9" t="s">
+      <c r="J2" t="s">
+        <v>175</v>
+      </c>
+      <c r="K2" t="s">
         <v>176</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" t="s">
         <v>109</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" t="s">
         <v>177</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" t="s">
         <v>178</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" t="s">
         <v>179</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" t="s">
         <v>180</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" t="s">
         <v>181</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="R2" t="s">
         <v>182</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="S2" t="s">
         <v>113</v>
       </c>
-      <c r="T2" s="10"/>
-      <c r="U2" s="9" t="s">
+      <c r="T2"/>
+      <c r="U2" t="s">
         <v>183</v>
       </c>
-      <c r="V2" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="W2" s="9" t="s">
+      <c r="V2" t="s">
+        <v>175</v>
+      </c>
+      <c r="W2" t="s">
         <v>178</v>
       </c>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-    </row>
-    <row r="3" spans="1:26" ht="26.5" thickBot="1">
-      <c r="A3" s="3" t="s">
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+      <c r="AB2"/>
+      <c r="AC2"/>
+      <c r="AD2"/>
+      <c r="AE2"/>
+      <c r="AF2"/>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" t="s">
         <v>173</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" t="s">
         <v>184</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" t="s">
         <v>114</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" t="s">
         <v>115</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" t="s">
         <v>116</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" t="s">
         <v>117</v>
       </c>
-      <c r="J3" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K3" s="9" t="s">
+      <c r="J3" t="s">
+        <v>175</v>
+      </c>
+      <c r="K3" t="s">
         <v>185</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" t="s">
         <v>118</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" t="s">
         <v>186</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" t="s">
         <v>187</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" t="s">
         <v>188</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" t="s">
         <v>189</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" t="s">
         <v>190</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="R3" t="s">
         <v>191</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="S3" t="s">
         <v>192</v>
       </c>
-      <c r="T3" s="10"/>
-      <c r="U3" s="9" t="s">
+      <c r="T3"/>
+      <c r="U3" t="s">
         <v>193</v>
       </c>
-      <c r="V3" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="W3" s="9" t="s">
+      <c r="V3" t="s">
+        <v>175</v>
+      </c>
+      <c r="W3" t="s">
         <v>194</v>
       </c>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-    </row>
-    <row r="4" spans="1:26" ht="26.5" thickBot="1">
-      <c r="A4" s="3" t="s">
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+      <c r="AB3"/>
+      <c r="AC3"/>
+      <c r="AD3"/>
+      <c r="AE3"/>
+      <c r="AF3"/>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" t="s">
         <v>195</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" t="s">
         <v>196</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" t="s">
         <v>119</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" t="s">
         <v>120</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" t="s">
         <v>121</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" t="s">
         <v>122</v>
       </c>
-      <c r="J4" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K4" s="9" t="s">
+      <c r="J4" t="s">
+        <v>175</v>
+      </c>
+      <c r="K4" t="s">
         <v>197</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" t="s">
         <v>123</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" t="s">
         <v>198</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" t="s">
         <v>199</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O4" t="s">
         <v>200</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="P4" t="s">
         <v>201</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" t="s">
         <v>202</v>
       </c>
-      <c r="R4" s="9" t="s">
+      <c r="R4" t="s">
         <v>203</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="S4" t="s">
         <v>204</v>
       </c>
-      <c r="T4" s="10"/>
-      <c r="U4" s="9" t="s">
+      <c r="T4"/>
+      <c r="U4" t="s">
         <v>205</v>
       </c>
-      <c r="V4" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="W4" s="9" t="s">
+      <c r="V4" t="s">
+        <v>175</v>
+      </c>
+      <c r="W4" t="s">
         <v>206</v>
       </c>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-    </row>
-    <row r="5" spans="1:26" ht="26.5" thickBot="1">
-      <c r="A5" s="3" t="s">
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+      <c r="AB4"/>
+      <c r="AC4"/>
+      <c r="AD4"/>
+      <c r="AE4"/>
+      <c r="AF4"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" t="s">
         <v>207</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" t="s">
         <v>208</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" t="s">
         <v>119</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" t="s">
         <v>115</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" t="s">
         <v>110</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" t="s">
         <v>124</v>
       </c>
-      <c r="J5" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K5" s="9" t="s">
+      <c r="J5" t="s">
+        <v>175</v>
+      </c>
+      <c r="K5" t="s">
         <v>209</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="L5" t="s">
         <v>119</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="M5" t="s">
         <v>177</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="N5" t="s">
         <v>199</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="O5" t="s">
         <v>210</v>
       </c>
-      <c r="P5" s="9" t="s">
+      <c r="P5" t="s">
         <v>211</v>
       </c>
-      <c r="Q5" s="9" t="s">
+      <c r="Q5" t="s">
         <v>212</v>
       </c>
-      <c r="R5" s="9" t="s">
+      <c r="R5" t="s">
         <v>213</v>
       </c>
-      <c r="S5" s="9" t="s">
+      <c r="S5" t="s">
         <v>123</v>
       </c>
-      <c r="T5" s="10"/>
-      <c r="U5" s="9" t="s">
+      <c r="T5"/>
+      <c r="U5" t="s">
         <v>214</v>
       </c>
-      <c r="V5" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="W5" s="9" t="s">
+      <c r="V5" t="s">
+        <v>175</v>
+      </c>
+      <c r="W5" t="s">
         <v>215</v>
       </c>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-    </row>
-    <row r="6" spans="1:26" ht="26.5" thickBot="1">
-      <c r="A6" s="3" t="s">
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+      <c r="AB5"/>
+      <c r="AC5"/>
+      <c r="AD5"/>
+      <c r="AE5"/>
+      <c r="AF5"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" t="s">
         <v>216</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" t="s">
         <v>217</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" t="s">
         <v>114</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" t="s">
         <v>125</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" t="s">
         <v>111</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" t="s">
         <v>126</v>
       </c>
-      <c r="J6" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K6" s="9" t="s">
+      <c r="J6" t="s">
+        <v>175</v>
+      </c>
+      <c r="K6" t="s">
         <v>218</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L6" t="s">
         <v>127</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" t="s">
         <v>219</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" t="s">
         <v>220</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="O6" t="s">
         <v>221</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="P6" t="s">
         <v>202</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="Q6" t="s">
         <v>181</v>
       </c>
-      <c r="R6" s="9" t="s">
+      <c r="R6" t="s">
         <v>222</v>
       </c>
-      <c r="S6" s="9" t="s">
+      <c r="S6" t="s">
         <v>123</v>
       </c>
-      <c r="T6" s="10"/>
-      <c r="U6" s="9" t="s">
+      <c r="T6"/>
+      <c r="U6" t="s">
         <v>223</v>
       </c>
-      <c r="V6" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="W6" s="9" t="s">
+      <c r="V6" t="s">
+        <v>175</v>
+      </c>
+      <c r="W6" t="s">
         <v>224</v>
       </c>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-    </row>
-    <row r="7" spans="1:26" ht="26.5" thickBot="1">
-      <c r="A7" s="3" t="s">
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+      <c r="AB6"/>
+      <c r="AC6"/>
+      <c r="AD6"/>
+      <c r="AE6"/>
+      <c r="AF6"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>108</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" t="s">
         <v>183</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" t="s">
         <v>225</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" t="s">
         <v>109</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" t="s">
         <v>110</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" t="s">
         <v>111</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" t="s">
         <v>115</v>
       </c>
-      <c r="J7" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K7" s="9" t="s">
+      <c r="J7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K7" t="s">
         <v>226</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" t="s">
         <v>227</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="M7" t="s">
         <v>192</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="N7" t="s">
         <v>228</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="O7" t="s">
         <v>229</v>
       </c>
-      <c r="P7" s="9" t="s">
+      <c r="P7" t="s">
         <v>230</v>
       </c>
-      <c r="Q7" s="9" t="s">
+      <c r="Q7" t="s">
         <v>231</v>
       </c>
-      <c r="R7" s="9" t="s">
+      <c r="R7" t="s">
         <v>231</v>
       </c>
-      <c r="S7" s="9" t="s">
+      <c r="S7" t="s">
         <v>232</v>
       </c>
-      <c r="T7" s="10"/>
-      <c r="U7" s="9" t="s">
+      <c r="T7"/>
+      <c r="U7" t="s">
         <v>233</v>
       </c>
-      <c r="V7" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="W7" s="9" t="s">
+      <c r="V7" t="s">
+        <v>175</v>
+      </c>
+      <c r="W7" t="s">
         <v>220</v>
       </c>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-    </row>
-    <row r="8" spans="1:26" ht="26.5" thickBot="1">
-      <c r="A8" s="3" t="s">
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+      <c r="AB7"/>
+      <c r="AC7"/>
+      <c r="AD7"/>
+      <c r="AE7"/>
+      <c r="AF7"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>108</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" t="s">
         <v>194</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" t="s">
         <v>234</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" t="s">
         <v>119</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" t="s">
         <v>128</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" t="s">
         <v>112</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" t="s">
         <v>129</v>
       </c>
-      <c r="J8" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K8" s="9" t="s">
+      <c r="J8" t="s">
+        <v>175</v>
+      </c>
+      <c r="K8" t="s">
         <v>235</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="L8" t="s">
         <v>204</v>
       </c>
-      <c r="M8" s="9" t="s">
+      <c r="M8" t="s">
         <v>232</v>
       </c>
-      <c r="N8" s="9" t="s">
+      <c r="N8" t="s">
         <v>236</v>
       </c>
-      <c r="O8" s="9" t="s">
+      <c r="O8" t="s">
         <v>237</v>
       </c>
-      <c r="P8" s="9" t="s">
+      <c r="P8" t="s">
         <v>238</v>
       </c>
-      <c r="Q8" s="9" t="s">
+      <c r="Q8" t="s">
         <v>197</v>
       </c>
-      <c r="R8" s="9" t="s">
+      <c r="R8" t="s">
         <v>239</v>
       </c>
-      <c r="S8" s="9" t="s">
+      <c r="S8" t="s">
         <v>114</v>
       </c>
-      <c r="T8" s="9" t="s">
+      <c r="T8" t="s">
         <v>114</v>
       </c>
-      <c r="U8" s="9" t="s">
+      <c r="U8" t="s">
         <v>233</v>
       </c>
-      <c r="V8" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="W8" s="9" t="s">
+      <c r="V8" t="s">
+        <v>175</v>
+      </c>
+      <c r="W8" t="s">
         <v>236</v>
       </c>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-    </row>
-    <row r="9" spans="1:26" ht="26.5" thickBot="1">
-      <c r="A9" s="3" t="s">
+      <c r="X8"/>
+      <c r="Y8"/>
+      <c r="Z8"/>
+      <c r="AA8"/>
+      <c r="AB8"/>
+      <c r="AC8"/>
+      <c r="AD8"/>
+      <c r="AE8"/>
+      <c r="AF8"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" t="s">
         <v>240</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" t="s">
         <v>241</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" t="s">
         <v>113</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" t="s">
         <v>109</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" t="s">
         <v>115</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" t="s">
         <v>130</v>
       </c>
-      <c r="J9" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K9" s="9" t="s">
+      <c r="J9" t="s">
+        <v>175</v>
+      </c>
+      <c r="K9" t="s">
         <v>242</v>
       </c>
-      <c r="L9" s="9" t="s">
+      <c r="L9" t="s">
         <v>243</v>
       </c>
-      <c r="M9" s="9" t="s">
+      <c r="M9" t="s">
         <v>244</v>
       </c>
-      <c r="N9" s="9" t="s">
+      <c r="N9" t="s">
         <v>199</v>
       </c>
-      <c r="O9" s="9" t="s">
+      <c r="O9" t="s">
         <v>245</v>
       </c>
-      <c r="P9" s="9" t="s">
+      <c r="P9" t="s">
         <v>246</v>
       </c>
-      <c r="Q9" s="9" t="s">
+      <c r="Q9" t="s">
         <v>247</v>
       </c>
-      <c r="R9" s="9" t="s">
+      <c r="R9" t="s">
         <v>191</v>
       </c>
-      <c r="S9" s="9" t="s">
+      <c r="S9" t="s">
         <v>248</v>
       </c>
-      <c r="T9" s="10"/>
-      <c r="U9" s="9" t="s">
+      <c r="T9"/>
+      <c r="U9" t="s">
         <v>249</v>
       </c>
-      <c r="V9" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="W9" s="9" t="s">
+      <c r="V9" t="s">
+        <v>175</v>
+      </c>
+      <c r="W9" t="s">
         <v>250</v>
       </c>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-    </row>
-    <row r="10" spans="1:26" ht="26.5" thickBot="1">
-      <c r="A10" s="3" t="s">
+      <c r="X9"/>
+      <c r="Y9"/>
+      <c r="Z9"/>
+      <c r="AA9"/>
+      <c r="AB9"/>
+      <c r="AC9"/>
+      <c r="AD9"/>
+      <c r="AE9"/>
+      <c r="AF9"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" t="s">
         <v>231</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" t="s">
         <v>248</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" t="s">
         <v>109</v>
       </c>
-      <c r="G10" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K10" s="9" t="s">
+      <c r="G10" t="s">
+        <v>175</v>
+      </c>
+      <c r="H10" t="s">
+        <v>175</v>
+      </c>
+      <c r="I10" t="s">
+        <v>175</v>
+      </c>
+      <c r="J10" t="s">
+        <v>175</v>
+      </c>
+      <c r="K10" t="s">
         <v>251</v>
       </c>
-      <c r="L10" s="9" t="s">
+      <c r="L10" t="s">
         <v>113</v>
       </c>
-      <c r="M10" s="9" t="s">
+      <c r="M10" t="s">
         <v>252</v>
       </c>
-      <c r="N10" s="9" t="s">
+      <c r="N10" t="s">
         <v>208</v>
       </c>
-      <c r="O10" s="9" t="s">
+      <c r="O10" t="s">
         <v>253</v>
       </c>
-      <c r="P10" s="9" t="s">
+      <c r="P10" t="s">
         <v>254</v>
       </c>
-      <c r="Q10" s="9" t="s">
+      <c r="Q10" t="s">
         <v>206</v>
       </c>
-      <c r="R10" s="9" t="s">
+      <c r="R10" t="s">
         <v>255</v>
       </c>
-      <c r="S10" s="9" t="s">
+      <c r="S10" t="s">
         <v>119</v>
       </c>
-      <c r="T10" s="10"/>
-      <c r="U10" s="9" t="s">
+      <c r="T10"/>
+      <c r="U10" t="s">
         <v>256</v>
       </c>
-      <c r="V10" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="W10" s="9" t="s">
+      <c r="V10" t="s">
+        <v>175</v>
+      </c>
+      <c r="W10" t="s">
         <v>257</v>
       </c>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-    </row>
-    <row r="11" spans="1:26" ht="26.5" thickBot="1">
-      <c r="A11" s="3" t="s">
+      <c r="X10"/>
+      <c r="Y10"/>
+      <c r="Z10"/>
+      <c r="AA10"/>
+      <c r="AB10"/>
+      <c r="AC10"/>
+      <c r="AD10"/>
+      <c r="AE10"/>
+      <c r="AF10"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>108</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" t="s">
         <v>213</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" t="s">
         <v>232</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" t="s">
         <v>118</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" t="s">
         <v>112</v>
       </c>
-      <c r="H11" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="I11" s="9" t="s">
+      <c r="H11" t="s">
+        <v>175</v>
+      </c>
+      <c r="I11" t="s">
         <v>131</v>
       </c>
-      <c r="J11" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K11" s="9" t="s">
+      <c r="J11" t="s">
+        <v>175</v>
+      </c>
+      <c r="K11" t="s">
         <v>258</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="L11" t="s">
         <v>114</v>
       </c>
-      <c r="M11" s="9" t="s">
+      <c r="M11" t="s">
         <v>252</v>
       </c>
-      <c r="N11" s="9" t="s">
+      <c r="N11" t="s">
         <v>236</v>
       </c>
-      <c r="O11" s="9" t="s">
+      <c r="O11" t="s">
         <v>259</v>
       </c>
-      <c r="P11" s="9" t="s">
+      <c r="P11" t="s">
         <v>206</v>
       </c>
-      <c r="Q11" s="9" t="s">
+      <c r="Q11" t="s">
         <v>206</v>
       </c>
-      <c r="R11" s="9" t="s">
+      <c r="R11" t="s">
         <v>254</v>
       </c>
-      <c r="S11" s="9" t="s">
+      <c r="S11" t="s">
         <v>123</v>
       </c>
-      <c r="T11" s="10"/>
-      <c r="U11" s="9" t="s">
+      <c r="T11"/>
+      <c r="U11" t="s">
         <v>260</v>
       </c>
-      <c r="V11" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="W11" s="9" t="s">
+      <c r="V11" t="s">
+        <v>175</v>
+      </c>
+      <c r="W11" t="s">
         <v>220</v>
       </c>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
-    </row>
-    <row r="12" spans="1:26" ht="26.5" thickBot="1">
-      <c r="A12" s="3" t="s">
+      <c r="X11"/>
+      <c r="Y11"/>
+      <c r="Z11"/>
+      <c r="AA11"/>
+      <c r="AB11"/>
+      <c r="AC11"/>
+      <c r="AD11"/>
+      <c r="AE11"/>
+      <c r="AF11"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>108</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" t="s">
         <v>261</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" t="s">
         <v>262</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" t="s">
         <v>114</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" t="s">
         <v>131</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" t="s">
         <v>111</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I12" t="s">
         <v>132</v>
       </c>
-      <c r="J12" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K12" s="9" t="s">
+      <c r="J12" t="s">
+        <v>175</v>
+      </c>
+      <c r="K12" t="s">
         <v>133</v>
       </c>
-      <c r="L12" s="9" t="s">
+      <c r="L12" t="s">
         <v>113</v>
       </c>
-      <c r="M12" s="9" t="s">
+      <c r="M12" t="s">
         <v>258</v>
       </c>
-      <c r="N12" s="9" t="s">
+      <c r="N12" t="s">
         <v>231</v>
       </c>
-      <c r="O12" s="9" t="s">
+      <c r="O12" t="s">
         <v>263</v>
       </c>
-      <c r="P12" s="9" t="s">
+      <c r="P12" t="s">
         <v>230</v>
       </c>
-      <c r="Q12" s="9" t="s">
+      <c r="Q12" t="s">
         <v>264</v>
       </c>
-      <c r="R12" s="9" t="s">
+      <c r="R12" t="s">
         <v>238</v>
       </c>
-      <c r="S12" s="9" t="s">
+      <c r="S12" t="s">
         <v>232</v>
       </c>
-      <c r="T12" s="9" t="s">
+      <c r="T12" t="s">
         <v>265</v>
       </c>
-      <c r="U12" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="V12" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="W12" s="9" t="s">
+      <c r="U12" t="s">
+        <v>175</v>
+      </c>
+      <c r="V12" t="s">
+        <v>175</v>
+      </c>
+      <c r="W12" t="s">
         <v>207</v>
       </c>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-    </row>
-    <row r="13" spans="1:26" ht="26.5" thickBot="1">
-      <c r="A13" s="3" t="s">
+      <c r="X12"/>
+      <c r="Y12"/>
+      <c r="Z12"/>
+      <c r="AA12"/>
+      <c r="AB12"/>
+      <c r="AC12"/>
+      <c r="AD12"/>
+      <c r="AE12"/>
+      <c r="AF12"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>108</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" t="s">
         <v>181</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" t="s">
         <v>266</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" t="s">
         <v>126</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" t="s">
         <v>120</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" t="s">
         <v>110</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" t="s">
         <v>134</v>
       </c>
-      <c r="J13" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K13" s="9" t="s">
+      <c r="J13" t="s">
+        <v>175</v>
+      </c>
+      <c r="K13" t="s">
         <v>267</v>
       </c>
-      <c r="L13" s="9" t="s">
+      <c r="L13" t="s">
         <v>184</v>
       </c>
-      <c r="M13" s="9" t="s">
+      <c r="M13" t="s">
         <v>268</v>
       </c>
-      <c r="N13" s="9" t="s">
+      <c r="N13" t="s">
         <v>269</v>
       </c>
-      <c r="O13" s="9" t="s">
+      <c r="O13" t="s">
         <v>270</v>
       </c>
-      <c r="P13" s="9" t="s">
+      <c r="P13" t="s">
         <v>212</v>
       </c>
-      <c r="Q13" s="9" t="s">
+      <c r="Q13" t="s">
         <v>191</v>
       </c>
-      <c r="R13" s="9" t="s">
+      <c r="R13" t="s">
         <v>197</v>
       </c>
-      <c r="S13" s="9" t="s">
+      <c r="S13" t="s">
         <v>127</v>
       </c>
-      <c r="T13" s="10"/>
-      <c r="U13" s="9" t="s">
+      <c r="T13"/>
+      <c r="U13" t="s">
         <v>271</v>
       </c>
-      <c r="V13" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="W13" s="9" t="s">
+      <c r="V13" t="s">
+        <v>175</v>
+      </c>
+      <c r="W13" t="s">
         <v>239</v>
       </c>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="8" t="s">
+      <c r="X13"/>
+      <c r="Y13" t="s">
         <v>38</v>
       </c>
-      <c r="Z13" s="7"/>
-    </row>
-    <row r="14" spans="1:26" ht="26.5" thickBot="1">
-      <c r="A14" s="3" t="s">
+      <c r="Z13"/>
+      <c r="AA13"/>
+      <c r="AB13"/>
+      <c r="AC13"/>
+      <c r="AD13"/>
+      <c r="AE13"/>
+      <c r="AF13"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>108</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" t="s">
         <v>272</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" t="s">
         <v>273</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" t="s">
         <v>274</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" t="s">
         <v>135</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" t="s">
         <v>136</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="I14" t="s">
         <v>137</v>
       </c>
-      <c r="J14" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K14" s="9" t="s">
+      <c r="J14" t="s">
+        <v>175</v>
+      </c>
+      <c r="K14" t="s">
         <v>138</v>
       </c>
-      <c r="L14" s="9" t="s">
+      <c r="L14" t="s">
         <v>275</v>
       </c>
-      <c r="M14" s="9" t="s">
+      <c r="M14" t="s">
         <v>276</v>
       </c>
-      <c r="N14" s="11" t="s">
+      <c r="N14" t="s">
         <v>277</v>
       </c>
-      <c r="O14" s="9" t="s">
+      <c r="O14" t="s">
         <v>278</v>
       </c>
-      <c r="P14" s="9" t="s">
+      <c r="P14" t="s">
         <v>279</v>
       </c>
-      <c r="Q14" s="9" t="s">
+      <c r="Q14" t="s">
         <v>280</v>
       </c>
-      <c r="R14" s="9" t="s">
+      <c r="R14" t="s">
         <v>281</v>
       </c>
-      <c r="S14" s="9" t="s">
+      <c r="S14" t="s">
         <v>235</v>
       </c>
-      <c r="T14" s="9" t="s">
+      <c r="T14" t="s">
         <v>282</v>
       </c>
-      <c r="U14" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="V14" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="W14" s="9" t="s">
+      <c r="U14" t="s">
+        <v>175</v>
+      </c>
+      <c r="V14" t="s">
+        <v>175</v>
+      </c>
+      <c r="W14" t="s">
         <v>178</v>
       </c>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="7"/>
-    </row>
-    <row r="15" spans="1:26" ht="26.5" thickBot="1">
-      <c r="A15" s="3" t="s">
+      <c r="X14"/>
+      <c r="Y14"/>
+      <c r="Z14"/>
+      <c r="AA14"/>
+      <c r="AB14"/>
+      <c r="AC14"/>
+      <c r="AD14"/>
+      <c r="AE14"/>
+      <c r="AF14"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>108</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" t="s">
         <v>283</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" t="s">
         <v>284</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" t="s">
         <v>118</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" t="s">
         <v>115</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" t="s">
         <v>111</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="I15" t="s">
         <v>131</v>
       </c>
-      <c r="J15" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K15" s="9" t="s">
+      <c r="J15" t="s">
+        <v>175</v>
+      </c>
+      <c r="K15" t="s">
         <v>285</v>
       </c>
-      <c r="L15" s="9" t="s">
+      <c r="L15" t="s">
         <v>114</v>
       </c>
-      <c r="M15" s="9" t="s">
+      <c r="M15" t="s">
         <v>286</v>
       </c>
-      <c r="N15" s="9" t="s">
+      <c r="N15" t="s">
         <v>236</v>
       </c>
-      <c r="O15" s="9" t="s">
+      <c r="O15" t="s">
         <v>287</v>
       </c>
-      <c r="P15" s="9" t="s">
+      <c r="P15" t="s">
         <v>288</v>
       </c>
-      <c r="Q15" s="9" t="s">
+      <c r="Q15" t="s">
         <v>289</v>
       </c>
-      <c r="R15" s="9" t="s">
+      <c r="R15" t="s">
         <v>255</v>
       </c>
-      <c r="S15" s="9" t="s">
+      <c r="S15" t="s">
         <v>174</v>
       </c>
-      <c r="T15" s="10"/>
-      <c r="U15" s="9" t="s">
+      <c r="T15"/>
+      <c r="U15" t="s">
         <v>290</v>
       </c>
-      <c r="V15" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="W15" s="9" t="s">
+      <c r="V15" t="s">
+        <v>175</v>
+      </c>
+      <c r="W15" t="s">
         <v>291</v>
       </c>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="7"/>
-    </row>
-    <row r="16" spans="1:26" ht="26.5" thickBot="1">
-      <c r="A16" s="3" t="s">
+      <c r="X15"/>
+      <c r="Y15"/>
+      <c r="Z15"/>
+      <c r="AA15"/>
+      <c r="AB15"/>
+      <c r="AC15"/>
+      <c r="AD15"/>
+      <c r="AE15"/>
+      <c r="AF15"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>108</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" t="s">
         <v>292</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" t="s">
         <v>291</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" t="s">
         <v>234</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" t="s">
         <v>139</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" t="s">
         <v>139</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="I16" t="s">
         <v>140</v>
       </c>
-      <c r="J16" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K16" s="9" t="s">
+      <c r="J16" t="s">
+        <v>175</v>
+      </c>
+      <c r="K16" t="s">
         <v>141</v>
       </c>
-      <c r="L16" s="9" t="s">
+      <c r="L16" t="s">
         <v>127</v>
       </c>
-      <c r="M16" s="9" t="s">
+      <c r="M16" t="s">
         <v>254</v>
       </c>
-      <c r="N16" s="9" t="s">
+      <c r="N16" t="s">
         <v>293</v>
       </c>
-      <c r="O16" s="9" t="s">
+      <c r="O16" t="s">
         <v>294</v>
       </c>
-      <c r="P16" s="9" t="s">
+      <c r="P16" t="s">
         <v>202</v>
       </c>
-      <c r="Q16" s="9" t="s">
+      <c r="Q16" t="s">
         <v>295</v>
       </c>
-      <c r="R16" s="9" t="s">
+      <c r="R16" t="s">
         <v>296</v>
       </c>
-      <c r="S16" s="9" t="s">
+      <c r="S16" t="s">
         <v>217</v>
       </c>
-      <c r="T16" s="10"/>
-      <c r="U16" s="9" t="s">
+      <c r="T16"/>
+      <c r="U16" t="s">
         <v>297</v>
       </c>
-      <c r="V16" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="W16" s="9" t="s">
+      <c r="V16" t="s">
+        <v>175</v>
+      </c>
+      <c r="W16" t="s">
         <v>178</v>
       </c>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="8" t="s">
+      <c r="X16"/>
+      <c r="Y16" t="s">
         <v>38</v>
       </c>
-      <c r="Z16" s="7"/>
-    </row>
-    <row r="17" spans="1:26" ht="26.5" thickBot="1">
-      <c r="A17" s="3" t="s">
+      <c r="Z16"/>
+      <c r="AA16"/>
+      <c r="AB16"/>
+      <c r="AC16"/>
+      <c r="AD16"/>
+      <c r="AE16"/>
+      <c r="AF16"/>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>108</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" t="s">
         <v>298</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" t="s">
         <v>299</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" t="s">
         <v>119</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" t="s">
         <v>142</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" t="s">
         <v>134</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="I17" t="s">
         <v>112</v>
       </c>
-      <c r="J17" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K17" s="9" t="s">
+      <c r="J17" t="s">
+        <v>175</v>
+      </c>
+      <c r="K17" t="s">
         <v>231</v>
       </c>
-      <c r="L17" s="9" t="s">
+      <c r="L17" t="s">
         <v>184</v>
       </c>
-      <c r="M17" s="9" t="s">
+      <c r="M17" t="s">
         <v>236</v>
       </c>
-      <c r="N17" s="9" t="s">
+      <c r="N17" t="s">
         <v>178</v>
       </c>
-      <c r="O17" s="9" t="s">
+      <c r="O17" t="s">
         <v>300</v>
       </c>
-      <c r="P17" s="9" t="s">
+      <c r="P17" t="s">
         <v>255</v>
       </c>
-      <c r="Q17" s="9" t="s">
+      <c r="Q17" t="s">
         <v>301</v>
       </c>
-      <c r="R17" s="9" t="s">
+      <c r="R17" t="s">
         <v>302</v>
       </c>
-      <c r="S17" s="9" t="s">
+      <c r="S17" t="s">
         <v>204</v>
       </c>
-      <c r="T17" s="9" t="s">
+      <c r="T17" t="s">
         <v>303</v>
       </c>
-      <c r="U17" s="9" t="s">
+      <c r="U17" t="s">
         <v>304</v>
       </c>
-      <c r="V17" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="W17" s="9" t="s">
+      <c r="V17" t="s">
+        <v>175</v>
+      </c>
+      <c r="W17" t="s">
         <v>143</v>
       </c>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="8" t="s">
+      <c r="X17"/>
+      <c r="Y17" t="s">
         <v>38</v>
       </c>
-      <c r="Z17" s="7"/>
-    </row>
-    <row r="18" spans="1:26" ht="26.5" thickBot="1">
-      <c r="A18" s="3" t="s">
+      <c r="Z17"/>
+      <c r="AA17"/>
+      <c r="AB17"/>
+      <c r="AC17"/>
+      <c r="AD17"/>
+      <c r="AE17"/>
+      <c r="AF17"/>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>108</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" t="s">
         <v>190</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" t="s">
         <v>305</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" t="s">
         <v>144</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" t="s">
         <v>115</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" t="s">
         <v>111</v>
       </c>
-      <c r="I18" s="9" t="s">
+      <c r="I18" t="s">
         <v>145</v>
       </c>
-      <c r="J18" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K18" s="9" t="s">
+      <c r="J18" t="s">
+        <v>175</v>
+      </c>
+      <c r="K18" t="s">
         <v>306</v>
       </c>
-      <c r="L18" s="9" t="s">
+      <c r="L18" t="s">
         <v>252</v>
       </c>
-      <c r="M18" s="9" t="s">
+      <c r="M18" t="s">
         <v>307</v>
       </c>
-      <c r="N18" s="9" t="s">
+      <c r="N18" t="s">
         <v>233</v>
       </c>
-      <c r="O18" s="9" t="s">
+      <c r="O18" t="s">
         <v>308</v>
       </c>
-      <c r="P18" s="9" t="s">
+      <c r="P18" t="s">
         <v>309</v>
       </c>
-      <c r="Q18" s="9" t="s">
+      <c r="Q18" t="s">
         <v>187</v>
       </c>
-      <c r="R18" s="9" t="s">
+      <c r="R18" t="s">
         <v>293</v>
       </c>
-      <c r="S18" s="9" t="s">
+      <c r="S18" t="s">
         <v>232</v>
       </c>
-      <c r="T18" s="10"/>
-      <c r="U18" s="9" t="s">
+      <c r="T18"/>
+      <c r="U18" t="s">
         <v>310</v>
       </c>
-      <c r="V18" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="W18" s="9" t="s">
+      <c r="V18" t="s">
+        <v>175</v>
+      </c>
+      <c r="W18" t="s">
         <v>247</v>
       </c>
-      <c r="X18" s="7"/>
-      <c r="Y18" s="7"/>
-      <c r="Z18" s="7"/>
-    </row>
-    <row r="19" spans="1:26" ht="26.5" thickBot="1">
-      <c r="A19" s="3" t="s">
+      <c r="X18"/>
+      <c r="Y18"/>
+      <c r="Z18"/>
+      <c r="AA18"/>
+      <c r="AB18"/>
+      <c r="AC18"/>
+      <c r="AD18"/>
+      <c r="AE18"/>
+      <c r="AF18"/>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>108</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" t="s">
         <v>311</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" t="s">
         <v>284</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" t="s">
         <v>118</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" t="s">
         <v>116</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" t="s">
         <v>111</v>
       </c>
-      <c r="I19" s="9" t="s">
+      <c r="I19" t="s">
         <v>109</v>
       </c>
-      <c r="J19" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K19" s="9" t="s">
+      <c r="J19" t="s">
+        <v>175</v>
+      </c>
+      <c r="K19" t="s">
         <v>312</v>
       </c>
-      <c r="L19" s="9" t="s">
+      <c r="L19" t="s">
         <v>118</v>
       </c>
-      <c r="M19" s="9" t="s">
+      <c r="M19" t="s">
         <v>284</v>
       </c>
-      <c r="N19" s="9" t="s">
+      <c r="N19" t="s">
         <v>173</v>
       </c>
-      <c r="O19" s="9" t="s">
+      <c r="O19" t="s">
         <v>313</v>
       </c>
-      <c r="P19" s="9" t="s">
+      <c r="P19" t="s">
         <v>314</v>
       </c>
-      <c r="Q19" s="9" t="s">
+      <c r="Q19" t="s">
         <v>315</v>
       </c>
-      <c r="R19" s="9" t="s">
+      <c r="R19" t="s">
         <v>316</v>
       </c>
-      <c r="S19" s="9" t="s">
+      <c r="S19" t="s">
         <v>113</v>
       </c>
-      <c r="T19" s="9" t="s">
+      <c r="T19" t="s">
         <v>113</v>
       </c>
-      <c r="U19" s="9" t="s">
+      <c r="U19" t="s">
         <v>220</v>
       </c>
-      <c r="V19" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="W19" s="9" t="s">
+      <c r="V19" t="s">
+        <v>175</v>
+      </c>
+      <c r="W19" t="s">
         <v>317</v>
       </c>
-      <c r="X19" s="7"/>
-      <c r="Y19" s="7"/>
-      <c r="Z19" s="7"/>
-    </row>
-    <row r="20" spans="1:26" ht="26.5" thickBot="1">
-      <c r="A20" s="3" t="s">
+      <c r="X19"/>
+      <c r="Y19"/>
+      <c r="Z19"/>
+      <c r="AA19"/>
+      <c r="AB19"/>
+      <c r="AC19"/>
+      <c r="AD19"/>
+      <c r="AE19"/>
+      <c r="AF19"/>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>108</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" t="s">
         <v>181</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" t="s">
         <v>192</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" t="s">
         <v>126</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" t="s">
         <v>116</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" t="s">
         <v>116</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="I20" t="s">
         <v>146</v>
       </c>
-      <c r="J20" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K20" s="9" t="s">
+      <c r="J20" t="s">
+        <v>175</v>
+      </c>
+      <c r="K20" t="s">
         <v>227</v>
       </c>
-      <c r="L20" s="9" t="s">
+      <c r="L20" t="s">
         <v>127</v>
       </c>
-      <c r="M20" s="9" t="s">
+      <c r="M20" t="s">
         <v>192</v>
       </c>
-      <c r="N20" s="9" t="s">
+      <c r="N20" t="s">
         <v>239</v>
       </c>
-      <c r="O20" s="9" t="s">
+      <c r="O20" t="s">
         <v>318</v>
       </c>
-      <c r="P20" s="9" t="s">
+      <c r="P20" t="s">
         <v>183</v>
       </c>
-      <c r="Q20" s="9" t="s">
+      <c r="Q20" t="s">
         <v>319</v>
       </c>
-      <c r="R20" s="9" t="s">
+      <c r="R20" t="s">
         <v>220</v>
       </c>
-      <c r="S20" s="9" t="s">
+      <c r="S20" t="s">
         <v>123</v>
       </c>
-      <c r="T20" s="10"/>
-      <c r="U20" s="9" t="s">
+      <c r="T20"/>
+      <c r="U20" t="s">
         <v>320</v>
       </c>
-      <c r="V20" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="W20" s="9" t="s">
+      <c r="V20" t="s">
+        <v>175</v>
+      </c>
+      <c r="W20" t="s">
         <v>147</v>
       </c>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="7"/>
-      <c r="Z20" s="7"/>
-    </row>
-    <row r="21" spans="1:26" ht="26.5" thickBot="1">
-      <c r="A21" s="3" t="s">
+      <c r="X20"/>
+      <c r="Y20"/>
+      <c r="Z20"/>
+      <c r="AA20"/>
+      <c r="AB20"/>
+      <c r="AC20"/>
+      <c r="AD20"/>
+      <c r="AE20"/>
+      <c r="AF20"/>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" t="s">
         <v>181</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" t="s">
         <v>232</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" t="s">
         <v>118</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" t="s">
         <v>116</v>
       </c>
-      <c r="H21" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="I21" s="9" t="s">
+      <c r="H21" t="s">
+        <v>175</v>
+      </c>
+      <c r="I21" t="s">
         <v>128</v>
       </c>
-      <c r="J21" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K21" s="9" t="s">
+      <c r="J21" t="s">
+        <v>175</v>
+      </c>
+      <c r="K21" t="s">
         <v>321</v>
       </c>
-      <c r="L21" s="9" t="s">
+      <c r="L21" t="s">
         <v>119</v>
       </c>
-      <c r="M21" s="9" t="s">
+      <c r="M21" t="s">
         <v>177</v>
       </c>
-      <c r="N21" s="9" t="s">
+      <c r="N21" t="s">
         <v>277</v>
       </c>
-      <c r="O21" s="9" t="s">
+      <c r="O21" t="s">
         <v>322</v>
       </c>
-      <c r="P21" s="9" t="s">
+      <c r="P21" t="s">
         <v>323</v>
       </c>
-      <c r="Q21" s="9" t="s">
+      <c r="Q21" t="s">
         <v>181</v>
       </c>
-      <c r="R21" s="9" t="s">
+      <c r="R21" t="s">
         <v>314</v>
       </c>
-      <c r="S21" s="9" t="s">
+      <c r="S21" t="s">
         <v>126</v>
       </c>
-      <c r="T21" s="10"/>
-      <c r="U21" s="9" t="s">
+      <c r="T21"/>
+      <c r="U21" t="s">
         <v>228</v>
       </c>
-      <c r="V21" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="W21" s="9" t="s">
+      <c r="V21" t="s">
+        <v>175</v>
+      </c>
+      <c r="W21" t="s">
         <v>211</v>
       </c>
-      <c r="X21" s="7"/>
-      <c r="Y21" s="7"/>
-      <c r="Z21" s="7"/>
-    </row>
-    <row r="22" spans="1:26" ht="26.5" thickBot="1">
-      <c r="A22" s="3" t="s">
+      <c r="X21"/>
+      <c r="Y21"/>
+      <c r="Z21"/>
+      <c r="AA21"/>
+      <c r="AB21"/>
+      <c r="AC21"/>
+      <c r="AD21"/>
+      <c r="AE21"/>
+      <c r="AF21"/>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>108</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" t="s">
         <v>207</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" t="s">
         <v>204</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" t="s">
         <v>118</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" t="s">
         <v>112</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="H22" t="s">
         <v>111</v>
       </c>
-      <c r="I22" s="9" t="s">
+      <c r="I22" t="s">
         <v>109</v>
       </c>
-      <c r="J22" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K22" s="9" t="s">
+      <c r="J22" t="s">
+        <v>175</v>
+      </c>
+      <c r="K22" t="s">
         <v>299</v>
       </c>
-      <c r="L22" s="9" t="s">
+      <c r="L22" t="s">
         <v>114</v>
       </c>
-      <c r="M22" s="11" t="s">
+      <c r="M22" t="s">
         <v>177</v>
       </c>
-      <c r="N22" s="9" t="s">
+      <c r="N22" t="s">
         <v>316</v>
       </c>
-      <c r="O22" s="9" t="s">
+      <c r="O22" t="s">
         <v>324</v>
       </c>
-      <c r="P22" s="9" t="s">
+      <c r="P22" t="s">
         <v>319</v>
       </c>
-      <c r="Q22" s="9" t="s">
+      <c r="Q22" t="s">
         <v>207</v>
       </c>
-      <c r="R22" s="9" t="s">
+      <c r="R22" t="s">
         <v>233</v>
       </c>
-      <c r="S22" s="9" t="s">
+      <c r="S22" t="s">
         <v>114</v>
       </c>
-      <c r="T22" s="10"/>
-      <c r="U22" s="9" t="s">
+      <c r="T22"/>
+      <c r="U22" t="s">
         <v>254</v>
       </c>
-      <c r="V22" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="W22" s="9" t="s">
+      <c r="V22" t="s">
+        <v>175</v>
+      </c>
+      <c r="W22" t="s">
         <v>325</v>
       </c>
-      <c r="X22" s="7"/>
-      <c r="Y22" s="7"/>
-      <c r="Z22" s="7"/>
-    </row>
-    <row r="23" spans="1:26" ht="26.5" thickBot="1">
-      <c r="A23" s="3" t="s">
+      <c r="X22"/>
+      <c r="Y22"/>
+      <c r="Z22"/>
+      <c r="AA22"/>
+      <c r="AB22"/>
+      <c r="AC22"/>
+      <c r="AD22"/>
+      <c r="AE22"/>
+      <c r="AF22"/>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" t="s">
         <v>182</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" t="s">
         <v>248</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" t="s">
         <v>118</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" t="s">
         <v>115</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="H23" t="s">
         <v>110</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="I23" t="s">
         <v>128</v>
       </c>
-      <c r="J23" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K23" s="9" t="s">
+      <c r="J23" t="s">
+        <v>175</v>
+      </c>
+      <c r="K23" t="s">
         <v>251</v>
       </c>
-      <c r="L23" s="9" t="s">
+      <c r="L23" t="s">
         <v>109</v>
       </c>
-      <c r="M23" s="9" t="s">
+      <c r="M23" t="s">
         <v>204</v>
       </c>
-      <c r="N23" s="9" t="s">
+      <c r="N23" t="s">
         <v>257</v>
       </c>
-      <c r="O23" s="9" t="s">
+      <c r="O23" t="s">
         <v>326</v>
       </c>
-      <c r="P23" s="9" t="s">
+      <c r="P23" t="s">
         <v>327</v>
       </c>
-      <c r="Q23" s="9" t="s">
+      <c r="Q23" t="s">
         <v>283</v>
       </c>
-      <c r="R23" s="9" t="s">
+      <c r="R23" t="s">
         <v>254</v>
       </c>
-      <c r="S23" s="9" t="s">
+      <c r="S23" t="s">
         <v>126</v>
       </c>
-      <c r="T23" s="9" t="s">
+      <c r="T23" t="s">
         <v>113</v>
       </c>
-      <c r="U23" s="9" t="s">
+      <c r="U23" t="s">
         <v>328</v>
       </c>
-      <c r="V23" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="W23" s="9" t="s">
+      <c r="V23" t="s">
+        <v>175</v>
+      </c>
+      <c r="W23" t="s">
         <v>311</v>
       </c>
-      <c r="X23" s="7"/>
-      <c r="Y23" s="7"/>
-      <c r="Z23" s="7"/>
-    </row>
-    <row r="24" spans="1:26" ht="26.5" thickBot="1">
-      <c r="A24" s="3" t="s">
+      <c r="X23"/>
+      <c r="Y23"/>
+      <c r="Z23"/>
+      <c r="AA23"/>
+      <c r="AB23"/>
+      <c r="AC23"/>
+      <c r="AD23"/>
+      <c r="AE23"/>
+      <c r="AF23"/>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>108</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" t="s">
         <v>191</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" t="s">
         <v>305</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" t="s">
         <v>119</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" t="s">
         <v>120</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="H24" t="s">
         <v>111</v>
       </c>
-      <c r="I24" s="9" t="s">
+      <c r="I24" t="s">
         <v>148</v>
       </c>
-      <c r="J24" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K24" s="9" t="s">
+      <c r="J24" t="s">
+        <v>175</v>
+      </c>
+      <c r="K24" t="s">
         <v>329</v>
       </c>
-      <c r="L24" s="9" t="s">
+      <c r="L24" t="s">
         <v>127</v>
       </c>
-      <c r="M24" s="9" t="s">
+      <c r="M24" t="s">
         <v>286</v>
       </c>
-      <c r="N24" s="9" t="s">
+      <c r="N24" t="s">
         <v>257</v>
       </c>
-      <c r="O24" s="9" t="s">
+      <c r="O24" t="s">
         <v>330</v>
       </c>
-      <c r="P24" s="9" t="s">
+      <c r="P24" t="s">
         <v>195</v>
       </c>
-      <c r="Q24" s="9" t="s">
+      <c r="Q24" t="s">
         <v>331</v>
       </c>
-      <c r="R24" s="9" t="s">
+      <c r="R24" t="s">
         <v>182</v>
       </c>
-      <c r="S24" s="9" t="s">
+      <c r="S24" t="s">
         <v>119</v>
       </c>
-      <c r="T24" s="10"/>
-      <c r="U24" s="9" t="s">
+      <c r="T24"/>
+      <c r="U24" t="s">
         <v>183</v>
       </c>
-      <c r="V24" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="W24" s="9" t="s">
+      <c r="V24" t="s">
+        <v>175</v>
+      </c>
+      <c r="W24" t="s">
         <v>201</v>
       </c>
-      <c r="X24" s="7"/>
-      <c r="Y24" s="7"/>
-      <c r="Z24" s="7"/>
-    </row>
-    <row r="25" spans="1:26" ht="26.5" thickBot="1">
-      <c r="A25" s="3" t="s">
+      <c r="X24"/>
+      <c r="Y24"/>
+      <c r="Z24"/>
+      <c r="AA24"/>
+      <c r="AB24"/>
+      <c r="AC24"/>
+      <c r="AD24"/>
+      <c r="AE24"/>
+      <c r="AF24"/>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>108</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" t="s">
         <v>181</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" t="s">
         <v>268</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" t="s">
         <v>119</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" t="s">
         <v>109</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" t="s">
         <v>109</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="I25" t="s">
         <v>118</v>
       </c>
-      <c r="J25" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K25" s="9" t="s">
+      <c r="J25" t="s">
+        <v>175</v>
+      </c>
+      <c r="K25" t="s">
         <v>306</v>
       </c>
-      <c r="L25" s="9" t="s">
+      <c r="L25" t="s">
         <v>109</v>
       </c>
-      <c r="M25" s="9" t="s">
+      <c r="M25" t="s">
         <v>305</v>
       </c>
-      <c r="N25" s="9" t="s">
+      <c r="N25" t="s">
         <v>199</v>
       </c>
-      <c r="O25" s="9" t="s">
+      <c r="O25" t="s">
         <v>332</v>
       </c>
-      <c r="P25" s="9" t="s">
+      <c r="P25" t="s">
         <v>333</v>
       </c>
-      <c r="Q25" s="9" t="s">
+      <c r="Q25" t="s">
         <v>334</v>
       </c>
-      <c r="R25" s="9" t="s">
+      <c r="R25" t="s">
         <v>197</v>
       </c>
-      <c r="S25" s="9" t="s">
+      <c r="S25" t="s">
         <v>275</v>
       </c>
-      <c r="T25" s="10"/>
-      <c r="U25" s="9" t="s">
+      <c r="T25"/>
+      <c r="U25" t="s">
         <v>335</v>
       </c>
-      <c r="V25" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="W25" s="9" t="s">
+      <c r="V25" t="s">
+        <v>175</v>
+      </c>
+      <c r="W25" t="s">
         <v>207</v>
       </c>
-      <c r="X25" s="7"/>
-      <c r="Y25" s="7"/>
-      <c r="Z25" s="7"/>
-    </row>
-    <row r="26" spans="1:26" ht="26.5" thickBot="1">
-      <c r="A26" s="3" t="s">
+      <c r="X25"/>
+      <c r="Y25"/>
+      <c r="Z25"/>
+      <c r="AA25"/>
+      <c r="AB25"/>
+      <c r="AC25"/>
+      <c r="AD25"/>
+      <c r="AE25"/>
+      <c r="AF25"/>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>108</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" t="s">
         <v>336</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" t="s">
         <v>337</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" t="s">
         <v>338</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="G26" t="s">
         <v>122</v>
       </c>
-      <c r="H26" s="9" t="s">
+      <c r="H26" t="s">
         <v>130</v>
       </c>
-      <c r="I26" s="9" t="s">
+      <c r="I26" t="s">
         <v>127</v>
       </c>
-      <c r="J26" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K26" s="9" t="s">
+      <c r="J26" t="s">
+        <v>175</v>
+      </c>
+      <c r="K26" t="s">
         <v>339</v>
       </c>
-      <c r="L26" s="9" t="s">
+      <c r="L26" t="s">
         <v>192</v>
       </c>
-      <c r="M26" s="9" t="s">
+      <c r="M26" t="s">
         <v>305</v>
       </c>
-      <c r="N26" s="9" t="s">
+      <c r="N26" t="s">
         <v>199</v>
       </c>
-      <c r="O26" s="9" t="s">
+      <c r="O26" t="s">
         <v>340</v>
       </c>
-      <c r="P26" s="9" t="s">
+      <c r="P26" t="s">
         <v>236</v>
       </c>
-      <c r="Q26" s="9" t="s">
+      <c r="Q26" t="s">
         <v>341</v>
       </c>
-      <c r="R26" s="9" t="s">
+      <c r="R26" t="s">
         <v>283</v>
       </c>
-      <c r="S26" s="9" t="s">
+      <c r="S26" t="s">
         <v>127</v>
       </c>
-      <c r="T26" s="10"/>
-      <c r="U26" s="9" t="s">
+      <c r="T26"/>
+      <c r="U26" t="s">
         <v>187</v>
       </c>
-      <c r="V26" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="W26" s="9" t="s">
+      <c r="V26" t="s">
+        <v>175</v>
+      </c>
+      <c r="W26" t="s">
         <v>233</v>
       </c>
-      <c r="X26" s="7"/>
-      <c r="Y26" s="8" t="s">
+      <c r="X26"/>
+      <c r="Y26" t="s">
         <v>38</v>
       </c>
-      <c r="Z26" s="7"/>
-    </row>
-    <row r="27" spans="1:26" ht="26.5" thickBot="1">
-      <c r="A27" s="3" t="s">
+      <c r="Z26"/>
+      <c r="AA26"/>
+      <c r="AB26"/>
+      <c r="AC26"/>
+      <c r="AD26"/>
+      <c r="AE26"/>
+      <c r="AF26"/>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>108</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" t="s">
         <v>181</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" t="s">
         <v>252</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" t="s">
         <v>118</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="G27" t="s">
         <v>112</v>
       </c>
-      <c r="H27" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="I27" s="9" t="s">
+      <c r="H27" t="s">
+        <v>175</v>
+      </c>
+      <c r="I27" t="s">
         <v>136</v>
       </c>
-      <c r="J27" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K27" s="9" t="s">
+      <c r="J27" t="s">
+        <v>175</v>
+      </c>
+      <c r="K27" t="s">
         <v>218</v>
       </c>
-      <c r="L27" s="9" t="s">
+      <c r="L27" t="s">
         <v>178</v>
       </c>
-      <c r="M27" s="9" t="s">
+      <c r="M27" t="s">
         <v>342</v>
       </c>
-      <c r="N27" s="9" t="s">
+      <c r="N27" t="s">
         <v>343</v>
       </c>
-      <c r="O27" s="9" t="s">
+      <c r="O27" t="s">
         <v>344</v>
       </c>
-      <c r="P27" s="9" t="s">
+      <c r="P27" t="s">
         <v>190</v>
       </c>
-      <c r="Q27" s="9" t="s">
+      <c r="Q27" t="s">
         <v>206</v>
       </c>
-      <c r="R27" s="9" t="s">
+      <c r="R27" t="s">
         <v>182</v>
       </c>
-      <c r="S27" s="9" t="s">
+      <c r="S27" t="s">
         <v>114</v>
       </c>
-      <c r="T27" s="10"/>
-      <c r="U27" s="9" t="s">
+      <c r="T27"/>
+      <c r="U27" t="s">
         <v>345</v>
       </c>
-      <c r="V27" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="W27" s="9" t="s">
+      <c r="V27" t="s">
+        <v>175</v>
+      </c>
+      <c r="W27" t="s">
         <v>346</v>
       </c>
-      <c r="X27" s="7"/>
-      <c r="Y27" s="7"/>
-      <c r="Z27" s="7"/>
-    </row>
-    <row r="28" spans="1:26" ht="26.5" thickBot="1">
-      <c r="A28" s="3" t="s">
+      <c r="X27"/>
+      <c r="Y27"/>
+      <c r="Z27"/>
+      <c r="AA27"/>
+      <c r="AB27"/>
+      <c r="AC27"/>
+      <c r="AD27"/>
+      <c r="AE27"/>
+      <c r="AF27"/>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>108</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" t="s">
         <v>197</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" t="s">
         <v>144</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" t="s">
         <v>109</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G28" t="s">
         <v>116</v>
       </c>
-      <c r="H28" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="I28" s="9" t="s">
+      <c r="H28" t="s">
+        <v>175</v>
+      </c>
+      <c r="I28" t="s">
         <v>112</v>
       </c>
-      <c r="J28" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K28" s="9" t="s">
+      <c r="J28" t="s">
+        <v>175</v>
+      </c>
+      <c r="K28" t="s">
         <v>347</v>
       </c>
-      <c r="L28" s="9" t="s">
+      <c r="L28" t="s">
         <v>109</v>
       </c>
-      <c r="M28" s="9" t="s">
+      <c r="M28" t="s">
         <v>114</v>
       </c>
-      <c r="N28" s="9" t="s">
+      <c r="N28" t="s">
         <v>316</v>
       </c>
-      <c r="O28" s="9" t="s">
+      <c r="O28" t="s">
         <v>348</v>
       </c>
-      <c r="P28" s="9" t="s">
+      <c r="P28" t="s">
         <v>254</v>
       </c>
-      <c r="Q28" s="9" t="s">
+      <c r="Q28" t="s">
         <v>213</v>
       </c>
-      <c r="R28" s="9" t="s">
+      <c r="R28" t="s">
         <v>239</v>
       </c>
-      <c r="S28" s="9" t="s">
+      <c r="S28" t="s">
         <v>118</v>
       </c>
-      <c r="T28" s="9" t="s">
+      <c r="T28" t="s">
         <v>126</v>
       </c>
-      <c r="U28" s="9" t="s">
+      <c r="U28" t="s">
         <v>205</v>
       </c>
-      <c r="V28" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="W28" s="9" t="s">
+      <c r="V28" t="s">
+        <v>175</v>
+      </c>
+      <c r="W28" t="s">
         <v>239</v>
       </c>
-      <c r="X28" s="7"/>
-      <c r="Y28" s="7"/>
-      <c r="Z28" s="7"/>
-    </row>
-    <row r="29" spans="1:26" ht="26.5" thickBot="1">
-      <c r="A29" s="3" t="s">
+      <c r="X28"/>
+      <c r="Y28"/>
+      <c r="Z28"/>
+      <c r="AA28"/>
+      <c r="AB28"/>
+      <c r="AC28"/>
+      <c r="AD28"/>
+      <c r="AE28"/>
+      <c r="AF28"/>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>108</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" t="s">
         <v>206</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" t="s">
         <v>266</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" t="s">
         <v>114</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="G29" t="s">
         <v>109</v>
       </c>
-      <c r="H29" s="9" t="s">
+      <c r="H29" t="s">
         <v>110</v>
       </c>
-      <c r="I29" s="9" t="s">
+      <c r="I29" t="s">
         <v>149</v>
       </c>
-      <c r="J29" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K29" s="9" t="s">
+      <c r="J29" t="s">
+        <v>175</v>
+      </c>
+      <c r="K29" t="s">
         <v>349</v>
       </c>
-      <c r="L29" s="9" t="s">
+      <c r="L29" t="s">
         <v>109</v>
       </c>
-      <c r="M29" s="9" t="s">
+      <c r="M29" t="s">
         <v>178</v>
       </c>
-      <c r="N29" s="9" t="s">
+      <c r="N29" t="s">
         <v>208</v>
       </c>
-      <c r="O29" s="9" t="s">
+      <c r="O29" t="s">
         <v>350</v>
       </c>
-      <c r="P29" s="9" t="s">
+      <c r="P29" t="s">
         <v>314</v>
       </c>
-      <c r="Q29" s="9" t="s">
+      <c r="Q29" t="s">
         <v>207</v>
       </c>
-      <c r="R29" s="9" t="s">
+      <c r="R29" t="s">
         <v>316</v>
       </c>
-      <c r="S29" s="9" t="s">
+      <c r="S29" t="s">
         <v>113</v>
       </c>
-      <c r="T29" s="9" t="s">
+      <c r="T29" t="s">
         <v>126</v>
       </c>
-      <c r="U29" s="9" t="s">
+      <c r="U29" t="s">
         <v>351</v>
       </c>
-      <c r="V29" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="W29" s="9" t="s">
+      <c r="V29" t="s">
+        <v>175</v>
+      </c>
+      <c r="W29" t="s">
         <v>352</v>
       </c>
-      <c r="X29" s="7"/>
-      <c r="Y29" s="7"/>
-      <c r="Z29" s="7"/>
-    </row>
-    <row r="30" spans="1:26" ht="26.5" thickBot="1">
-      <c r="A30" s="3" t="s">
+      <c r="X29"/>
+      <c r="Y29"/>
+      <c r="Z29"/>
+      <c r="AA29"/>
+      <c r="AB29"/>
+      <c r="AC29"/>
+      <c r="AD29"/>
+      <c r="AE29"/>
+      <c r="AF29"/>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>108</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" t="s">
         <v>255</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" t="s">
         <v>174</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" t="s">
         <v>126</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="G30" t="s">
         <v>125</v>
       </c>
-      <c r="H30" s="9" t="s">
+      <c r="H30" t="s">
         <v>111</v>
       </c>
-      <c r="I30" s="9" t="s">
+      <c r="I30" t="s">
         <v>129</v>
       </c>
-      <c r="J30" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K30" s="9" t="s">
+      <c r="J30" t="s">
+        <v>175</v>
+      </c>
+      <c r="K30" t="s">
         <v>353</v>
       </c>
-      <c r="L30" s="9" t="s">
+      <c r="L30" t="s">
         <v>109</v>
       </c>
-      <c r="M30" s="9" t="s">
+      <c r="M30" t="s">
         <v>178</v>
       </c>
-      <c r="N30" s="9" t="s">
+      <c r="N30" t="s">
         <v>178</v>
       </c>
-      <c r="O30" s="9" t="s">
+      <c r="O30" t="s">
         <v>354</v>
       </c>
-      <c r="P30" s="9" t="s">
+      <c r="P30" t="s">
         <v>233</v>
       </c>
-      <c r="Q30" s="9" t="s">
+      <c r="Q30" t="s">
         <v>213</v>
       </c>
-      <c r="R30" s="9" t="s">
+      <c r="R30" t="s">
         <v>257</v>
       </c>
-      <c r="S30" s="9" t="s">
+      <c r="S30" t="s">
         <v>114</v>
       </c>
-      <c r="T30" s="10"/>
-      <c r="U30" s="9" t="s">
+      <c r="T30"/>
+      <c r="U30" t="s">
         <v>355</v>
       </c>
-      <c r="V30" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="W30" s="9" t="s">
+      <c r="V30" t="s">
+        <v>175</v>
+      </c>
+      <c r="W30" t="s">
         <v>356</v>
       </c>
-      <c r="X30" s="7"/>
-      <c r="Y30" s="7"/>
-      <c r="Z30" s="7"/>
-    </row>
-    <row r="31" spans="1:26" ht="26.5" thickBot="1">
-      <c r="A31" s="3" t="s">
+      <c r="X30"/>
+      <c r="Y30"/>
+      <c r="Z30"/>
+      <c r="AA30"/>
+      <c r="AB30"/>
+      <c r="AC30"/>
+      <c r="AD30"/>
+      <c r="AE30"/>
+      <c r="AF30"/>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>108</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" t="s">
         <v>331</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" t="s">
         <v>286</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" t="s">
         <v>114</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="G31" t="s">
         <v>120</v>
       </c>
-      <c r="H31" s="9" t="s">
+      <c r="H31" t="s">
         <v>116</v>
       </c>
-      <c r="I31" s="9" t="s">
+      <c r="I31" t="s">
         <v>117</v>
       </c>
-      <c r="J31" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K31" s="9" t="s">
+      <c r="J31" t="s">
+        <v>175</v>
+      </c>
+      <c r="K31" t="s">
         <v>357</v>
       </c>
-      <c r="L31" s="9" t="s">
+      <c r="L31" t="s">
         <v>358</v>
       </c>
-      <c r="M31" s="9" t="s">
+      <c r="M31" t="s">
         <v>359</v>
       </c>
-      <c r="N31" s="9" t="s">
+      <c r="N31" t="s">
         <v>331</v>
       </c>
-      <c r="O31" s="9" t="s">
+      <c r="O31" t="s">
         <v>360</v>
       </c>
-      <c r="P31" s="9" t="s">
+      <c r="P31" t="s">
         <v>191</v>
       </c>
-      <c r="Q31" s="9" t="s">
+      <c r="Q31" t="s">
         <v>195</v>
       </c>
-      <c r="R31" s="9" t="s">
+      <c r="R31" t="s">
         <v>311</v>
       </c>
-      <c r="S31" s="9" t="s">
+      <c r="S31" t="s">
         <v>174</v>
       </c>
-      <c r="T31" s="10"/>
-      <c r="U31" s="9" t="s">
+      <c r="T31"/>
+      <c r="U31" t="s">
         <v>293</v>
       </c>
-      <c r="V31" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="W31" s="9" t="s">
+      <c r="V31" t="s">
+        <v>175</v>
+      </c>
+      <c r="W31" t="s">
         <v>327</v>
       </c>
-      <c r="X31" s="7"/>
-      <c r="Y31" s="7"/>
-      <c r="Z31" s="7"/>
-    </row>
-    <row r="32" spans="1:26" ht="26.5" thickBot="1">
-      <c r="A32" s="3" t="s">
+      <c r="X31"/>
+      <c r="Y31"/>
+      <c r="Z31"/>
+      <c r="AA31"/>
+      <c r="AB31"/>
+      <c r="AC31"/>
+      <c r="AD31"/>
+      <c r="AE31"/>
+      <c r="AF31"/>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>108</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" t="s">
         <v>57</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" t="s">
         <v>331</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" t="s">
         <v>186</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" t="s">
         <v>119</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="G32" t="s">
         <v>112</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="H32" t="s">
         <v>111</v>
       </c>
-      <c r="I32" s="9" t="s">
+      <c r="I32" t="s">
         <v>135</v>
       </c>
-      <c r="J32" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K32" s="9" t="s">
+      <c r="J32" t="s">
+        <v>175</v>
+      </c>
+      <c r="K32" t="s">
         <v>257</v>
       </c>
-      <c r="L32" s="9" t="s">
+      <c r="L32" t="s">
         <v>109</v>
       </c>
-      <c r="M32" s="9" t="s">
+      <c r="M32" t="s">
         <v>359</v>
       </c>
-      <c r="N32" s="9" t="s">
+      <c r="N32" t="s">
         <v>361</v>
       </c>
-      <c r="O32" s="9" t="s">
+      <c r="O32" t="s">
         <v>362</v>
       </c>
-      <c r="P32" s="9" t="s">
+      <c r="P32" t="s">
         <v>355</v>
       </c>
-      <c r="Q32" s="9" t="s">
+      <c r="Q32" t="s">
         <v>363</v>
       </c>
-      <c r="R32" s="9" t="s">
+      <c r="R32" t="s">
         <v>317</v>
       </c>
-      <c r="S32" s="9" t="s">
+      <c r="S32" t="s">
         <v>364</v>
       </c>
-      <c r="T32" s="10"/>
-      <c r="U32" s="9" t="s">
+      <c r="T32"/>
+      <c r="U32" t="s">
         <v>365</v>
       </c>
-      <c r="V32" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="W32" s="9" t="s">
+      <c r="V32" t="s">
+        <v>175</v>
+      </c>
+      <c r="W32" t="s">
         <v>150</v>
       </c>
-      <c r="X32" s="7"/>
-      <c r="Y32" s="7"/>
-      <c r="Z32" s="7"/>
-    </row>
-    <row r="33" spans="1:26" ht="26.5" thickBot="1">
-      <c r="A33" s="3" t="s">
+      <c r="X32"/>
+      <c r="Y32"/>
+      <c r="Z32"/>
+      <c r="AA32"/>
+      <c r="AB32"/>
+      <c r="AC32"/>
+      <c r="AD32"/>
+      <c r="AE32"/>
+      <c r="AF32"/>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>108</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" t="s">
         <v>58</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" t="s">
         <v>249</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" t="s">
         <v>123</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F33" t="s">
         <v>118</v>
       </c>
-      <c r="G33" s="9" t="s">
+      <c r="G33" t="s">
         <v>115</v>
       </c>
-      <c r="H33" s="9" t="s">
+      <c r="H33" t="s">
         <v>110</v>
       </c>
-      <c r="I33" s="9" t="s">
+      <c r="I33" t="s">
         <v>136</v>
       </c>
-      <c r="J33" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K33" s="9" t="s">
+      <c r="J33" t="s">
+        <v>175</v>
+      </c>
+      <c r="K33" t="s">
         <v>258</v>
       </c>
-      <c r="L33" s="9" t="s">
+      <c r="L33" t="s">
         <v>109</v>
       </c>
-      <c r="M33" s="9" t="s">
+      <c r="M33" t="s">
         <v>248</v>
       </c>
-      <c r="N33" s="9" t="s">
+      <c r="N33" t="s">
         <v>239</v>
       </c>
-      <c r="O33" s="9" t="s">
+      <c r="O33" t="s">
         <v>344</v>
       </c>
-      <c r="P33" s="9" t="s">
+      <c r="P33" t="s">
         <v>257</v>
       </c>
-      <c r="Q33" s="9" t="s">
+      <c r="Q33" t="s">
         <v>222</v>
       </c>
-      <c r="R33" s="9" t="s">
+      <c r="R33" t="s">
         <v>239</v>
       </c>
-      <c r="S33" s="9" t="s">
+      <c r="S33" t="s">
         <v>114</v>
       </c>
-      <c r="T33" s="9" t="s">
+      <c r="T33" t="s">
         <v>119</v>
       </c>
-      <c r="U33" s="9" t="s">
+      <c r="U33" t="s">
         <v>366</v>
       </c>
-      <c r="V33" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="W33" s="9" t="s">
+      <c r="V33" t="s">
+        <v>175</v>
+      </c>
+      <c r="W33" t="s">
         <v>213</v>
       </c>
-      <c r="X33" s="7"/>
-      <c r="Y33" s="7"/>
-      <c r="Z33" s="7"/>
-    </row>
-    <row r="34" spans="1:26" ht="26.5" thickBot="1">
-      <c r="A34" s="3" t="s">
+      <c r="X33"/>
+      <c r="Y33"/>
+      <c r="Z33"/>
+      <c r="AA33"/>
+      <c r="AB33"/>
+      <c r="AC33"/>
+      <c r="AD33"/>
+      <c r="AE33"/>
+      <c r="AF33"/>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>108</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" t="s">
         <v>59</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" t="s">
         <v>302</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" t="s">
         <v>192</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F34" t="s">
         <v>126</v>
       </c>
-      <c r="G34" s="9" t="s">
+      <c r="G34" t="s">
         <v>112</v>
       </c>
-      <c r="H34" s="9" t="s">
+      <c r="H34" t="s">
         <v>109</v>
       </c>
-      <c r="I34" s="9" t="s">
+      <c r="I34" t="s">
         <v>109</v>
       </c>
-      <c r="J34" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K34" s="9" t="s">
+      <c r="J34" t="s">
+        <v>175</v>
+      </c>
+      <c r="K34" t="s">
         <v>367</v>
       </c>
-      <c r="L34" s="9" t="s">
+      <c r="L34" t="s">
         <v>127</v>
       </c>
-      <c r="M34" s="9" t="s">
+      <c r="M34" t="s">
         <v>275</v>
       </c>
-      <c r="N34" s="9" t="s">
+      <c r="N34" t="s">
         <v>236</v>
       </c>
-      <c r="O34" s="9" t="s">
+      <c r="O34" t="s">
         <v>368</v>
       </c>
-      <c r="P34" s="9" t="s">
+      <c r="P34" t="s">
         <v>211</v>
       </c>
-      <c r="Q34" s="9" t="s">
+      <c r="Q34" t="s">
         <v>228</v>
       </c>
-      <c r="R34" s="9" t="s">
+      <c r="R34" t="s">
         <v>316</v>
       </c>
-      <c r="S34" s="9" t="s">
+      <c r="S34" t="s">
         <v>174</v>
       </c>
-      <c r="T34" s="10"/>
-      <c r="U34" s="9" t="s">
+      <c r="T34"/>
+      <c r="U34" t="s">
         <v>369</v>
       </c>
-      <c r="V34" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="W34" s="9" t="s">
+      <c r="V34" t="s">
+        <v>175</v>
+      </c>
+      <c r="W34" t="s">
         <v>370</v>
       </c>
-      <c r="X34" s="7"/>
-      <c r="Y34" s="7"/>
-      <c r="Z34" s="7"/>
-    </row>
-    <row r="35" spans="1:26" ht="26.5" thickBot="1">
-      <c r="A35" s="3" t="s">
+      <c r="X34"/>
+      <c r="Y34"/>
+      <c r="Z34"/>
+      <c r="AA34"/>
+      <c r="AB34"/>
+      <c r="AC34"/>
+      <c r="AD34"/>
+      <c r="AE34"/>
+      <c r="AF34"/>
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>108</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" t="s">
         <v>60</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" t="s">
         <v>254</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" t="s">
         <v>114</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F35" t="s">
         <v>109</v>
       </c>
-      <c r="G35" s="9" t="s">
+      <c r="G35" t="s">
         <v>110</v>
       </c>
-      <c r="H35" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="I35" s="9" t="s">
+      <c r="H35" t="s">
+        <v>175</v>
+      </c>
+      <c r="I35" t="s">
         <v>115</v>
       </c>
-      <c r="J35" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K35" s="9" t="s">
+      <c r="J35" t="s">
+        <v>175</v>
+      </c>
+      <c r="K35" t="s">
         <v>353</v>
       </c>
-      <c r="L35" s="9" t="s">
+      <c r="L35" t="s">
         <v>126</v>
       </c>
-      <c r="M35" s="9" t="s">
+      <c r="M35" t="s">
         <v>251</v>
       </c>
-      <c r="N35" s="9" t="s">
+      <c r="N35" t="s">
         <v>178</v>
       </c>
-      <c r="O35" s="9" t="s">
+      <c r="O35" t="s">
         <v>371</v>
       </c>
-      <c r="P35" s="9" t="s">
+      <c r="P35" t="s">
         <v>228</v>
       </c>
-      <c r="Q35" s="9" t="s">
+      <c r="Q35" t="s">
         <v>203</v>
       </c>
-      <c r="R35" s="9" t="s">
+      <c r="R35" t="s">
         <v>314</v>
       </c>
-      <c r="S35" s="9" t="s">
+      <c r="S35" t="s">
         <v>113</v>
       </c>
-      <c r="T35" s="10"/>
-      <c r="U35" s="9" t="s">
+      <c r="T35"/>
+      <c r="U35" t="s">
         <v>372</v>
       </c>
-      <c r="V35" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="W35" s="9" t="s">
+      <c r="V35" t="s">
+        <v>175</v>
+      </c>
+      <c r="W35" t="s">
         <v>257</v>
       </c>
-      <c r="X35" s="7"/>
-      <c r="Y35" s="7"/>
-      <c r="Z35" s="7"/>
-    </row>
-    <row r="36" spans="1:26" ht="26.5" thickBot="1">
-      <c r="A36" s="3" t="s">
+      <c r="X35"/>
+      <c r="Y35"/>
+      <c r="Z35"/>
+      <c r="AA35"/>
+      <c r="AB35"/>
+      <c r="AC35"/>
+      <c r="AD35"/>
+      <c r="AE35"/>
+      <c r="AF35"/>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>108</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" t="s">
         <v>61</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" t="s">
         <v>181</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" t="s">
         <v>174</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F36" t="s">
         <v>126</v>
       </c>
-      <c r="G36" s="9" t="s">
+      <c r="G36" t="s">
         <v>109</v>
       </c>
-      <c r="H36" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="I36" s="9" t="s">
+      <c r="H36" t="s">
+        <v>175</v>
+      </c>
+      <c r="I36" t="s">
         <v>109</v>
       </c>
-      <c r="J36" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K36" s="9" t="s">
+      <c r="J36" t="s">
+        <v>175</v>
+      </c>
+      <c r="K36" t="s">
         <v>373</v>
       </c>
-      <c r="L36" s="9" t="s">
+      <c r="L36" t="s">
         <v>114</v>
       </c>
-      <c r="M36" s="9" t="s">
+      <c r="M36" t="s">
         <v>374</v>
       </c>
-      <c r="N36" s="9" t="s">
+      <c r="N36" t="s">
         <v>231</v>
       </c>
-      <c r="O36" s="9" t="s">
+      <c r="O36" t="s">
         <v>375</v>
       </c>
-      <c r="P36" s="9" t="s">
+      <c r="P36" t="s">
         <v>376</v>
       </c>
-      <c r="Q36" s="9" t="s">
+      <c r="Q36" t="s">
         <v>194</v>
       </c>
-      <c r="R36" s="9" t="s">
+      <c r="R36" t="s">
         <v>220</v>
       </c>
-      <c r="S36" s="9" t="s">
+      <c r="S36" t="s">
         <v>114</v>
       </c>
-      <c r="T36" s="10"/>
-      <c r="U36" s="9" t="s">
+      <c r="T36"/>
+      <c r="U36" t="s">
         <v>201</v>
       </c>
-      <c r="V36" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="W36" s="9" t="s">
+      <c r="V36" t="s">
+        <v>175</v>
+      </c>
+      <c r="W36" t="s">
         <v>182</v>
       </c>
-      <c r="X36" s="7"/>
-      <c r="Y36" s="7"/>
-      <c r="Z36" s="7"/>
-    </row>
-    <row r="37" spans="1:26" ht="26.5" thickBot="1">
-      <c r="A37" s="3" t="s">
+      <c r="X36"/>
+      <c r="Y36"/>
+      <c r="Z36"/>
+      <c r="AA36"/>
+      <c r="AB36"/>
+      <c r="AC36"/>
+      <c r="AD36"/>
+      <c r="AE36"/>
+      <c r="AF36"/>
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>108</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" t="s">
         <v>62</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" t="s">
         <v>180</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E37" t="s">
         <v>252</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F37" t="s">
         <v>118</v>
       </c>
-      <c r="G37" s="9" t="s">
+      <c r="G37" t="s">
         <v>115</v>
       </c>
-      <c r="H37" s="9" t="s">
+      <c r="H37" t="s">
         <v>110</v>
       </c>
-      <c r="I37" s="9" t="s">
+      <c r="I37" t="s">
         <v>121</v>
       </c>
-      <c r="J37" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K37" s="9" t="s">
+      <c r="J37" t="s">
+        <v>175</v>
+      </c>
+      <c r="K37" t="s">
         <v>186</v>
       </c>
-      <c r="L37" s="9" t="s">
+      <c r="L37" t="s">
         <v>109</v>
       </c>
-      <c r="M37" s="9" t="s">
+      <c r="M37" t="s">
         <v>177</v>
       </c>
-      <c r="N37" s="9" t="s">
+      <c r="N37" t="s">
         <v>316</v>
       </c>
-      <c r="O37" s="9" t="s">
+      <c r="O37" t="s">
         <v>377</v>
       </c>
-      <c r="P37" s="9" t="s">
+      <c r="P37" t="s">
         <v>302</v>
       </c>
-      <c r="Q37" s="9" t="s">
+      <c r="Q37" t="s">
         <v>277</v>
       </c>
-      <c r="R37" s="9" t="s">
+      <c r="R37" t="s">
         <v>199</v>
       </c>
-      <c r="S37" s="9" t="s">
+      <c r="S37" t="s">
         <v>127</v>
       </c>
-      <c r="T37" s="9" t="s">
+      <c r="T37" t="s">
         <v>113</v>
       </c>
-      <c r="U37" s="9" t="s">
+      <c r="U37" t="s">
         <v>257</v>
       </c>
-      <c r="V37" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="W37" s="9" t="s">
+      <c r="V37" t="s">
+        <v>175</v>
+      </c>
+      <c r="W37" t="s">
         <v>378</v>
       </c>
-      <c r="X37" s="7"/>
-      <c r="Y37" s="7"/>
-      <c r="Z37" s="7"/>
-    </row>
-    <row r="38" spans="1:26" ht="26.5" thickBot="1">
-      <c r="A38" s="3" t="s">
+      <c r="X37"/>
+      <c r="Y37"/>
+      <c r="Z37"/>
+      <c r="AA37"/>
+      <c r="AB37"/>
+      <c r="AC37"/>
+      <c r="AD37"/>
+      <c r="AE37"/>
+      <c r="AF37"/>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>108</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" t="s">
         <v>63</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" t="s">
         <v>182</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" t="s">
         <v>234</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F38" t="s">
         <v>118</v>
       </c>
-      <c r="G38" s="9" t="s">
+      <c r="G38" t="s">
         <v>112</v>
       </c>
-      <c r="H38" s="9" t="s">
+      <c r="H38" t="s">
         <v>111</v>
       </c>
-      <c r="I38" s="9" t="s">
+      <c r="I38" t="s">
         <v>124</v>
       </c>
-      <c r="J38" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K38" s="9" t="s">
+      <c r="J38" t="s">
+        <v>175</v>
+      </c>
+      <c r="K38" t="s">
         <v>347</v>
       </c>
-      <c r="L38" s="9" t="s">
+      <c r="L38" t="s">
         <v>109</v>
       </c>
-      <c r="M38" s="9" t="s">
+      <c r="M38" t="s">
         <v>234</v>
       </c>
-      <c r="N38" s="9" t="s">
+      <c r="N38" t="s">
         <v>269</v>
       </c>
-      <c r="O38" s="9" t="s">
+      <c r="O38" t="s">
         <v>379</v>
       </c>
-      <c r="P38" s="9" t="s">
+      <c r="P38" t="s">
         <v>203</v>
       </c>
-      <c r="Q38" s="9" t="s">
+      <c r="Q38" t="s">
         <v>222</v>
       </c>
-      <c r="R38" s="9" t="s">
+      <c r="R38" t="s">
         <v>257</v>
       </c>
-      <c r="S38" s="9" t="s">
+      <c r="S38" t="s">
         <v>144</v>
       </c>
-      <c r="T38" s="9" t="s">
+      <c r="T38" t="s">
         <v>113</v>
       </c>
-      <c r="U38" s="9" t="s">
+      <c r="U38" t="s">
         <v>380</v>
       </c>
-      <c r="V38" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="W38" s="9" t="s">
+      <c r="V38" t="s">
+        <v>175</v>
+      </c>
+      <c r="W38" t="s">
         <v>314</v>
       </c>
-      <c r="X38" s="7"/>
-      <c r="Y38" s="7"/>
-      <c r="Z38" s="7"/>
-    </row>
-    <row r="39" spans="1:26" ht="26.5" thickBot="1">
-      <c r="A39" s="3" t="s">
+      <c r="X38"/>
+      <c r="Y38"/>
+      <c r="Z38"/>
+      <c r="AA38"/>
+      <c r="AB38"/>
+      <c r="AC38"/>
+      <c r="AD38"/>
+      <c r="AE38"/>
+      <c r="AF38"/>
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>108</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" t="s">
         <v>64</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" t="s">
         <v>293</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" t="s">
         <v>274</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="F39" t="s">
         <v>126</v>
       </c>
-      <c r="G39" s="9" t="s">
+      <c r="G39" t="s">
         <v>112</v>
       </c>
-      <c r="H39" s="9" t="s">
+      <c r="H39" t="s">
         <v>116</v>
       </c>
-      <c r="I39" s="9" t="s">
+      <c r="I39" t="s">
         <v>121</v>
       </c>
-      <c r="J39" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K39" s="9" t="s">
+      <c r="J39" t="s">
+        <v>175</v>
+      </c>
+      <c r="K39" t="s">
         <v>267</v>
       </c>
-      <c r="L39" s="9" t="s">
+      <c r="L39" t="s">
         <v>232</v>
       </c>
-      <c r="M39" s="9" t="s">
+      <c r="M39" t="s">
         <v>381</v>
       </c>
-      <c r="N39" s="9" t="s">
+      <c r="N39" t="s">
         <v>382</v>
       </c>
-      <c r="O39" s="9" t="s">
+      <c r="O39" t="s">
         <v>383</v>
       </c>
-      <c r="P39" s="9" t="s">
+      <c r="P39" t="s">
         <v>376</v>
       </c>
-      <c r="Q39" s="9" t="s">
+      <c r="Q39" t="s">
         <v>384</v>
       </c>
-      <c r="R39" s="9" t="s">
+      <c r="R39" t="s">
         <v>277</v>
       </c>
-      <c r="S39" s="9" t="s">
+      <c r="S39" t="s">
         <v>114</v>
       </c>
-      <c r="T39" s="9" t="s">
+      <c r="T39" t="s">
         <v>144</v>
       </c>
-      <c r="U39" s="9" t="s">
+      <c r="U39" t="s">
         <v>222</v>
       </c>
-      <c r="V39" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="W39" s="9" t="s">
+      <c r="V39" t="s">
+        <v>175</v>
+      </c>
+      <c r="W39" t="s">
         <v>373</v>
       </c>
-      <c r="X39" s="7"/>
-      <c r="Y39" s="7"/>
-      <c r="Z39" s="7"/>
-    </row>
-    <row r="40" spans="1:26" ht="26.5" thickBot="1">
-      <c r="A40" s="3" t="s">
+      <c r="X39"/>
+      <c r="Y39"/>
+      <c r="Z39"/>
+      <c r="AA39"/>
+      <c r="AB39"/>
+      <c r="AC39"/>
+      <c r="AD39"/>
+      <c r="AE39"/>
+      <c r="AF39"/>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
         <v>108</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" t="s">
         <v>65</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" t="s">
         <v>231</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E40" t="s">
         <v>252</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="F40" t="s">
         <v>118</v>
       </c>
-      <c r="G40" s="9" t="s">
+      <c r="G40" t="s">
         <v>112</v>
       </c>
-      <c r="H40" s="9" t="s">
+      <c r="H40" t="s">
         <v>116</v>
       </c>
-      <c r="I40" s="9" t="s">
+      <c r="I40" t="s">
         <v>112</v>
       </c>
-      <c r="J40" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K40" s="9" t="s">
+      <c r="J40" t="s">
+        <v>175</v>
+      </c>
+      <c r="K40" t="s">
         <v>342</v>
       </c>
-      <c r="L40" s="9" t="s">
+      <c r="L40" t="s">
         <v>126</v>
       </c>
-      <c r="M40" s="9" t="s">
+      <c r="M40" t="s">
         <v>225</v>
       </c>
-      <c r="N40" s="9" t="s">
+      <c r="N40" t="s">
         <v>385</v>
       </c>
-      <c r="O40" s="9" t="s">
+      <c r="O40" t="s">
         <v>383</v>
       </c>
-      <c r="P40" s="9" t="s">
+      <c r="P40" t="s">
         <v>230</v>
       </c>
-      <c r="Q40" s="9" t="s">
+      <c r="Q40" t="s">
         <v>173</v>
       </c>
-      <c r="R40" s="9" t="s">
+      <c r="R40" t="s">
         <v>233</v>
       </c>
-      <c r="S40" s="9" t="s">
+      <c r="S40" t="s">
         <v>119</v>
       </c>
-      <c r="T40" s="10"/>
-      <c r="U40" s="9" t="s">
+      <c r="T40"/>
+      <c r="U40" t="s">
         <v>201</v>
       </c>
-      <c r="V40" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="W40" s="9" t="s">
+      <c r="V40" t="s">
+        <v>175</v>
+      </c>
+      <c r="W40" t="s">
         <v>346</v>
       </c>
-      <c r="X40" s="7"/>
-      <c r="Y40" s="7"/>
-      <c r="Z40" s="7"/>
-    </row>
-    <row r="41" spans="1:26" ht="26.5" thickBot="1">
-      <c r="A41" s="3" t="s">
+      <c r="X40"/>
+      <c r="Y40"/>
+      <c r="Z40"/>
+      <c r="AA40"/>
+      <c r="AB40"/>
+      <c r="AC40"/>
+      <c r="AD40"/>
+      <c r="AE40"/>
+      <c r="AF40"/>
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
         <v>108</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" t="s">
         <v>66</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" t="s">
         <v>386</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E41" t="s">
         <v>387</v>
       </c>
-      <c r="F41" s="9" t="s">
+      <c r="F41" t="s">
         <v>208</v>
       </c>
-      <c r="G41" s="9" t="s">
+      <c r="G41" t="s">
         <v>151</v>
       </c>
-      <c r="H41" s="9" t="s">
+      <c r="H41" t="s">
         <v>152</v>
       </c>
-      <c r="I41" s="9" t="s">
+      <c r="I41" t="s">
         <v>388</v>
       </c>
-      <c r="J41" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K41" s="9" t="s">
+      <c r="J41" t="s">
+        <v>175</v>
+      </c>
+      <c r="K41" t="s">
         <v>153</v>
       </c>
-      <c r="L41" s="9" t="s">
+      <c r="L41" t="s">
         <v>174</v>
       </c>
-      <c r="M41" s="9" t="s">
+      <c r="M41" t="s">
         <v>389</v>
       </c>
-      <c r="N41" s="9" t="s">
+      <c r="N41" t="s">
         <v>178</v>
       </c>
-      <c r="O41" s="9" t="s">
+      <c r="O41" t="s">
         <v>390</v>
       </c>
-      <c r="P41" s="9" t="s">
+      <c r="P41" t="s">
         <v>319</v>
       </c>
-      <c r="Q41" s="9" t="s">
+      <c r="Q41" t="s">
         <v>391</v>
       </c>
-      <c r="R41" s="9" t="s">
+      <c r="R41" t="s">
         <v>392</v>
       </c>
-      <c r="S41" s="9" t="s">
+      <c r="S41" t="s">
         <v>198</v>
       </c>
-      <c r="T41" s="10"/>
-      <c r="U41" s="9" t="s">
+      <c r="T41"/>
+      <c r="U41" t="s">
         <v>201</v>
       </c>
-      <c r="V41" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="W41" s="9" t="s">
+      <c r="V41" t="s">
+        <v>175</v>
+      </c>
+      <c r="W41" t="s">
         <v>208</v>
       </c>
-      <c r="X41" s="7"/>
-      <c r="Y41" s="7"/>
-      <c r="Z41" s="7"/>
-    </row>
-    <row r="42" spans="1:26" ht="26.5" thickBot="1">
-      <c r="A42" s="3" t="s">
+      <c r="X41"/>
+      <c r="Y41"/>
+      <c r="Z41"/>
+      <c r="AA41"/>
+      <c r="AB41"/>
+      <c r="AC41"/>
+      <c r="AD41"/>
+      <c r="AE41"/>
+      <c r="AF41"/>
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>108</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" t="s">
         <v>25</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" t="s">
         <v>67</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" t="s">
         <v>348</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="E42" t="s">
         <v>257</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="F42" t="s">
         <v>113</v>
       </c>
-      <c r="G42" s="9" t="s">
+      <c r="G42" t="s">
         <v>125</v>
       </c>
-      <c r="H42" s="9" t="s">
+      <c r="H42" t="s">
         <v>136</v>
       </c>
-      <c r="I42" s="9" t="s">
+      <c r="I42" t="s">
         <v>154</v>
       </c>
-      <c r="J42" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K42" s="9" t="s">
+      <c r="J42" t="s">
+        <v>175</v>
+      </c>
+      <c r="K42" t="s">
         <v>393</v>
       </c>
-      <c r="L42" s="9" t="s">
+      <c r="L42" t="s">
         <v>127</v>
       </c>
-      <c r="M42" s="9" t="s">
+      <c r="M42" t="s">
         <v>208</v>
       </c>
-      <c r="N42" s="9" t="s">
+      <c r="N42" t="s">
         <v>257</v>
       </c>
-      <c r="O42" s="9" t="s">
+      <c r="O42" t="s">
         <v>394</v>
       </c>
-      <c r="P42" s="9" t="s">
+      <c r="P42" t="s">
         <v>302</v>
       </c>
-      <c r="Q42" s="9" t="s">
+      <c r="Q42" t="s">
         <v>395</v>
       </c>
-      <c r="R42" s="9" t="s">
+      <c r="R42" t="s">
         <v>191</v>
       </c>
-      <c r="S42" s="9" t="s">
+      <c r="S42" t="s">
         <v>347</v>
       </c>
-      <c r="T42" s="10"/>
-      <c r="U42" s="9" t="s">
+      <c r="T42"/>
+      <c r="U42" t="s">
         <v>293</v>
       </c>
-      <c r="V42" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="W42" s="9" t="s">
+      <c r="V42" t="s">
+        <v>175</v>
+      </c>
+      <c r="W42" t="s">
         <v>231</v>
       </c>
-      <c r="X42" s="7"/>
-      <c r="Y42" s="7"/>
-      <c r="Z42" s="7"/>
-    </row>
-    <row r="43" spans="1:26" ht="26.5" thickBot="1">
-      <c r="A43" s="3" t="s">
+      <c r="X42"/>
+      <c r="Y42"/>
+      <c r="Z42"/>
+      <c r="AA42"/>
+      <c r="AB42"/>
+      <c r="AC42"/>
+      <c r="AD42"/>
+      <c r="AE42"/>
+      <c r="AF42"/>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>108</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" t="s">
         <v>25</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" t="s">
         <v>68</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D43" t="s">
         <v>396</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E43" t="s">
         <v>155</v>
       </c>
-      <c r="F43" s="9" t="s">
+      <c r="F43" t="s">
         <v>397</v>
       </c>
-      <c r="G43" s="9" t="s">
+      <c r="G43" t="s">
         <v>398</v>
       </c>
-      <c r="H43" s="9" t="s">
+      <c r="H43" t="s">
         <v>399</v>
       </c>
-      <c r="I43" s="9" t="s">
+      <c r="I43" t="s">
         <v>400</v>
       </c>
-      <c r="J43" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K43" s="9" t="s">
+      <c r="J43" t="s">
+        <v>175</v>
+      </c>
+      <c r="K43" t="s">
         <v>156</v>
       </c>
-      <c r="L43" s="9" t="s">
+      <c r="L43" t="s">
         <v>358</v>
       </c>
-      <c r="M43" s="9" t="s">
+      <c r="M43" t="s">
         <v>276</v>
       </c>
-      <c r="N43" s="9" t="s">
+      <c r="N43" t="s">
         <v>252</v>
       </c>
-      <c r="O43" s="9" t="s">
+      <c r="O43" t="s">
         <v>401</v>
       </c>
-      <c r="P43" s="9" t="s">
+      <c r="P43" t="s">
         <v>402</v>
       </c>
-      <c r="Q43" s="9" t="s">
+      <c r="Q43" t="s">
         <v>403</v>
       </c>
-      <c r="R43" s="9" t="s">
+      <c r="R43" t="s">
         <v>404</v>
       </c>
-      <c r="S43" s="9" t="s">
+      <c r="S43" t="s">
         <v>389</v>
       </c>
-      <c r="T43" s="10"/>
-      <c r="U43" s="9" t="s">
+      <c r="T43"/>
+      <c r="U43" t="s">
         <v>233</v>
       </c>
-      <c r="V43" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="W43" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="X43" s="7"/>
-      <c r="Y43" s="7"/>
-      <c r="Z43" s="7"/>
-    </row>
-    <row r="44" spans="1:26" ht="26.5" thickBot="1">
-      <c r="A44" s="3" t="s">
+      <c r="V43" t="s">
+        <v>175</v>
+      </c>
+      <c r="W43" t="s">
+        <v>175</v>
+      </c>
+      <c r="X43"/>
+      <c r="Y43"/>
+      <c r="Z43"/>
+      <c r="AA43"/>
+      <c r="AB43"/>
+      <c r="AC43"/>
+      <c r="AD43"/>
+      <c r="AE43"/>
+      <c r="AF43"/>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>108</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" t="s">
         <v>69</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D44" t="s">
         <v>405</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="E44" t="s">
         <v>406</v>
       </c>
-      <c r="F44" s="9" t="s">
+      <c r="F44" t="s">
         <v>299</v>
       </c>
-      <c r="G44" s="9" t="s">
+      <c r="G44" t="s">
         <v>127</v>
       </c>
-      <c r="H44" s="9" t="s">
+      <c r="H44" t="s">
         <v>121</v>
       </c>
-      <c r="I44" s="9" t="s">
+      <c r="I44" t="s">
         <v>307</v>
       </c>
-      <c r="J44" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K44" s="9" t="s">
+      <c r="J44" t="s">
+        <v>175</v>
+      </c>
+      <c r="K44" t="s">
         <v>407</v>
       </c>
-      <c r="L44" s="9" t="s">
+      <c r="L44" t="s">
         <v>119</v>
       </c>
-      <c r="M44" s="9" t="s">
+      <c r="M44" t="s">
         <v>286</v>
       </c>
-      <c r="N44" s="9" t="s">
+      <c r="N44" t="s">
         <v>197</v>
       </c>
-      <c r="O44" s="9" t="s">
+      <c r="O44" t="s">
         <v>408</v>
       </c>
-      <c r="P44" s="9" t="s">
+      <c r="P44" t="s">
         <v>323</v>
       </c>
-      <c r="Q44" s="9" t="s">
+      <c r="Q44" t="s">
         <v>409</v>
       </c>
-      <c r="R44" s="9" t="s">
+      <c r="R44" t="s">
         <v>410</v>
       </c>
-      <c r="S44" s="9" t="s">
+      <c r="S44" t="s">
         <v>184</v>
       </c>
-      <c r="T44" s="10"/>
-      <c r="U44" s="9" t="s">
+      <c r="T44"/>
+      <c r="U44" t="s">
         <v>236</v>
       </c>
-      <c r="V44" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="W44" s="9" t="s">
+      <c r="V44" t="s">
+        <v>175</v>
+      </c>
+      <c r="W44" t="s">
         <v>254</v>
       </c>
-      <c r="X44" s="7"/>
-      <c r="Y44" s="7"/>
-      <c r="Z44" s="7"/>
-    </row>
-    <row r="45" spans="1:26" ht="26.5" thickBot="1">
-      <c r="A45" s="3" t="s">
+      <c r="X44"/>
+      <c r="Y44"/>
+      <c r="Z44"/>
+      <c r="AA44"/>
+      <c r="AB44"/>
+      <c r="AC44"/>
+      <c r="AD44"/>
+      <c r="AE44"/>
+      <c r="AF44"/>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
         <v>108</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" t="s">
         <v>70</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D45" t="s">
         <v>173</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E45" t="s">
         <v>174</v>
       </c>
-      <c r="F45" s="9" t="s">
+      <c r="F45" t="s">
         <v>127</v>
       </c>
-      <c r="G45" s="9" t="s">
+      <c r="G45" t="s">
         <v>121</v>
       </c>
-      <c r="H45" s="9" t="s">
+      <c r="H45" t="s">
         <v>120</v>
       </c>
-      <c r="I45" s="9" t="s">
+      <c r="I45" t="s">
         <v>157</v>
       </c>
-      <c r="J45" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K45" s="9" t="s">
+      <c r="J45" t="s">
+        <v>175</v>
+      </c>
+      <c r="K45" t="s">
         <v>381</v>
       </c>
-      <c r="L45" s="9" t="s">
+      <c r="L45" t="s">
         <v>114</v>
       </c>
-      <c r="M45" s="9" t="s">
+      <c r="M45" t="s">
         <v>286</v>
       </c>
-      <c r="N45" s="9" t="s">
+      <c r="N45" t="s">
         <v>197</v>
       </c>
-      <c r="O45" s="9" t="s">
+      <c r="O45" t="s">
         <v>411</v>
       </c>
-      <c r="P45" s="9" t="s">
+      <c r="P45" t="s">
         <v>384</v>
       </c>
-      <c r="Q45" s="9" t="s">
+      <c r="Q45" t="s">
         <v>213</v>
       </c>
-      <c r="R45" s="9" t="s">
+      <c r="R45" t="s">
         <v>277</v>
       </c>
-      <c r="S45" s="9" t="s">
+      <c r="S45" t="s">
         <v>178</v>
       </c>
-      <c r="T45" s="10"/>
-      <c r="U45" s="9" t="s">
+      <c r="T45"/>
+      <c r="U45" t="s">
         <v>412</v>
       </c>
-      <c r="V45" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="W45" s="9" t="s">
+      <c r="V45" t="s">
+        <v>175</v>
+      </c>
+      <c r="W45" t="s">
         <v>413</v>
       </c>
-      <c r="X45" s="7"/>
-      <c r="Y45" s="7"/>
-      <c r="Z45" s="7"/>
-    </row>
-    <row r="46" spans="1:26" ht="26.5" thickBot="1">
-      <c r="A46" s="3" t="s">
+      <c r="X45"/>
+      <c r="Y45"/>
+      <c r="Z45"/>
+      <c r="AA45"/>
+      <c r="AB45"/>
+      <c r="AC45"/>
+      <c r="AD45"/>
+      <c r="AE45"/>
+      <c r="AF45"/>
+    </row>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>108</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" t="s">
         <v>25</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" t="s">
         <v>71</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="D46" t="s">
         <v>413</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E46" t="s">
         <v>258</v>
       </c>
-      <c r="F46" s="9" t="s">
+      <c r="F46" t="s">
         <v>127</v>
       </c>
-      <c r="G46" s="9" t="s">
+      <c r="G46" t="s">
         <v>128</v>
       </c>
-      <c r="H46" s="9" t="s">
+      <c r="H46" t="s">
         <v>110</v>
       </c>
-      <c r="I46" s="9" t="s">
+      <c r="I46" t="s">
         <v>158</v>
       </c>
-      <c r="J46" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K46" s="9" t="s">
+      <c r="J46" t="s">
+        <v>175</v>
+      </c>
+      <c r="K46" t="s">
         <v>359</v>
       </c>
-      <c r="L46" s="9" t="s">
+      <c r="L46" t="s">
         <v>118</v>
       </c>
-      <c r="M46" s="9" t="s">
+      <c r="M46" t="s">
         <v>177</v>
       </c>
-      <c r="N46" s="9" t="s">
+      <c r="N46" t="s">
         <v>178</v>
       </c>
-      <c r="O46" s="9" t="s">
+      <c r="O46" t="s">
         <v>414</v>
       </c>
-      <c r="P46" s="9" t="s">
+      <c r="P46" t="s">
         <v>189</v>
       </c>
-      <c r="Q46" s="9" t="s">
+      <c r="Q46" t="s">
         <v>228</v>
       </c>
-      <c r="R46" s="9" t="s">
+      <c r="R46" t="s">
         <v>173</v>
       </c>
-      <c r="S46" s="9" t="s">
+      <c r="S46" t="s">
         <v>266</v>
       </c>
-      <c r="T46" s="10"/>
-      <c r="U46" s="9" t="s">
+      <c r="T46"/>
+      <c r="U46" t="s">
         <v>415</v>
       </c>
-      <c r="V46" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="W46" s="9" t="s">
+      <c r="V46" t="s">
+        <v>175</v>
+      </c>
+      <c r="W46" t="s">
         <v>230</v>
       </c>
-      <c r="X46" s="7"/>
-      <c r="Y46" s="7"/>
-      <c r="Z46" s="7"/>
-    </row>
-    <row r="47" spans="1:26" ht="26.5" thickBot="1">
-      <c r="A47" s="3" t="s">
+      <c r="X46"/>
+      <c r="Y46"/>
+      <c r="Z46"/>
+      <c r="AA46"/>
+      <c r="AB46"/>
+      <c r="AC46"/>
+      <c r="AD46"/>
+      <c r="AE46"/>
+      <c r="AF46"/>
+    </row>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
         <v>108</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" t="s">
         <v>25</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" t="s">
         <v>72</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D47" t="s">
         <v>222</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="E47" t="s">
         <v>204</v>
       </c>
-      <c r="F47" s="9" t="s">
+      <c r="F47" t="s">
         <v>118</v>
       </c>
-      <c r="G47" s="9" t="s">
+      <c r="G47" t="s">
         <v>115</v>
       </c>
-      <c r="H47" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="I47" s="9" t="s">
+      <c r="H47" t="s">
+        <v>175</v>
+      </c>
+      <c r="I47" t="s">
         <v>128</v>
       </c>
-      <c r="J47" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K47" s="9" t="s">
+      <c r="J47" t="s">
+        <v>175</v>
+      </c>
+      <c r="K47" t="s">
         <v>337</v>
       </c>
-      <c r="L47" s="9" t="s">
+      <c r="L47" t="s">
         <v>109</v>
       </c>
-      <c r="M47" s="9" t="s">
+      <c r="M47" t="s">
         <v>338</v>
       </c>
-      <c r="N47" s="9" t="s">
+      <c r="N47" t="s">
         <v>178</v>
       </c>
-      <c r="O47" s="9" t="s">
+      <c r="O47" t="s">
         <v>416</v>
       </c>
-      <c r="P47" s="9" t="s">
+      <c r="P47" t="s">
         <v>255</v>
       </c>
-      <c r="Q47" s="9" t="s">
+      <c r="Q47" t="s">
         <v>228</v>
       </c>
-      <c r="R47" s="9" t="s">
+      <c r="R47" t="s">
         <v>180</v>
       </c>
-      <c r="S47" s="9" t="s">
+      <c r="S47" t="s">
         <v>144</v>
       </c>
-      <c r="T47" s="10"/>
-      <c r="U47" s="9" t="s">
+      <c r="T47"/>
+      <c r="U47" t="s">
         <v>417</v>
       </c>
-      <c r="V47" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="W47" s="9" t="s">
+      <c r="V47" t="s">
+        <v>175</v>
+      </c>
+      <c r="W47" t="s">
         <v>173</v>
       </c>
-      <c r="X47" s="7"/>
-      <c r="Y47" s="7"/>
-      <c r="Z47" s="7"/>
-    </row>
-    <row r="48" spans="1:26" ht="26.5" thickBot="1">
-      <c r="A48" s="3" t="s">
+      <c r="X47"/>
+      <c r="Y47"/>
+      <c r="Z47"/>
+      <c r="AA47"/>
+      <c r="AB47"/>
+      <c r="AC47"/>
+      <c r="AD47"/>
+      <c r="AE47"/>
+      <c r="AF47"/>
+    </row>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
         <v>108</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" t="s">
         <v>25</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" t="s">
         <v>73</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="D48" t="s">
         <v>255</v>
       </c>
-      <c r="E48" s="9" t="s">
+      <c r="E48" t="s">
         <v>286</v>
       </c>
-      <c r="F48" s="9" t="s">
+      <c r="F48" t="s">
         <v>119</v>
       </c>
-      <c r="G48" s="9" t="s">
+      <c r="G48" t="s">
         <v>112</v>
       </c>
-      <c r="H48" s="9" t="s">
+      <c r="H48" t="s">
         <v>116</v>
       </c>
-      <c r="I48" s="9" t="s">
+      <c r="I48" t="s">
         <v>154</v>
       </c>
-      <c r="J48" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K48" s="9" t="s">
+      <c r="J48" t="s">
+        <v>175</v>
+      </c>
+      <c r="K48" t="s">
         <v>208</v>
       </c>
-      <c r="L48" s="9" t="s">
+      <c r="L48" t="s">
         <v>118</v>
       </c>
-      <c r="M48" s="9" t="s">
+      <c r="M48" t="s">
         <v>184</v>
       </c>
-      <c r="N48" s="9" t="s">
+      <c r="N48" t="s">
         <v>173</v>
       </c>
-      <c r="O48" s="9" t="s">
+      <c r="O48" t="s">
         <v>418</v>
       </c>
-      <c r="P48" s="9" t="s">
+      <c r="P48" t="s">
         <v>419</v>
       </c>
-      <c r="Q48" s="9" t="s">
+      <c r="Q48" t="s">
         <v>302</v>
       </c>
-      <c r="R48" s="9" t="s">
+      <c r="R48" t="s">
         <v>420</v>
       </c>
-      <c r="S48" s="9" t="s">
+      <c r="S48" t="s">
         <v>268</v>
       </c>
-      <c r="T48" s="9" t="s">
+      <c r="T48" t="s">
         <v>252</v>
       </c>
-      <c r="U48" s="9" t="s">
+      <c r="U48" t="s">
         <v>421</v>
       </c>
-      <c r="V48" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="W48" s="9" t="s">
+      <c r="V48" t="s">
+        <v>175</v>
+      </c>
+      <c r="W48" t="s">
         <v>159</v>
       </c>
-      <c r="X48" s="7"/>
-      <c r="Y48" s="7"/>
-      <c r="Z48" s="7"/>
-    </row>
-    <row r="49" spans="1:26" ht="26.5" thickBot="1">
-      <c r="A49" s="3" t="s">
+      <c r="X48"/>
+      <c r="Y48"/>
+      <c r="Z48"/>
+      <c r="AA48"/>
+      <c r="AB48"/>
+      <c r="AC48"/>
+      <c r="AD48"/>
+      <c r="AE48"/>
+      <c r="AF48"/>
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
         <v>108</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" t="s">
         <v>74</v>
       </c>
-      <c r="D49" s="9" t="s">
+      <c r="D49" t="s">
         <v>410</v>
       </c>
-      <c r="E49" s="9" t="s">
+      <c r="E49" t="s">
         <v>225</v>
       </c>
-      <c r="F49" s="9" t="s">
+      <c r="F49" t="s">
         <v>109</v>
       </c>
-      <c r="G49" s="9" t="s">
+      <c r="G49" t="s">
         <v>111</v>
       </c>
-      <c r="H49" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="I49" s="9" t="s">
+      <c r="H49" t="s">
+        <v>175</v>
+      </c>
+      <c r="I49" t="s">
         <v>120</v>
       </c>
-      <c r="J49" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K49" s="9" t="s">
+      <c r="J49" t="s">
+        <v>175</v>
+      </c>
+      <c r="K49" t="s">
         <v>422</v>
       </c>
-      <c r="L49" s="9" t="s">
+      <c r="L49" t="s">
         <v>144</v>
       </c>
-      <c r="M49" s="9" t="s">
+      <c r="M49" t="s">
         <v>266</v>
       </c>
-      <c r="N49" s="9" t="s">
+      <c r="N49" t="s">
         <v>199</v>
       </c>
-      <c r="O49" s="9" t="s">
+      <c r="O49" t="s">
         <v>423</v>
       </c>
-      <c r="P49" s="9" t="s">
+      <c r="P49" t="s">
         <v>269</v>
       </c>
-      <c r="Q49" s="9" t="s">
+      <c r="Q49" t="s">
         <v>228</v>
       </c>
-      <c r="R49" s="9" t="s">
+      <c r="R49" t="s">
         <v>203</v>
       </c>
-      <c r="S49" s="9" t="s">
+      <c r="S49" t="s">
         <v>114</v>
       </c>
-      <c r="T49" s="9" t="s">
+      <c r="T49" t="s">
         <v>126</v>
       </c>
-      <c r="U49" s="9" t="s">
+      <c r="U49" t="s">
         <v>312</v>
       </c>
-      <c r="V49" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="W49" s="9" t="s">
+      <c r="V49" t="s">
+        <v>175</v>
+      </c>
+      <c r="W49" t="s">
         <v>182</v>
       </c>
-      <c r="X49" s="7"/>
-      <c r="Y49" s="8" t="s">
+      <c r="X49"/>
+      <c r="Y49" t="s">
         <v>38</v>
       </c>
-      <c r="Z49" s="7"/>
-    </row>
-    <row r="50" spans="1:26" ht="26.5" thickBot="1">
-      <c r="A50" s="3" t="s">
+      <c r="Z49"/>
+      <c r="AA49"/>
+      <c r="AB49"/>
+      <c r="AC49"/>
+      <c r="AD49"/>
+      <c r="AE49"/>
+      <c r="AF49"/>
+    </row>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
         <v>108</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" t="s">
         <v>25</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" t="s">
         <v>75</v>
       </c>
-      <c r="D50" s="9" t="s">
+      <c r="D50" t="s">
         <v>424</v>
       </c>
-      <c r="E50" s="9" t="s">
+      <c r="E50" t="s">
         <v>204</v>
       </c>
-      <c r="F50" s="9" t="s">
+      <c r="F50" t="s">
         <v>109</v>
       </c>
-      <c r="G50" s="9" t="s">
+      <c r="G50" t="s">
         <v>111</v>
       </c>
-      <c r="H50" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="I50" s="9" t="s">
+      <c r="H50" t="s">
+        <v>175</v>
+      </c>
+      <c r="I50" t="s">
         <v>120</v>
       </c>
-      <c r="J50" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K50" s="9" t="s">
+      <c r="J50" t="s">
+        <v>175</v>
+      </c>
+      <c r="K50" t="s">
         <v>425</v>
       </c>
-      <c r="L50" s="9" t="s">
+      <c r="L50" t="s">
         <v>126</v>
       </c>
-      <c r="M50" s="9" t="s">
+      <c r="M50" t="s">
         <v>274</v>
       </c>
-      <c r="N50" s="9" t="s">
+      <c r="N50" t="s">
         <v>199</v>
       </c>
-      <c r="O50" s="9" t="s">
+      <c r="O50" t="s">
         <v>426</v>
       </c>
-      <c r="P50" s="9" t="s">
+      <c r="P50" t="s">
         <v>269</v>
       </c>
-      <c r="Q50" s="9" t="s">
+      <c r="Q50" t="s">
         <v>372</v>
       </c>
-      <c r="R50" s="9" t="s">
+      <c r="R50" t="s">
         <v>213</v>
       </c>
-      <c r="S50" s="9" t="s">
+      <c r="S50" t="s">
         <v>113</v>
       </c>
-      <c r="T50" s="9" t="s">
+      <c r="T50" t="s">
         <v>126</v>
       </c>
-      <c r="U50" s="9" t="s">
+      <c r="U50" t="s">
         <v>312</v>
       </c>
-      <c r="V50" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="W50" s="9" t="s">
+      <c r="V50" t="s">
+        <v>175</v>
+      </c>
+      <c r="W50" t="s">
         <v>316</v>
       </c>
-      <c r="X50" s="7"/>
-      <c r="Y50" s="8" t="s">
+      <c r="X50"/>
+      <c r="Y50" t="s">
         <v>38</v>
       </c>
-      <c r="Z50" s="7"/>
-    </row>
-    <row r="51" spans="1:26" ht="26.5" thickBot="1">
-      <c r="A51" s="3" t="s">
+      <c r="Z50"/>
+      <c r="AA50"/>
+      <c r="AB50"/>
+      <c r="AC50"/>
+      <c r="AD50"/>
+      <c r="AE50"/>
+      <c r="AF50"/>
+    </row>
+    <row r="51" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
         <v>108</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" t="s">
         <v>25</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" t="s">
         <v>76</v>
       </c>
-      <c r="D51" s="9" t="s">
+      <c r="D51" t="s">
         <v>384</v>
       </c>
-      <c r="E51" s="9" t="s">
+      <c r="E51" t="s">
         <v>204</v>
       </c>
-      <c r="F51" s="9" t="s">
+      <c r="F51" t="s">
         <v>109</v>
       </c>
-      <c r="G51" s="9" t="s">
+      <c r="G51" t="s">
         <v>111</v>
       </c>
-      <c r="H51" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="I51" s="9" t="s">
+      <c r="H51" t="s">
+        <v>175</v>
+      </c>
+      <c r="I51" t="s">
         <v>120</v>
       </c>
-      <c r="J51" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K51" s="9" t="s">
+      <c r="J51" t="s">
+        <v>175</v>
+      </c>
+      <c r="K51" t="s">
         <v>427</v>
       </c>
-      <c r="L51" s="9" t="s">
+      <c r="L51" t="s">
         <v>114</v>
       </c>
-      <c r="M51" s="9" t="s">
+      <c r="M51" t="s">
         <v>338</v>
       </c>
-      <c r="N51" s="9" t="s">
+      <c r="N51" t="s">
         <v>199</v>
       </c>
-      <c r="O51" s="9" t="s">
+      <c r="O51" t="s">
         <v>428</v>
       </c>
-      <c r="P51" s="9" t="s">
+      <c r="P51" t="s">
         <v>269</v>
       </c>
-      <c r="Q51" s="9" t="s">
+      <c r="Q51" t="s">
         <v>187</v>
       </c>
-      <c r="R51" s="9" t="s">
+      <c r="R51" t="s">
         <v>213</v>
       </c>
-      <c r="S51" s="9" t="s">
+      <c r="S51" t="s">
         <v>114</v>
       </c>
-      <c r="T51" s="9" t="s">
+      <c r="T51" t="s">
         <v>126</v>
       </c>
-      <c r="U51" s="9" t="s">
+      <c r="U51" t="s">
         <v>312</v>
       </c>
-      <c r="V51" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="W51" s="9" t="s">
+      <c r="V51" t="s">
+        <v>175</v>
+      </c>
+      <c r="W51" t="s">
         <v>197</v>
       </c>
-      <c r="X51" s="7"/>
-      <c r="Y51" s="8" t="s">
+      <c r="X51"/>
+      <c r="Y51" t="s">
         <v>38</v>
       </c>
-      <c r="Z51" s="7"/>
-    </row>
-    <row r="52" spans="1:26" ht="26.5" thickBot="1">
-      <c r="A52" s="3" t="s">
+      <c r="Z51"/>
+      <c r="AA51"/>
+      <c r="AB51"/>
+      <c r="AC51"/>
+      <c r="AD51"/>
+      <c r="AE51"/>
+      <c r="AF51"/>
+    </row>
+    <row r="52" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
         <v>108</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" t="s">
         <v>77</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" t="s">
         <v>78</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="D52" t="s">
         <v>302</v>
       </c>
-      <c r="E52" s="9" t="s">
+      <c r="E52" t="s">
         <v>275</v>
       </c>
-      <c r="F52" s="9" t="s">
+      <c r="F52" t="s">
         <v>119</v>
       </c>
-      <c r="G52" s="9" t="s">
+      <c r="G52" t="s">
         <v>115</v>
       </c>
-      <c r="H52" s="9" t="s">
+      <c r="H52" t="s">
         <v>110</v>
       </c>
-      <c r="I52" s="9" t="s">
+      <c r="I52" t="s">
         <v>134</v>
       </c>
-      <c r="J52" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K52" s="9" t="s">
+      <c r="J52" t="s">
+        <v>175</v>
+      </c>
+      <c r="K52" t="s">
         <v>217</v>
       </c>
-      <c r="L52" s="9" t="s">
+      <c r="L52" t="s">
         <v>119</v>
       </c>
-      <c r="M52" s="9" t="s">
+      <c r="M52" t="s">
         <v>429</v>
       </c>
-      <c r="N52" s="9" t="s">
+      <c r="N52" t="s">
         <v>236</v>
       </c>
-      <c r="O52" s="9" t="s">
+      <c r="O52" t="s">
         <v>430</v>
       </c>
-      <c r="P52" s="9" t="s">
+      <c r="P52" t="s">
         <v>361</v>
       </c>
-      <c r="Q52" s="9" t="s">
+      <c r="Q52" t="s">
         <v>420</v>
       </c>
-      <c r="R52" s="9" t="s">
+      <c r="R52" t="s">
         <v>277</v>
       </c>
-      <c r="S52" s="9" t="s">
+      <c r="S52" t="s">
         <v>144</v>
       </c>
-      <c r="T52" s="9" t="s">
+      <c r="T52" t="s">
         <v>177</v>
       </c>
-      <c r="U52" s="9" t="s">
+      <c r="U52" t="s">
         <v>431</v>
       </c>
-      <c r="V52" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="W52" s="9" t="s">
+      <c r="V52" t="s">
+        <v>175</v>
+      </c>
+      <c r="W52" t="s">
         <v>160</v>
       </c>
-      <c r="X52" s="7"/>
-      <c r="Y52" s="7"/>
-      <c r="Z52" s="7"/>
-    </row>
-    <row r="53" spans="1:26" ht="26.5" thickBot="1">
-      <c r="A53" s="3" t="s">
+      <c r="X52"/>
+      <c r="Y52"/>
+      <c r="Z52"/>
+      <c r="AA52"/>
+      <c r="AB52"/>
+      <c r="AC52"/>
+      <c r="AD52"/>
+      <c r="AE52"/>
+      <c r="AF52"/>
+    </row>
+    <row r="53" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
         <v>108</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" t="s">
         <v>77</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" t="s">
         <v>79</v>
       </c>
-      <c r="D53" s="9" t="s">
+      <c r="D53" t="s">
         <v>319</v>
       </c>
-      <c r="E53" s="9" t="s">
+      <c r="E53" t="s">
         <v>241</v>
       </c>
-      <c r="F53" s="9" t="s">
+      <c r="F53" t="s">
         <v>114</v>
       </c>
-      <c r="G53" s="9" t="s">
+      <c r="G53" t="s">
         <v>125</v>
       </c>
-      <c r="H53" s="9" t="s">
+      <c r="H53" t="s">
         <v>111</v>
       </c>
-      <c r="I53" s="9" t="s">
+      <c r="I53" t="s">
         <v>161</v>
       </c>
-      <c r="J53" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K53" s="9" t="s">
+      <c r="J53" t="s">
+        <v>175</v>
+      </c>
+      <c r="K53" t="s">
         <v>432</v>
       </c>
-      <c r="L53" s="9" t="s">
+      <c r="L53" t="s">
         <v>127</v>
       </c>
-      <c r="M53" s="9" t="s">
+      <c r="M53" t="s">
         <v>209</v>
       </c>
-      <c r="N53" s="9" t="s">
+      <c r="N53" t="s">
         <v>257</v>
       </c>
-      <c r="O53" s="9" t="s">
+      <c r="O53" t="s">
         <v>433</v>
       </c>
-      <c r="P53" s="9" t="s">
+      <c r="P53" t="s">
         <v>331</v>
       </c>
-      <c r="Q53" s="9" t="s">
+      <c r="Q53" t="s">
         <v>302</v>
       </c>
-      <c r="R53" s="9" t="s">
+      <c r="R53" t="s">
         <v>180</v>
       </c>
-      <c r="S53" s="9" t="s">
+      <c r="S53" t="s">
         <v>127</v>
       </c>
-      <c r="T53" s="10"/>
-      <c r="U53" s="9" t="s">
+      <c r="T53"/>
+      <c r="U53" t="s">
         <v>434</v>
       </c>
-      <c r="V53" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="W53" s="9" t="s">
+      <c r="V53" t="s">
+        <v>175</v>
+      </c>
+      <c r="W53" t="s">
         <v>162</v>
       </c>
-      <c r="X53" s="7"/>
-      <c r="Y53" s="7"/>
-      <c r="Z53" s="7"/>
-    </row>
-    <row r="54" spans="1:26" ht="26.5" thickBot="1">
-      <c r="A54" s="3" t="s">
+      <c r="X53"/>
+      <c r="Y53"/>
+      <c r="Z53"/>
+      <c r="AA53"/>
+      <c r="AB53"/>
+      <c r="AC53"/>
+      <c r="AD53"/>
+      <c r="AE53"/>
+      <c r="AF53"/>
+    </row>
+    <row r="54" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
         <v>108</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" t="s">
         <v>77</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" t="s">
         <v>80</v>
       </c>
-      <c r="D54" s="9" t="s">
+      <c r="D54" t="s">
         <v>435</v>
       </c>
-      <c r="E54" s="9" t="s">
+      <c r="E54" t="s">
         <v>274</v>
       </c>
-      <c r="F54" s="9" t="s">
+      <c r="F54" t="s">
         <v>109</v>
       </c>
-      <c r="G54" s="9" t="s">
+      <c r="G54" t="s">
         <v>110</v>
       </c>
-      <c r="H54" s="9" t="s">
+      <c r="H54" t="s">
         <v>111</v>
       </c>
-      <c r="I54" s="9" t="s">
+      <c r="I54" t="s">
         <v>115</v>
       </c>
-      <c r="J54" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K54" s="11" t="s">
+      <c r="J54" t="s">
+        <v>175</v>
+      </c>
+      <c r="K54" t="s">
         <v>436</v>
       </c>
-      <c r="L54" s="9" t="s">
+      <c r="L54" t="s">
         <v>243</v>
       </c>
-      <c r="M54" s="9" t="s">
+      <c r="M54" t="s">
         <v>178</v>
       </c>
-      <c r="N54" s="9" t="s">
+      <c r="N54" t="s">
         <v>183</v>
       </c>
-      <c r="O54" s="9" t="s">
+      <c r="O54" t="s">
         <v>344</v>
       </c>
-      <c r="P54" s="9" t="s">
+      <c r="P54" t="s">
         <v>181</v>
       </c>
-      <c r="Q54" s="9" t="s">
+      <c r="Q54" t="s">
         <v>197</v>
       </c>
-      <c r="R54" s="9" t="s">
+      <c r="R54" t="s">
         <v>197</v>
       </c>
-      <c r="S54" s="9" t="s">
+      <c r="S54" t="s">
         <v>234</v>
       </c>
-      <c r="T54" s="10"/>
-      <c r="U54" s="9" t="s">
+      <c r="T54"/>
+      <c r="U54" t="s">
         <v>316</v>
       </c>
-      <c r="V54" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="W54" s="9" t="s">
+      <c r="V54" t="s">
+        <v>175</v>
+      </c>
+      <c r="W54" t="s">
         <v>176</v>
       </c>
-      <c r="X54" s="7"/>
-      <c r="Y54" s="7"/>
-      <c r="Z54" s="7"/>
-    </row>
-    <row r="55" spans="1:26" ht="26.5" thickBot="1">
-      <c r="A55" s="3" t="s">
+      <c r="X54"/>
+      <c r="Y54"/>
+      <c r="Z54"/>
+      <c r="AA54"/>
+      <c r="AB54"/>
+      <c r="AC54"/>
+      <c r="AD54"/>
+      <c r="AE54"/>
+      <c r="AF54"/>
+    </row>
+    <row r="55" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
         <v>108</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" t="s">
         <v>77</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C55" t="s">
         <v>81</v>
       </c>
-      <c r="D55" s="9" t="s">
+      <c r="D55" t="s">
         <v>181</v>
       </c>
-      <c r="E55" s="9" t="s">
+      <c r="E55" t="s">
         <v>192</v>
       </c>
-      <c r="F55" s="9" t="s">
+      <c r="F55" t="s">
         <v>118</v>
       </c>
-      <c r="G55" s="9" t="s">
+      <c r="G55" t="s">
         <v>115</v>
       </c>
-      <c r="H55" s="9" t="s">
+      <c r="H55" t="s">
         <v>111</v>
       </c>
-      <c r="I55" s="9" t="s">
+      <c r="I55" t="s">
         <v>131</v>
       </c>
-      <c r="J55" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K55" s="9" t="s">
+      <c r="J55" t="s">
+        <v>175</v>
+      </c>
+      <c r="K55" t="s">
         <v>437</v>
       </c>
-      <c r="L55" s="9" t="s">
+      <c r="L55" t="s">
         <v>114</v>
       </c>
-      <c r="M55" s="9" t="s">
+      <c r="M55" t="s">
         <v>429</v>
       </c>
-      <c r="N55" s="9" t="s">
+      <c r="N55" t="s">
         <v>312</v>
       </c>
-      <c r="O55" s="9" t="s">
+      <c r="O55" t="s">
         <v>313</v>
       </c>
-      <c r="P55" s="9" t="s">
+      <c r="P55" t="s">
         <v>420</v>
       </c>
-      <c r="Q55" s="9" t="s">
+      <c r="Q55" t="s">
         <v>190</v>
       </c>
-      <c r="R55" s="9" t="s">
+      <c r="R55" t="s">
         <v>180</v>
       </c>
-      <c r="S55" s="9" t="s">
+      <c r="S55" t="s">
         <v>123</v>
       </c>
-      <c r="T55" s="10"/>
-      <c r="U55" s="9" t="s">
+      <c r="T55"/>
+      <c r="U55" t="s">
         <v>438</v>
       </c>
-      <c r="V55" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="W55" s="9" t="s">
+      <c r="V55" t="s">
+        <v>175</v>
+      </c>
+      <c r="W55" t="s">
         <v>254</v>
       </c>
-      <c r="X55" s="7"/>
-      <c r="Y55" s="7"/>
-      <c r="Z55" s="7"/>
-    </row>
-    <row r="56" spans="1:26" ht="26.5" thickBot="1">
-      <c r="A56" s="3" t="s">
+      <c r="X55"/>
+      <c r="Y55"/>
+      <c r="Z55"/>
+      <c r="AA55"/>
+      <c r="AB55"/>
+      <c r="AC55"/>
+      <c r="AD55"/>
+      <c r="AE55"/>
+      <c r="AF55"/>
+    </row>
+    <row r="56" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
         <v>108</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" t="s">
         <v>77</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" t="s">
         <v>82</v>
       </c>
-      <c r="D56" s="9" t="s">
+      <c r="D56" t="s">
         <v>215</v>
       </c>
-      <c r="E56" s="9" t="s">
+      <c r="E56" t="s">
         <v>262</v>
       </c>
-      <c r="F56" s="9" t="s">
+      <c r="F56" t="s">
         <v>119</v>
       </c>
-      <c r="G56" s="9" t="s">
+      <c r="G56" t="s">
         <v>142</v>
       </c>
-      <c r="H56" s="9" t="s">
+      <c r="H56" t="s">
         <v>134</v>
       </c>
-      <c r="I56" s="9" t="s">
+      <c r="I56" t="s">
         <v>112</v>
       </c>
-      <c r="J56" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K56" s="11" t="s">
+      <c r="J56" t="s">
+        <v>175</v>
+      </c>
+      <c r="K56" t="s">
         <v>422</v>
       </c>
-      <c r="L56" s="9" t="s">
+      <c r="L56" t="s">
         <v>178</v>
       </c>
-      <c r="M56" s="9" t="s">
+      <c r="M56" t="s">
         <v>198</v>
       </c>
-      <c r="N56" s="9" t="s">
+      <c r="N56" t="s">
         <v>178</v>
       </c>
-      <c r="O56" s="9" t="s">
+      <c r="O56" t="s">
         <v>179</v>
       </c>
-      <c r="P56" s="9" t="s">
+      <c r="P56" t="s">
         <v>277</v>
       </c>
-      <c r="Q56" s="9" t="s">
+      <c r="Q56" t="s">
         <v>439</v>
       </c>
-      <c r="R56" s="9" t="s">
+      <c r="R56" t="s">
         <v>238</v>
       </c>
-      <c r="S56" s="9" t="s">
+      <c r="S56" t="s">
         <v>274</v>
       </c>
-      <c r="T56" s="10"/>
-      <c r="U56" s="9" t="s">
+      <c r="T56"/>
+      <c r="U56" t="s">
         <v>440</v>
       </c>
-      <c r="V56" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="W56" s="9" t="s">
+      <c r="V56" t="s">
+        <v>175</v>
+      </c>
+      <c r="W56" t="s">
         <v>213</v>
       </c>
-      <c r="X56" s="7"/>
-      <c r="Y56" s="7"/>
-      <c r="Z56" s="7"/>
-    </row>
-    <row r="57" spans="1:26" ht="26.5" thickBot="1">
-      <c r="A57" s="3" t="s">
+      <c r="X56"/>
+      <c r="Y56"/>
+      <c r="Z56"/>
+      <c r="AA56"/>
+      <c r="AB56"/>
+      <c r="AC56"/>
+      <c r="AD56"/>
+      <c r="AE56"/>
+      <c r="AF56"/>
+    </row>
+    <row r="57" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
         <v>108</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" t="s">
         <v>77</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" t="s">
         <v>83</v>
       </c>
-      <c r="D57" s="9" t="s">
+      <c r="D57" t="s">
         <v>203</v>
       </c>
-      <c r="E57" s="9" t="s">
+      <c r="E57" t="s">
         <v>192</v>
       </c>
-      <c r="F57" s="9" t="s">
+      <c r="F57" t="s">
         <v>118</v>
       </c>
-      <c r="G57" s="9" t="s">
+      <c r="G57" t="s">
         <v>116</v>
       </c>
-      <c r="H57" s="9" t="s">
+      <c r="H57" t="s">
         <v>111</v>
       </c>
-      <c r="I57" s="9" t="s">
+      <c r="I57" t="s">
         <v>131</v>
       </c>
-      <c r="J57" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K57" s="11" t="s">
+      <c r="J57" t="s">
+        <v>175</v>
+      </c>
+      <c r="K57" t="s">
         <v>241</v>
       </c>
-      <c r="L57" s="9" t="s">
+      <c r="L57" t="s">
         <v>118</v>
       </c>
-      <c r="M57" s="9" t="s">
+      <c r="M57" t="s">
         <v>192</v>
       </c>
-      <c r="N57" s="9" t="s">
+      <c r="N57" t="s">
         <v>222</v>
       </c>
-      <c r="O57" s="9" t="s">
+      <c r="O57" t="s">
         <v>441</v>
       </c>
-      <c r="P57" s="9" t="s">
+      <c r="P57" t="s">
         <v>316</v>
       </c>
-      <c r="Q57" s="9" t="s">
+      <c r="Q57" t="s">
         <v>213</v>
       </c>
-      <c r="R57" s="9" t="s">
+      <c r="R57" t="s">
         <v>257</v>
       </c>
-      <c r="S57" s="9" t="s">
+      <c r="S57" t="s">
         <v>114</v>
       </c>
-      <c r="T57" s="10"/>
-      <c r="U57" s="9" t="s">
+      <c r="T57"/>
+      <c r="U57" t="s">
         <v>257</v>
       </c>
-      <c r="V57" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="W57" s="9" t="s">
+      <c r="V57" t="s">
+        <v>175</v>
+      </c>
+      <c r="W57" t="s">
         <v>163</v>
       </c>
-      <c r="X57" s="7"/>
-      <c r="Y57" s="7"/>
-      <c r="Z57" s="7"/>
-    </row>
-    <row r="58" spans="1:26" ht="26.5" thickBot="1">
-      <c r="A58" s="3" t="s">
+      <c r="X57"/>
+      <c r="Y57"/>
+      <c r="Z57"/>
+      <c r="AA57"/>
+      <c r="AB57"/>
+      <c r="AC57"/>
+      <c r="AD57"/>
+      <c r="AE57"/>
+      <c r="AF57"/>
+    </row>
+    <row r="58" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
         <v>108</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" t="s">
         <v>77</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" t="s">
         <v>84</v>
       </c>
-      <c r="D58" s="9" t="s">
+      <c r="D58" t="s">
         <v>293</v>
       </c>
-      <c r="E58" s="9" t="s">
+      <c r="E58" t="s">
         <v>123</v>
       </c>
-      <c r="F58" s="9" t="s">
+      <c r="F58" t="s">
         <v>118</v>
       </c>
-      <c r="G58" s="9" t="s">
+      <c r="G58" t="s">
         <v>112</v>
       </c>
-      <c r="H58" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="I58" s="9" t="s">
+      <c r="H58" t="s">
+        <v>175</v>
+      </c>
+      <c r="I58" t="s">
         <v>128</v>
       </c>
-      <c r="J58" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K58" s="9" t="s">
+      <c r="J58" t="s">
+        <v>175</v>
+      </c>
+      <c r="K58" t="s">
         <v>329</v>
       </c>
-      <c r="L58" s="9" t="s">
+      <c r="L58" t="s">
         <v>225</v>
       </c>
-      <c r="M58" s="9" t="s">
+      <c r="M58" t="s">
         <v>251</v>
       </c>
-      <c r="N58" s="9" t="s">
+      <c r="N58" t="s">
         <v>212</v>
       </c>
-      <c r="O58" s="9" t="s">
+      <c r="O58" t="s">
         <v>322</v>
       </c>
-      <c r="P58" s="9" t="s">
+      <c r="P58" t="s">
         <v>302</v>
       </c>
-      <c r="Q58" s="9" t="s">
+      <c r="Q58" t="s">
         <v>173</v>
       </c>
-      <c r="R58" s="9" t="s">
+      <c r="R58" t="s">
         <v>314</v>
       </c>
-      <c r="S58" s="9" t="s">
+      <c r="S58" t="s">
         <v>119</v>
       </c>
-      <c r="T58" s="10"/>
-      <c r="U58" s="9" t="s">
+      <c r="T58"/>
+      <c r="U58" t="s">
         <v>442</v>
       </c>
-      <c r="V58" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="W58" s="9" t="s">
+      <c r="V58" t="s">
+        <v>175</v>
+      </c>
+      <c r="W58" t="s">
         <v>184</v>
       </c>
-      <c r="X58" s="7"/>
-      <c r="Y58" s="7"/>
-      <c r="Z58" s="7"/>
-    </row>
-    <row r="59" spans="1:26" ht="26.5" thickBot="1">
-      <c r="A59" s="3" t="s">
+      <c r="X58"/>
+      <c r="Y58"/>
+      <c r="Z58"/>
+      <c r="AA58"/>
+      <c r="AB58"/>
+      <c r="AC58"/>
+      <c r="AD58"/>
+      <c r="AE58"/>
+      <c r="AF58"/>
+    </row>
+    <row r="59" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
         <v>108</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" t="s">
         <v>77</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" t="s">
         <v>85</v>
       </c>
-      <c r="D59" s="9" t="s">
+      <c r="D59" t="s">
         <v>249</v>
       </c>
-      <c r="E59" s="9" t="s">
+      <c r="E59" t="s">
         <v>429</v>
       </c>
-      <c r="F59" s="9" t="s">
+      <c r="F59" t="s">
         <v>119</v>
       </c>
-      <c r="G59" s="9" t="s">
+      <c r="G59" t="s">
         <v>112</v>
       </c>
-      <c r="H59" s="9" t="s">
+      <c r="H59" t="s">
         <v>116</v>
       </c>
-      <c r="I59" s="9" t="s">
+      <c r="I59" t="s">
         <v>139</v>
       </c>
-      <c r="J59" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K59" s="11" t="s">
+      <c r="J59" t="s">
+        <v>175</v>
+      </c>
+      <c r="K59" t="s">
         <v>275</v>
       </c>
-      <c r="L59" s="9" t="s">
+      <c r="L59" t="s">
         <v>118</v>
       </c>
-      <c r="M59" s="9" t="s">
+      <c r="M59" t="s">
         <v>204</v>
       </c>
-      <c r="N59" s="9" t="s">
+      <c r="N59" t="s">
         <v>222</v>
       </c>
-      <c r="O59" s="9" t="s">
+      <c r="O59" t="s">
         <v>443</v>
       </c>
-      <c r="P59" s="9" t="s">
+      <c r="P59" t="s">
         <v>444</v>
       </c>
-      <c r="Q59" s="9" t="s">
+      <c r="Q59" t="s">
         <v>213</v>
       </c>
-      <c r="R59" s="9" t="s">
+      <c r="R59" t="s">
         <v>191</v>
       </c>
-      <c r="S59" s="9" t="s">
+      <c r="S59" t="s">
         <v>429</v>
       </c>
-      <c r="T59" s="10"/>
-      <c r="U59" s="9" t="s">
+      <c r="T59"/>
+      <c r="U59" t="s">
         <v>445</v>
       </c>
-      <c r="V59" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="W59" s="9" t="s">
+      <c r="V59" t="s">
+        <v>175</v>
+      </c>
+      <c r="W59" t="s">
         <v>164</v>
       </c>
-      <c r="X59" s="7"/>
-      <c r="Y59" s="7"/>
-      <c r="Z59" s="7"/>
-    </row>
-    <row r="60" spans="1:26" ht="26.5" thickBot="1">
-      <c r="A60" s="3" t="s">
+      <c r="X59"/>
+      <c r="Y59"/>
+      <c r="Z59"/>
+      <c r="AA59"/>
+      <c r="AB59"/>
+      <c r="AC59"/>
+      <c r="AD59"/>
+      <c r="AE59"/>
+      <c r="AF59"/>
+    </row>
+    <row r="60" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
         <v>108</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" t="s">
         <v>77</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C60" t="s">
         <v>86</v>
       </c>
-      <c r="D60" s="9" t="s">
+      <c r="D60" t="s">
         <v>206</v>
       </c>
-      <c r="E60" s="9" t="s">
+      <c r="E60" t="s">
         <v>274</v>
       </c>
-      <c r="F60" s="9" t="s">
+      <c r="F60" t="s">
         <v>118</v>
       </c>
-      <c r="G60" s="9" t="s">
+      <c r="G60" t="s">
         <v>112</v>
       </c>
-      <c r="H60" s="9" t="s">
+      <c r="H60" t="s">
         <v>111</v>
       </c>
-      <c r="I60" s="9" t="s">
+      <c r="I60" t="s">
         <v>128</v>
       </c>
-      <c r="J60" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K60" s="11" t="s">
+      <c r="J60" t="s">
+        <v>175</v>
+      </c>
+      <c r="K60" t="s">
         <v>196</v>
       </c>
-      <c r="L60" s="9" t="s">
+      <c r="L60" t="s">
         <v>347</v>
       </c>
-      <c r="M60" s="9" t="s">
+      <c r="M60" t="s">
         <v>429</v>
       </c>
-      <c r="N60" s="9" t="s">
+      <c r="N60" t="s">
         <v>293</v>
       </c>
-      <c r="O60" s="9" t="s">
+      <c r="O60" t="s">
         <v>446</v>
       </c>
-      <c r="P60" s="9" t="s">
+      <c r="P60" t="s">
         <v>194</v>
       </c>
-      <c r="Q60" s="9" t="s">
+      <c r="Q60" t="s">
         <v>238</v>
       </c>
-      <c r="R60" s="9" t="s">
+      <c r="R60" t="s">
         <v>314</v>
       </c>
-      <c r="S60" s="9" t="s">
+      <c r="S60" t="s">
         <v>123</v>
       </c>
-      <c r="T60" s="10"/>
-      <c r="U60" s="9" t="s">
+      <c r="T60"/>
+      <c r="U60" t="s">
         <v>447</v>
       </c>
-      <c r="V60" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="W60" s="9" t="s">
+      <c r="V60" t="s">
+        <v>175</v>
+      </c>
+      <c r="W60" t="s">
         <v>448</v>
       </c>
-      <c r="X60" s="7"/>
-      <c r="Y60" s="7"/>
-      <c r="Z60" s="7"/>
-    </row>
-    <row r="61" spans="1:26" ht="26.5" thickBot="1">
-      <c r="A61" s="3" t="s">
+      <c r="X60"/>
+      <c r="Y60"/>
+      <c r="Z60"/>
+      <c r="AA60"/>
+      <c r="AB60"/>
+      <c r="AC60"/>
+      <c r="AD60"/>
+      <c r="AE60"/>
+      <c r="AF60"/>
+    </row>
+    <row r="61" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
         <v>108</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" t="s">
         <v>77</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C61" t="s">
         <v>87</v>
       </c>
-      <c r="D61" s="9" t="s">
+      <c r="D61" t="s">
         <v>283</v>
       </c>
-      <c r="E61" s="9" t="s">
+      <c r="E61" t="s">
         <v>268</v>
       </c>
-      <c r="F61" s="9" t="s">
+      <c r="F61" t="s">
         <v>126</v>
       </c>
-      <c r="G61" s="9" t="s">
+      <c r="G61" t="s">
         <v>120</v>
       </c>
-      <c r="H61" s="9" t="s">
+      <c r="H61" t="s">
         <v>110</v>
       </c>
-      <c r="I61" s="9" t="s">
+      <c r="I61" t="s">
         <v>136</v>
       </c>
-      <c r="J61" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K61" s="9" t="s">
+      <c r="J61" t="s">
+        <v>175</v>
+      </c>
+      <c r="K61" t="s">
         <v>449</v>
       </c>
-      <c r="L61" s="9" t="s">
+      <c r="L61" t="s">
         <v>127</v>
       </c>
-      <c r="M61" s="9" t="s">
+      <c r="M61" t="s">
         <v>342</v>
       </c>
-      <c r="N61" s="9" t="s">
+      <c r="N61" t="s">
         <v>277</v>
       </c>
-      <c r="O61" s="9" t="s">
+      <c r="O61" t="s">
         <v>418</v>
       </c>
-      <c r="P61" s="9" t="s">
+      <c r="P61" t="s">
         <v>181</v>
       </c>
-      <c r="Q61" s="9" t="s">
+      <c r="Q61" t="s">
         <v>190</v>
       </c>
-      <c r="R61" s="9" t="s">
+      <c r="R61" t="s">
         <v>254</v>
       </c>
-      <c r="S61" s="9" t="s">
+      <c r="S61" t="s">
         <v>127</v>
       </c>
-      <c r="T61" s="10"/>
-      <c r="U61" s="9" t="s">
+      <c r="T61"/>
+      <c r="U61" t="s">
         <v>450</v>
       </c>
-      <c r="V61" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="W61" s="9" t="s">
+      <c r="V61" t="s">
+        <v>175</v>
+      </c>
+      <c r="W61" t="s">
         <v>451</v>
       </c>
-      <c r="X61" s="7"/>
-      <c r="Y61" s="7"/>
-      <c r="Z61" s="7"/>
-    </row>
-    <row r="62" spans="1:26" ht="26.5" thickBot="1">
-      <c r="A62" s="3" t="s">
+      <c r="X61"/>
+      <c r="Y61"/>
+      <c r="Z61"/>
+      <c r="AA61"/>
+      <c r="AB61"/>
+      <c r="AC61"/>
+      <c r="AD61"/>
+      <c r="AE61"/>
+      <c r="AF61"/>
+    </row>
+    <row r="62" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
         <v>108</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" t="s">
         <v>77</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C62" t="s">
         <v>88</v>
       </c>
-      <c r="D62" s="9" t="s">
+      <c r="D62" t="s">
         <v>216</v>
       </c>
-      <c r="E62" s="9" t="s">
+      <c r="E62" t="s">
         <v>286</v>
       </c>
-      <c r="F62" s="9" t="s">
+      <c r="F62" t="s">
         <v>126</v>
       </c>
-      <c r="G62" s="9" t="s">
+      <c r="G62" t="s">
         <v>121</v>
       </c>
-      <c r="H62" s="9" t="s">
+      <c r="H62" t="s">
         <v>112</v>
       </c>
-      <c r="I62" s="9" t="s">
+      <c r="I62" t="s">
         <v>131</v>
       </c>
-      <c r="J62" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K62" s="9" t="s">
+      <c r="J62" t="s">
+        <v>175</v>
+      </c>
+      <c r="K62" t="s">
         <v>452</v>
       </c>
-      <c r="L62" s="9" t="s">
+      <c r="L62" t="s">
         <v>204</v>
       </c>
-      <c r="M62" s="9" t="s">
+      <c r="M62" t="s">
         <v>269</v>
       </c>
-      <c r="N62" s="9" t="s">
+      <c r="N62" t="s">
         <v>216</v>
       </c>
-      <c r="O62" s="9" t="s">
+      <c r="O62" t="s">
         <v>453</v>
       </c>
-      <c r="P62" s="9" t="s">
+      <c r="P62" t="s">
         <v>173</v>
       </c>
-      <c r="Q62" s="9" t="s">
+      <c r="Q62" t="s">
         <v>454</v>
       </c>
-      <c r="R62" s="9" t="s">
+      <c r="R62" t="s">
         <v>231</v>
       </c>
-      <c r="S62" s="9" t="s">
+      <c r="S62" t="s">
         <v>127</v>
       </c>
-      <c r="T62" s="10"/>
-      <c r="U62" s="9" t="s">
+      <c r="T62"/>
+      <c r="U62" t="s">
         <v>455</v>
       </c>
-      <c r="V62" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="W62" s="9" t="s">
+      <c r="V62" t="s">
+        <v>175</v>
+      </c>
+      <c r="W62" t="s">
         <v>432</v>
       </c>
-      <c r="X62" s="7"/>
-      <c r="Y62" s="7"/>
-      <c r="Z62" s="7"/>
-    </row>
-    <row r="63" spans="1:26" ht="26.5" thickBot="1">
-      <c r="A63" s="3" t="s">
+      <c r="X62"/>
+      <c r="Y62"/>
+      <c r="Z62"/>
+      <c r="AA62"/>
+      <c r="AB62"/>
+      <c r="AC62"/>
+      <c r="AD62"/>
+      <c r="AE62"/>
+      <c r="AF62"/>
+    </row>
+    <row r="63" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
         <v>108</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" t="s">
         <v>77</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C63" t="s">
         <v>89</v>
       </c>
-      <c r="D63" s="9" t="s">
+      <c r="D63" t="s">
         <v>206</v>
       </c>
-      <c r="E63" s="9" t="s">
+      <c r="E63" t="s">
         <v>234</v>
       </c>
-      <c r="F63" s="9" t="s">
+      <c r="F63" t="s">
         <v>126</v>
       </c>
-      <c r="G63" s="9" t="s">
+      <c r="G63" t="s">
         <v>112</v>
       </c>
-      <c r="H63" s="9" t="s">
+      <c r="H63" t="s">
         <v>110</v>
       </c>
-      <c r="I63" s="9" t="s">
+      <c r="I63" t="s">
         <v>134</v>
       </c>
-      <c r="J63" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K63" s="9" t="s">
+      <c r="J63" t="s">
+        <v>175</v>
+      </c>
+      <c r="K63" t="s">
         <v>285</v>
       </c>
-      <c r="L63" s="9" t="s">
+      <c r="L63" t="s">
         <v>429</v>
       </c>
-      <c r="M63" s="9" t="s">
+      <c r="M63" t="s">
         <v>374</v>
       </c>
-      <c r="N63" s="9" t="s">
+      <c r="N63" t="s">
         <v>456</v>
       </c>
-      <c r="O63" s="9" t="s">
+      <c r="O63" t="s">
         <v>200</v>
       </c>
-      <c r="P63" s="9" t="s">
+      <c r="P63" t="s">
         <v>206</v>
       </c>
-      <c r="Q63" s="9" t="s">
+      <c r="Q63" t="s">
         <v>319</v>
       </c>
-      <c r="R63" s="9" t="s">
+      <c r="R63" t="s">
         <v>182</v>
       </c>
-      <c r="S63" s="9" t="s">
+      <c r="S63" t="s">
         <v>113</v>
       </c>
-      <c r="T63" s="10"/>
-      <c r="U63" s="9" t="s">
+      <c r="T63"/>
+      <c r="U63" t="s">
         <v>457</v>
       </c>
-      <c r="V63" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="W63" s="9" t="s">
+      <c r="V63" t="s">
+        <v>175</v>
+      </c>
+      <c r="W63" t="s">
         <v>458</v>
       </c>
-      <c r="X63" s="7"/>
-      <c r="Y63" s="7"/>
-      <c r="Z63" s="7"/>
-    </row>
-    <row r="64" spans="1:26" ht="26.5" thickBot="1">
-      <c r="A64" s="3" t="s">
+      <c r="X63"/>
+      <c r="Y63"/>
+      <c r="Z63"/>
+      <c r="AA63"/>
+      <c r="AB63"/>
+      <c r="AC63"/>
+      <c r="AD63"/>
+      <c r="AE63"/>
+      <c r="AF63"/>
+    </row>
+    <row r="64" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
         <v>108</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" t="s">
         <v>77</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C64" t="s">
         <v>90</v>
       </c>
-      <c r="D64" s="9" t="s">
+      <c r="D64" t="s">
         <v>206</v>
       </c>
-      <c r="E64" s="9" t="s">
+      <c r="E64" t="s">
         <v>274</v>
       </c>
-      <c r="F64" s="9" t="s">
+      <c r="F64" t="s">
         <v>118</v>
       </c>
-      <c r="G64" s="9" t="s">
+      <c r="G64" t="s">
         <v>116</v>
       </c>
-      <c r="H64" s="9" t="s">
+      <c r="H64" t="s">
         <v>111</v>
       </c>
-      <c r="I64" s="9" t="s">
+      <c r="I64" t="s">
         <v>109</v>
       </c>
-      <c r="J64" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K64" s="9" t="s">
+      <c r="J64" t="s">
+        <v>175</v>
+      </c>
+      <c r="K64" t="s">
         <v>459</v>
       </c>
-      <c r="L64" s="9" t="s">
+      <c r="L64" t="s">
         <v>275</v>
       </c>
-      <c r="M64" s="9" t="s">
+      <c r="M64" t="s">
         <v>177</v>
       </c>
-      <c r="N64" s="9" t="s">
+      <c r="N64" t="s">
         <v>190</v>
       </c>
-      <c r="O64" s="9" t="s">
+      <c r="O64" t="s">
         <v>460</v>
       </c>
-      <c r="P64" s="9" t="s">
+      <c r="P64" t="s">
         <v>293</v>
       </c>
-      <c r="Q64" s="9" t="s">
+      <c r="Q64" t="s">
         <v>311</v>
       </c>
-      <c r="R64" s="9" t="s">
+      <c r="R64" t="s">
         <v>233</v>
       </c>
-      <c r="S64" s="9" t="s">
+      <c r="S64" t="s">
         <v>127</v>
       </c>
-      <c r="T64" s="10"/>
-      <c r="U64" s="9" t="s">
+      <c r="T64"/>
+      <c r="U64" t="s">
         <v>461</v>
       </c>
-      <c r="V64" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="W64" s="9" t="s">
+      <c r="V64" t="s">
+        <v>175</v>
+      </c>
+      <c r="W64" t="s">
         <v>462</v>
       </c>
-      <c r="X64" s="7"/>
-      <c r="Y64" s="7"/>
-      <c r="Z64" s="7"/>
-    </row>
-    <row r="65" spans="1:26" ht="26.5" thickBot="1">
-      <c r="A65" s="3" t="s">
+      <c r="X64"/>
+      <c r="Y64"/>
+      <c r="Z64"/>
+      <c r="AA64"/>
+      <c r="AB64"/>
+      <c r="AC64"/>
+      <c r="AD64"/>
+      <c r="AE64"/>
+      <c r="AF64"/>
+    </row>
+    <row r="65" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
         <v>108</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" t="s">
         <v>77</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C65" t="s">
         <v>91</v>
       </c>
-      <c r="D65" s="9" t="s">
+      <c r="D65" t="s">
         <v>311</v>
       </c>
-      <c r="E65" s="9" t="s">
+      <c r="E65" t="s">
         <v>178</v>
       </c>
-      <c r="F65" s="9" t="s">
+      <c r="F65" t="s">
         <v>118</v>
       </c>
-      <c r="G65" s="9" t="s">
+      <c r="G65" t="s">
         <v>116</v>
       </c>
-      <c r="H65" s="9" t="s">
+      <c r="H65" t="s">
         <v>111</v>
       </c>
-      <c r="I65" s="9" t="s">
+      <c r="I65" t="s">
         <v>109</v>
       </c>
-      <c r="J65" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K65" s="9" t="s">
+      <c r="J65" t="s">
+        <v>175</v>
+      </c>
+      <c r="K65" t="s">
         <v>185</v>
       </c>
-      <c r="L65" s="9" t="s">
+      <c r="L65" t="s">
         <v>127</v>
       </c>
-      <c r="M65" s="9" t="s">
+      <c r="M65" t="s">
         <v>286</v>
       </c>
-      <c r="N65" s="9" t="s">
+      <c r="N65" t="s">
         <v>293</v>
       </c>
-      <c r="O65" s="9" t="s">
+      <c r="O65" t="s">
         <v>463</v>
       </c>
-      <c r="P65" s="9" t="s">
+      <c r="P65" t="s">
         <v>180</v>
       </c>
-      <c r="Q65" s="9" t="s">
+      <c r="Q65" t="s">
         <v>302</v>
       </c>
-      <c r="R65" s="9" t="s">
+      <c r="R65" t="s">
         <v>316</v>
       </c>
-      <c r="S65" s="9" t="s">
+      <c r="S65" t="s">
         <v>114</v>
       </c>
-      <c r="T65" s="10"/>
-      <c r="U65" s="9" t="s">
+      <c r="T65"/>
+      <c r="U65" t="s">
         <v>464</v>
       </c>
-      <c r="V65" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="W65" s="9" t="s">
+      <c r="V65" t="s">
+        <v>175</v>
+      </c>
+      <c r="W65" t="s">
         <v>165</v>
       </c>
-      <c r="X65" s="7"/>
-      <c r="Y65" s="7"/>
-      <c r="Z65" s="7"/>
-    </row>
-    <row r="66" spans="1:26" ht="26.5" thickBot="1">
-      <c r="A66" s="3" t="s">
+      <c r="X65"/>
+      <c r="Y65"/>
+      <c r="Z65"/>
+      <c r="AA65"/>
+      <c r="AB65"/>
+      <c r="AC65"/>
+      <c r="AD65"/>
+      <c r="AE65"/>
+      <c r="AF65"/>
+    </row>
+    <row r="66" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
         <v>108</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" t="s">
         <v>77</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C66" t="s">
         <v>92</v>
       </c>
-      <c r="D66" s="9" t="s">
+      <c r="D66" t="s">
         <v>206</v>
       </c>
-      <c r="E66" s="9" t="s">
+      <c r="E66" t="s">
         <v>225</v>
       </c>
-      <c r="F66" s="9" t="s">
+      <c r="F66" t="s">
         <v>126</v>
       </c>
-      <c r="G66" s="9" t="s">
+      <c r="G66" t="s">
         <v>120</v>
       </c>
-      <c r="H66" s="9" t="s">
+      <c r="H66" t="s">
         <v>110</v>
       </c>
-      <c r="I66" s="9" t="s">
+      <c r="I66" t="s">
         <v>128</v>
       </c>
-      <c r="J66" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K66" s="9" t="s">
+      <c r="J66" t="s">
+        <v>175</v>
+      </c>
+      <c r="K66" t="s">
         <v>235</v>
       </c>
-      <c r="L66" s="9" t="s">
+      <c r="L66" t="s">
         <v>248</v>
       </c>
-      <c r="M66" s="9" t="s">
+      <c r="M66" t="s">
         <v>268</v>
       </c>
-      <c r="N66" s="9" t="s">
+      <c r="N66" t="s">
         <v>206</v>
       </c>
-      <c r="O66" s="9" t="s">
+      <c r="O66" t="s">
         <v>465</v>
       </c>
-      <c r="P66" s="9" t="s">
+      <c r="P66" t="s">
         <v>249</v>
       </c>
-      <c r="Q66" s="9" t="s">
+      <c r="Q66" t="s">
         <v>413</v>
       </c>
-      <c r="R66" s="9" t="s">
+      <c r="R66" t="s">
         <v>233</v>
       </c>
-      <c r="S66" s="9" t="s">
+      <c r="S66" t="s">
         <v>113</v>
       </c>
-      <c r="T66" s="10"/>
-      <c r="U66" s="9" t="s">
+      <c r="T66"/>
+      <c r="U66" t="s">
         <v>466</v>
       </c>
-      <c r="V66" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="W66" s="9" t="s">
+      <c r="V66" t="s">
+        <v>175</v>
+      </c>
+      <c r="W66" t="s">
         <v>467</v>
       </c>
-      <c r="X66" s="7"/>
-      <c r="Y66" s="7"/>
-      <c r="Z66" s="7"/>
-    </row>
-    <row r="67" spans="1:26" ht="26.5" thickBot="1">
-      <c r="A67" s="3" t="s">
+      <c r="X66"/>
+      <c r="Y66"/>
+      <c r="Z66"/>
+      <c r="AA66"/>
+      <c r="AB66"/>
+      <c r="AC66"/>
+      <c r="AD66"/>
+      <c r="AE66"/>
+      <c r="AF66"/>
+    </row>
+    <row r="67" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
         <v>108</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" t="s">
         <v>77</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="C67" t="s">
         <v>93</v>
       </c>
-      <c r="D67" s="9" t="s">
+      <c r="D67" t="s">
         <v>206</v>
       </c>
-      <c r="E67" s="9" t="s">
+      <c r="E67" t="s">
         <v>184</v>
       </c>
-      <c r="F67" s="9" t="s">
+      <c r="F67" t="s">
         <v>126</v>
       </c>
-      <c r="G67" s="9" t="s">
+      <c r="G67" t="s">
         <v>112</v>
       </c>
-      <c r="H67" s="9" t="s">
+      <c r="H67" t="s">
         <v>111</v>
       </c>
-      <c r="I67" s="9" t="s">
+      <c r="I67" t="s">
         <v>134</v>
       </c>
-      <c r="J67" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K67" s="9" t="s">
+      <c r="J67" t="s">
+        <v>175</v>
+      </c>
+      <c r="K67" t="s">
         <v>235</v>
       </c>
-      <c r="L67" s="9" t="s">
+      <c r="L67" t="s">
         <v>252</v>
       </c>
-      <c r="M67" s="9" t="s">
+      <c r="M67" t="s">
         <v>346</v>
       </c>
-      <c r="N67" s="9" t="s">
+      <c r="N67" t="s">
         <v>194</v>
       </c>
-      <c r="O67" s="9" t="s">
+      <c r="O67" t="s">
         <v>377</v>
       </c>
-      <c r="P67" s="9" t="s">
+      <c r="P67" t="s">
         <v>194</v>
       </c>
-      <c r="Q67" s="9" t="s">
+      <c r="Q67" t="s">
         <v>207</v>
       </c>
-      <c r="R67" s="9" t="s">
+      <c r="R67" t="s">
         <v>254</v>
       </c>
-      <c r="S67" s="9" t="s">
+      <c r="S67" t="s">
         <v>144</v>
       </c>
-      <c r="T67" s="10"/>
-      <c r="U67" s="9" t="s">
+      <c r="T67"/>
+      <c r="U67" t="s">
         <v>468</v>
       </c>
-      <c r="V67" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="W67" s="9" t="s">
+      <c r="V67" t="s">
+        <v>175</v>
+      </c>
+      <c r="W67" t="s">
         <v>469</v>
       </c>
-      <c r="X67" s="7"/>
-      <c r="Y67" s="7"/>
-      <c r="Z67" s="7"/>
-    </row>
-    <row r="68" spans="1:26" ht="26.5" thickBot="1">
-      <c r="A68" s="3" t="s">
+      <c r="X67"/>
+      <c r="Y67"/>
+      <c r="Z67"/>
+      <c r="AA67"/>
+      <c r="AB67"/>
+      <c r="AC67"/>
+      <c r="AD67"/>
+      <c r="AE67"/>
+      <c r="AF67"/>
+    </row>
+    <row r="68" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
         <v>108</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" t="s">
         <v>94</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="C68" t="s">
         <v>95</v>
       </c>
-      <c r="D68" s="9" t="s">
+      <c r="D68" t="s">
         <v>222</v>
       </c>
-      <c r="E68" s="9" t="s">
+      <c r="E68" t="s">
         <v>338</v>
       </c>
-      <c r="F68" s="11" t="s">
+      <c r="F68" t="s">
         <v>118</v>
       </c>
-      <c r="G68" s="9" t="s">
+      <c r="G68" t="s">
         <v>120</v>
       </c>
-      <c r="H68" s="9" t="s">
+      <c r="H68" t="s">
         <v>111</v>
       </c>
-      <c r="I68" s="9" t="s">
+      <c r="I68" t="s">
         <v>131</v>
       </c>
-      <c r="J68" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K68" s="11" t="s">
+      <c r="J68" t="s">
+        <v>175</v>
+      </c>
+      <c r="K68" t="s">
         <v>241</v>
       </c>
-      <c r="L68" s="9" t="s">
+      <c r="L68" t="s">
         <v>118</v>
       </c>
-      <c r="M68" s="9" t="s">
+      <c r="M68" t="s">
         <v>284</v>
       </c>
-      <c r="N68" s="9" t="s">
+      <c r="N68" t="s">
         <v>446</v>
       </c>
-      <c r="O68" s="9" t="s">
+      <c r="O68" t="s">
         <v>296</v>
       </c>
-      <c r="P68" s="9" t="s">
+      <c r="P68" t="s">
         <v>191</v>
       </c>
-      <c r="Q68" s="9" t="s">
+      <c r="Q68" t="s">
         <v>255</v>
       </c>
-      <c r="R68" s="9" t="s">
+      <c r="R68" t="s">
         <v>233</v>
       </c>
-      <c r="S68" s="9" t="s">
+      <c r="S68" t="s">
         <v>266</v>
       </c>
-      <c r="T68" s="10"/>
-      <c r="U68" s="9" t="s">
+      <c r="T68"/>
+      <c r="U68" t="s">
         <v>446</v>
       </c>
-      <c r="V68" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="W68" s="9" t="s">
+      <c r="V68" t="s">
+        <v>175</v>
+      </c>
+      <c r="W68" t="s">
         <v>286</v>
       </c>
-      <c r="X68" s="7"/>
-      <c r="Y68" s="7"/>
-      <c r="Z68" s="7"/>
-    </row>
-    <row r="69" spans="1:26" ht="26.5" thickBot="1">
-      <c r="A69" s="3" t="s">
+      <c r="X68"/>
+      <c r="Y68"/>
+      <c r="Z68"/>
+      <c r="AA68"/>
+      <c r="AB68"/>
+      <c r="AC68"/>
+      <c r="AD68"/>
+      <c r="AE68"/>
+      <c r="AF68"/>
+    </row>
+    <row r="69" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
         <v>108</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" t="s">
         <v>94</v>
       </c>
-      <c r="C69" s="6" t="s">
+      <c r="C69" t="s">
         <v>96</v>
       </c>
-      <c r="D69" s="9" t="s">
+      <c r="D69" t="s">
         <v>470</v>
       </c>
-      <c r="E69" s="9" t="s">
+      <c r="E69" t="s">
         <v>176</v>
       </c>
-      <c r="F69" s="9" t="s">
+      <c r="F69" t="s">
         <v>118</v>
       </c>
-      <c r="G69" s="9" t="s">
+      <c r="G69" t="s">
         <v>110</v>
       </c>
-      <c r="H69" s="9" t="s">
+      <c r="H69" t="s">
         <v>110</v>
       </c>
-      <c r="I69" s="9" t="s">
+      <c r="I69" t="s">
         <v>136</v>
       </c>
-      <c r="J69" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K69" s="11" t="s">
+      <c r="J69" t="s">
+        <v>175</v>
+      </c>
+      <c r="K69" t="s">
         <v>254</v>
       </c>
-      <c r="L69" s="9" t="s">
+      <c r="L69" t="s">
         <v>119</v>
       </c>
-      <c r="M69" s="9" t="s">
+      <c r="M69" t="s">
         <v>299</v>
       </c>
-      <c r="N69" s="9" t="s">
+      <c r="N69" t="s">
         <v>471</v>
       </c>
-      <c r="O69" s="9" t="s">
+      <c r="O69" t="s">
         <v>472</v>
       </c>
-      <c r="P69" s="9" t="s">
+      <c r="P69" t="s">
         <v>187</v>
       </c>
-      <c r="Q69" s="9" t="s">
+      <c r="Q69" t="s">
         <v>348</v>
       </c>
-      <c r="R69" s="9" t="s">
+      <c r="R69" t="s">
         <v>190</v>
       </c>
-      <c r="S69" s="9" t="s">
+      <c r="S69" t="s">
         <v>204</v>
       </c>
-      <c r="T69" s="10"/>
-      <c r="U69" s="9" t="s">
+      <c r="T69"/>
+      <c r="U69" t="s">
         <v>473</v>
       </c>
-      <c r="V69" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="W69" s="9" t="s">
+      <c r="V69" t="s">
+        <v>175</v>
+      </c>
+      <c r="W69" t="s">
         <v>337</v>
       </c>
-      <c r="X69" s="7"/>
-      <c r="Y69" s="7"/>
-      <c r="Z69" s="7"/>
-    </row>
-    <row r="70" spans="1:26" ht="26.5" thickBot="1">
-      <c r="A70" s="3" t="s">
+      <c r="X69"/>
+      <c r="Y69"/>
+      <c r="Z69"/>
+      <c r="AA69"/>
+      <c r="AB69"/>
+      <c r="AC69"/>
+      <c r="AD69"/>
+      <c r="AE69"/>
+      <c r="AF69"/>
+    </row>
+    <row r="70" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
         <v>108</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" t="s">
         <v>94</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="C70" t="s">
         <v>97</v>
       </c>
-      <c r="D70" s="9" t="s">
+      <c r="D70" t="s">
         <v>470</v>
       </c>
-      <c r="E70" s="9" t="s">
+      <c r="E70" t="s">
         <v>381</v>
       </c>
-      <c r="F70" s="9" t="s">
+      <c r="F70" t="s">
         <v>118</v>
       </c>
-      <c r="G70" s="9" t="s">
+      <c r="G70" t="s">
         <v>116</v>
       </c>
-      <c r="H70" s="9" t="s">
+      <c r="H70" t="s">
         <v>111</v>
       </c>
-      <c r="I70" s="9" t="s">
+      <c r="I70" t="s">
         <v>128</v>
       </c>
-      <c r="J70" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K70" s="9" t="s">
+      <c r="J70" t="s">
+        <v>175</v>
+      </c>
+      <c r="K70" t="s">
         <v>474</v>
       </c>
-      <c r="L70" s="9" t="s">
+      <c r="L70" t="s">
         <v>342</v>
       </c>
-      <c r="M70" s="9" t="s">
+      <c r="M70" t="s">
         <v>367</v>
       </c>
-      <c r="N70" s="9" t="s">
+      <c r="N70" t="s">
         <v>475</v>
       </c>
-      <c r="O70" s="9" t="s">
+      <c r="O70" t="s">
         <v>250</v>
       </c>
-      <c r="P70" s="9" t="s">
+      <c r="P70" t="s">
         <v>376</v>
       </c>
-      <c r="Q70" s="9" t="s">
+      <c r="Q70" t="s">
         <v>476</v>
       </c>
-      <c r="R70" s="9" t="s">
+      <c r="R70" t="s">
         <v>315</v>
       </c>
-      <c r="S70" s="9" t="s">
+      <c r="S70" t="s">
         <v>232</v>
       </c>
-      <c r="T70" s="10"/>
-      <c r="U70" s="9" t="s">
+      <c r="T70"/>
+      <c r="U70" t="s">
         <v>477</v>
       </c>
-      <c r="V70" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="W70" s="9" t="s">
+      <c r="V70" t="s">
+        <v>175</v>
+      </c>
+      <c r="W70" t="s">
         <v>269</v>
       </c>
-      <c r="X70" s="7"/>
-      <c r="Y70" s="7"/>
-      <c r="Z70" s="7"/>
-    </row>
-    <row r="71" spans="1:26" ht="26.5" thickBot="1">
-      <c r="A71" s="3" t="s">
+      <c r="X70"/>
+      <c r="Y70"/>
+      <c r="Z70"/>
+      <c r="AA70"/>
+      <c r="AB70"/>
+      <c r="AC70"/>
+      <c r="AD70"/>
+      <c r="AE70"/>
+      <c r="AF70"/>
+    </row>
+    <row r="71" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
         <v>108</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" t="s">
         <v>94</v>
       </c>
-      <c r="C71" s="6" t="s">
+      <c r="C71" t="s">
         <v>98</v>
       </c>
-      <c r="D71" s="9" t="s">
+      <c r="D71" t="s">
         <v>182</v>
       </c>
-      <c r="E71" s="9" t="s">
+      <c r="E71" t="s">
         <v>174</v>
       </c>
-      <c r="F71" s="9" t="s">
+      <c r="F71" t="s">
         <v>118</v>
       </c>
-      <c r="G71" s="9" t="s">
+      <c r="G71" t="s">
         <v>112</v>
       </c>
-      <c r="H71" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="I71" s="9" t="s">
+      <c r="H71" t="s">
+        <v>175</v>
+      </c>
+      <c r="I71" t="s">
         <v>128</v>
       </c>
-      <c r="J71" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K71" s="9" t="s">
+      <c r="J71" t="s">
+        <v>175</v>
+      </c>
+      <c r="K71" t="s">
         <v>346</v>
       </c>
-      <c r="L71" s="9" t="s">
+      <c r="L71" t="s">
         <v>109</v>
       </c>
-      <c r="M71" s="9" t="s">
+      <c r="M71" t="s">
         <v>184</v>
       </c>
-      <c r="N71" s="9" t="s">
+      <c r="N71" t="s">
         <v>478</v>
       </c>
-      <c r="O71" s="9" t="s">
+      <c r="O71" t="s">
         <v>479</v>
       </c>
-      <c r="P71" s="9" t="s">
+      <c r="P71" t="s">
         <v>190</v>
       </c>
-      <c r="Q71" s="9" t="s">
+      <c r="Q71" t="s">
         <v>180</v>
       </c>
-      <c r="R71" s="9" t="s">
+      <c r="R71" t="s">
         <v>199</v>
       </c>
-      <c r="S71" s="9" t="s">
+      <c r="S71" t="s">
         <v>114</v>
       </c>
-      <c r="T71" s="10"/>
-      <c r="U71" s="9" t="s">
+      <c r="T71"/>
+      <c r="U71" t="s">
         <v>180</v>
       </c>
-      <c r="V71" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="W71" s="9" t="s">
+      <c r="V71" t="s">
+        <v>175</v>
+      </c>
+      <c r="W71" t="s">
         <v>182</v>
       </c>
-      <c r="X71" s="7"/>
-      <c r="Y71" s="7"/>
-      <c r="Z71" s="7"/>
-    </row>
-    <row r="72" spans="1:26" ht="26.5" thickBot="1">
-      <c r="A72" s="3" t="s">
+      <c r="X71"/>
+      <c r="Y71"/>
+      <c r="Z71"/>
+      <c r="AA71"/>
+      <c r="AB71"/>
+      <c r="AC71"/>
+      <c r="AD71"/>
+      <c r="AE71"/>
+      <c r="AF71"/>
+    </row>
+    <row r="72" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
         <v>108</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" t="s">
         <v>94</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="C72" t="s">
         <v>99</v>
       </c>
-      <c r="D72" s="9" t="s">
+      <c r="D72" t="s">
         <v>480</v>
       </c>
-      <c r="E72" s="9" t="s">
+      <c r="E72" t="s">
         <v>481</v>
       </c>
-      <c r="F72" s="9" t="s">
+      <c r="F72" t="s">
         <v>338</v>
       </c>
-      <c r="G72" s="9" t="s">
+      <c r="G72" t="s">
         <v>117</v>
       </c>
-      <c r="H72" s="9" t="s">
+      <c r="H72" t="s">
         <v>129</v>
       </c>
-      <c r="I72" s="9" t="s">
+      <c r="I72" t="s">
         <v>166</v>
       </c>
-      <c r="J72" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K72" s="9" t="s">
+      <c r="J72" t="s">
+        <v>175</v>
+      </c>
+      <c r="K72" t="s">
         <v>482</v>
       </c>
-      <c r="L72" s="9" t="s">
+      <c r="L72" t="s">
         <v>127</v>
       </c>
-      <c r="M72" s="9" t="s">
+      <c r="M72" t="s">
         <v>268</v>
       </c>
-      <c r="N72" s="9" t="s">
+      <c r="N72" t="s">
         <v>293</v>
       </c>
-      <c r="O72" s="9" t="s">
+      <c r="O72" t="s">
         <v>483</v>
       </c>
-      <c r="P72" s="9" t="s">
+      <c r="P72" t="s">
         <v>484</v>
       </c>
-      <c r="Q72" s="9" t="s">
+      <c r="Q72" t="s">
         <v>470</v>
       </c>
-      <c r="R72" s="9" t="s">
+      <c r="R72" t="s">
         <v>334</v>
       </c>
-      <c r="S72" s="9" t="s">
+      <c r="S72" t="s">
         <v>204</v>
       </c>
-      <c r="T72" s="10"/>
-      <c r="U72" s="9" t="s">
+      <c r="T72"/>
+      <c r="U72" t="s">
         <v>485</v>
       </c>
-      <c r="V72" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="W72" s="11" t="s">
+      <c r="V72" t="s">
+        <v>175</v>
+      </c>
+      <c r="W72" t="s">
         <v>167</v>
       </c>
-      <c r="X72" s="7"/>
-      <c r="Y72" s="7"/>
-      <c r="Z72" s="7"/>
-    </row>
-    <row r="73" spans="1:26" ht="26.5" thickBot="1">
-      <c r="A73" s="3" t="s">
+      <c r="X72"/>
+      <c r="Y72"/>
+      <c r="Z72"/>
+      <c r="AA72"/>
+      <c r="AB72"/>
+      <c r="AC72"/>
+      <c r="AD72"/>
+      <c r="AE72"/>
+      <c r="AF72"/>
+    </row>
+    <row r="73" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
         <v>108</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" t="s">
         <v>94</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="C73" t="s">
         <v>100</v>
       </c>
-      <c r="D73" s="9" t="s">
+      <c r="D73" t="s">
         <v>486</v>
       </c>
-      <c r="E73" s="9" t="s">
+      <c r="E73" t="s">
         <v>347</v>
       </c>
-      <c r="F73" s="9" t="s">
+      <c r="F73" t="s">
         <v>248</v>
       </c>
-      <c r="G73" s="9" t="s">
+      <c r="G73" t="s">
         <v>122</v>
       </c>
-      <c r="H73" s="9" t="s">
+      <c r="H73" t="s">
         <v>117</v>
       </c>
-      <c r="I73" s="9" t="s">
+      <c r="I73" t="s">
         <v>157</v>
       </c>
-      <c r="J73" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K73" s="9" t="s">
+      <c r="J73" t="s">
+        <v>175</v>
+      </c>
+      <c r="K73" t="s">
         <v>487</v>
       </c>
-      <c r="L73" s="9" t="s">
+      <c r="L73" t="s">
         <v>192</v>
       </c>
-      <c r="M73" s="9" t="s">
+      <c r="M73" t="s">
         <v>488</v>
       </c>
-      <c r="N73" s="9" t="s">
+      <c r="N73" t="s">
         <v>489</v>
       </c>
-      <c r="O73" s="9" t="s">
+      <c r="O73" t="s">
         <v>490</v>
       </c>
-      <c r="P73" s="9" t="s">
+      <c r="P73" t="s">
         <v>269</v>
       </c>
-      <c r="Q73" s="9" t="s">
+      <c r="Q73" t="s">
         <v>491</v>
       </c>
-      <c r="R73" s="9" t="s">
+      <c r="R73" t="s">
         <v>213</v>
       </c>
-      <c r="S73" s="9" t="s">
+      <c r="S73" t="s">
         <v>114</v>
       </c>
-      <c r="T73" s="10"/>
-      <c r="U73" s="9" t="s">
+      <c r="T73"/>
+      <c r="U73" t="s">
         <v>492</v>
       </c>
-      <c r="V73" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="W73" s="9" t="s">
+      <c r="V73" t="s">
+        <v>175</v>
+      </c>
+      <c r="W73" t="s">
         <v>252</v>
       </c>
-      <c r="X73" s="7"/>
-      <c r="Y73" s="8" t="s">
+      <c r="X73"/>
+      <c r="Y73" t="s">
         <v>38</v>
       </c>
-      <c r="Z73" s="7"/>
-    </row>
-    <row r="74" spans="1:26" ht="26.5" thickBot="1">
-      <c r="A74" s="3" t="s">
+      <c r="Z73"/>
+      <c r="AA73"/>
+      <c r="AB73"/>
+      <c r="AC73"/>
+      <c r="AD73"/>
+      <c r="AE73"/>
+      <c r="AF73"/>
+    </row>
+    <row r="74" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
         <v>108</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" t="s">
         <v>94</v>
       </c>
-      <c r="C74" s="6" t="s">
+      <c r="C74" t="s">
         <v>101</v>
       </c>
-      <c r="D74" s="9" t="s">
+      <c r="D74" t="s">
         <v>233</v>
       </c>
-      <c r="E74" s="9" t="s">
+      <c r="E74" t="s">
         <v>252</v>
       </c>
-      <c r="F74" s="9" t="s">
+      <c r="F74" t="s">
         <v>109</v>
       </c>
-      <c r="G74" s="9" t="s">
+      <c r="G74" t="s">
         <v>116</v>
       </c>
-      <c r="H74" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="I74" s="9" t="s">
+      <c r="H74" t="s">
+        <v>175</v>
+      </c>
+      <c r="I74" t="s">
         <v>112</v>
       </c>
-      <c r="J74" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K74" s="9" t="s">
+      <c r="J74" t="s">
+        <v>175</v>
+      </c>
+      <c r="K74" t="s">
         <v>204</v>
       </c>
-      <c r="L74" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="M74" s="9" t="s">
+      <c r="L74" t="s">
+        <v>175</v>
+      </c>
+      <c r="M74" t="s">
         <v>114</v>
       </c>
-      <c r="N74" s="9" t="s">
+      <c r="N74" t="s">
         <v>493</v>
       </c>
-      <c r="O74" s="9" t="s">
+      <c r="O74" t="s">
         <v>494</v>
       </c>
-      <c r="P74" s="9" t="s">
+      <c r="P74" t="s">
         <v>180</v>
       </c>
-      <c r="Q74" s="9" t="s">
+      <c r="Q74" t="s">
         <v>311</v>
       </c>
-      <c r="R74" s="9" t="s">
+      <c r="R74" t="s">
         <v>191</v>
       </c>
-      <c r="S74" s="9" t="s">
+      <c r="S74" t="s">
         <v>119</v>
       </c>
-      <c r="T74" s="10"/>
-      <c r="U74" s="9" t="s">
+      <c r="T74"/>
+      <c r="U74" t="s">
         <v>495</v>
       </c>
-      <c r="V74" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="W74" s="9" t="s">
+      <c r="V74" t="s">
+        <v>175</v>
+      </c>
+      <c r="W74" t="s">
         <v>269</v>
       </c>
-      <c r="X74" s="7"/>
-      <c r="Y74" s="7"/>
-      <c r="Z74" s="7"/>
-    </row>
-    <row r="75" spans="1:26" ht="26.5" thickBot="1">
-      <c r="A75" s="3" t="s">
+      <c r="X74"/>
+      <c r="Y74"/>
+      <c r="Z74"/>
+      <c r="AA74"/>
+      <c r="AB74"/>
+      <c r="AC74"/>
+      <c r="AD74"/>
+      <c r="AE74"/>
+      <c r="AF74"/>
+    </row>
+    <row r="75" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
         <v>108</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" t="s">
         <v>94</v>
       </c>
-      <c r="C75" s="6" t="s">
+      <c r="C75" t="s">
         <v>102</v>
       </c>
-      <c r="D75" s="9" t="s">
+      <c r="D75" t="s">
         <v>181</v>
       </c>
-      <c r="E75" s="9" t="s">
+      <c r="E75" t="s">
         <v>127</v>
       </c>
-      <c r="F75" s="9" t="s">
+      <c r="F75" t="s">
         <v>338</v>
       </c>
-      <c r="G75" s="9" t="s">
+      <c r="G75" t="s">
         <v>126</v>
       </c>
-      <c r="H75" s="9" t="s">
+      <c r="H75" t="s">
         <v>112</v>
       </c>
-      <c r="I75" s="9" t="s">
+      <c r="I75" t="s">
         <v>168</v>
       </c>
-      <c r="J75" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K75" s="9" t="s">
+      <c r="J75" t="s">
+        <v>175</v>
+      </c>
+      <c r="K75" t="s">
         <v>312</v>
       </c>
-      <c r="L75" s="9" t="s">
+      <c r="L75" t="s">
         <v>109</v>
       </c>
-      <c r="M75" s="9" t="s">
+      <c r="M75" t="s">
         <v>225</v>
       </c>
-      <c r="N75" s="9" t="s">
+      <c r="N75" t="s">
         <v>471</v>
       </c>
-      <c r="O75" s="9" t="s">
+      <c r="O75" t="s">
         <v>246</v>
       </c>
-      <c r="P75" s="9" t="s">
+      <c r="P75" t="s">
         <v>197</v>
       </c>
-      <c r="Q75" s="9" t="s">
+      <c r="Q75" t="s">
         <v>496</v>
       </c>
-      <c r="R75" s="9" t="s">
+      <c r="R75" t="s">
         <v>312</v>
       </c>
-      <c r="S75" s="9" t="s">
+      <c r="S75" t="s">
         <v>123</v>
       </c>
-      <c r="T75" s="10"/>
-      <c r="U75" s="9" t="s">
+      <c r="T75"/>
+      <c r="U75" t="s">
         <v>497</v>
       </c>
-      <c r="V75" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="W75" s="9" t="s">
+      <c r="V75" t="s">
+        <v>175</v>
+      </c>
+      <c r="W75" t="s">
         <v>169</v>
       </c>
-      <c r="X75" s="7"/>
-      <c r="Y75" s="7"/>
-      <c r="Z75" s="7"/>
-    </row>
-    <row r="76" spans="1:26" ht="26.5" thickBot="1">
-      <c r="A76" s="3" t="s">
+      <c r="X75"/>
+      <c r="Y75"/>
+      <c r="Z75"/>
+      <c r="AA75"/>
+      <c r="AB75"/>
+      <c r="AC75"/>
+      <c r="AD75"/>
+      <c r="AE75"/>
+      <c r="AF75"/>
+    </row>
+    <row r="76" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
         <v>108</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" t="s">
         <v>94</v>
       </c>
-      <c r="C76" s="6" t="s">
+      <c r="C76" t="s">
         <v>103</v>
       </c>
-      <c r="D76" s="9" t="s">
+      <c r="D76" t="s">
         <v>498</v>
       </c>
-      <c r="E76" s="9" t="s">
+      <c r="E76" t="s">
         <v>113</v>
       </c>
-      <c r="F76" s="9" t="s">
+      <c r="F76" t="s">
         <v>109</v>
       </c>
-      <c r="G76" s="9" t="s">
+      <c r="G76" t="s">
         <v>111</v>
       </c>
-      <c r="H76" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="I76" s="9" t="s">
+      <c r="H76" t="s">
+        <v>175</v>
+      </c>
+      <c r="I76" t="s">
         <v>115</v>
       </c>
-      <c r="J76" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K76" s="9" t="s">
+      <c r="J76" t="s">
+        <v>175</v>
+      </c>
+      <c r="K76" t="s">
         <v>170</v>
       </c>
-      <c r="L76" s="9" t="s">
+      <c r="L76" t="s">
         <v>118</v>
       </c>
-      <c r="M76" s="9" t="s">
+      <c r="M76" t="s">
         <v>119</v>
       </c>
-      <c r="N76" s="9" t="s">
+      <c r="N76" t="s">
         <v>312</v>
       </c>
-      <c r="O76" s="9" t="s">
+      <c r="O76" t="s">
         <v>197</v>
       </c>
-      <c r="P76" s="9" t="s">
+      <c r="P76" t="s">
         <v>361</v>
       </c>
-      <c r="Q76" s="9" t="s">
+      <c r="Q76" t="s">
         <v>499</v>
       </c>
-      <c r="R76" s="9" t="s">
+      <c r="R76" t="s">
         <v>239</v>
       </c>
-      <c r="S76" s="9" t="s">
+      <c r="S76" t="s">
         <v>113</v>
       </c>
-      <c r="T76" s="10"/>
-      <c r="U76" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="V76" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="W76" s="9" t="s">
+      <c r="T76"/>
+      <c r="U76" t="s">
+        <v>175</v>
+      </c>
+      <c r="V76" t="s">
+        <v>175</v>
+      </c>
+      <c r="W76" t="s">
         <v>266</v>
       </c>
-      <c r="X76" s="7"/>
-      <c r="Y76" s="8" t="s">
+      <c r="X76"/>
+      <c r="Y76" t="s">
         <v>38</v>
       </c>
-      <c r="Z76" s="7"/>
-    </row>
-    <row r="77" spans="1:26" ht="26.5" thickBot="1">
-      <c r="A77" s="3" t="s">
+      <c r="Z76"/>
+      <c r="AA76"/>
+      <c r="AB76"/>
+      <c r="AC76"/>
+      <c r="AD76"/>
+      <c r="AE76"/>
+      <c r="AF76"/>
+    </row>
+    <row r="77" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
         <v>108</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" t="s">
         <v>94</v>
       </c>
-      <c r="C77" s="6" t="s">
+      <c r="C77" t="s">
         <v>104</v>
       </c>
-      <c r="D77" s="9" t="s">
+      <c r="D77" t="s">
         <v>221</v>
       </c>
-      <c r="E77" s="9" t="s">
+      <c r="E77" t="s">
         <v>225</v>
       </c>
-      <c r="F77" s="9" t="s">
+      <c r="F77" t="s">
         <v>252</v>
       </c>
-      <c r="G77" s="9" t="s">
+      <c r="G77" t="s">
         <v>122</v>
       </c>
-      <c r="H77" s="9" t="s">
+      <c r="H77" t="s">
         <v>128</v>
       </c>
-      <c r="I77" s="9" t="s">
+      <c r="I77" t="s">
         <v>171</v>
       </c>
-      <c r="J77" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K77" s="9" t="s">
+      <c r="J77" t="s">
+        <v>175</v>
+      </c>
+      <c r="K77" t="s">
         <v>500</v>
       </c>
-      <c r="L77" s="9" t="s">
+      <c r="L77" t="s">
         <v>501</v>
       </c>
-      <c r="M77" s="9" t="s">
+      <c r="M77" t="s">
         <v>251</v>
       </c>
-      <c r="N77" s="9" t="s">
+      <c r="N77" t="s">
         <v>502</v>
       </c>
-      <c r="O77" s="9" t="s">
+      <c r="O77" t="s">
         <v>503</v>
       </c>
-      <c r="P77" s="9" t="s">
+      <c r="P77" t="s">
         <v>311</v>
       </c>
-      <c r="Q77" s="9" t="s">
+      <c r="Q77" t="s">
         <v>499</v>
       </c>
-      <c r="R77" s="9" t="s">
+      <c r="R77" t="s">
         <v>206</v>
       </c>
-      <c r="S77" s="9" t="s">
+      <c r="S77" t="s">
         <v>234</v>
       </c>
-      <c r="T77" s="10"/>
-      <c r="U77" s="9" t="s">
+      <c r="T77"/>
+      <c r="U77" t="s">
         <v>504</v>
       </c>
-      <c r="V77" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="W77" s="9" t="s">
+      <c r="V77" t="s">
+        <v>175</v>
+      </c>
+      <c r="W77" t="s">
         <v>505</v>
       </c>
-      <c r="X77" s="7"/>
-      <c r="Y77" s="8" t="s">
+      <c r="X77"/>
+      <c r="Y77" t="s">
         <v>38</v>
       </c>
-      <c r="Z77" s="7"/>
-    </row>
-    <row r="78" spans="1:26" ht="26.5" thickBot="1">
-      <c r="A78" s="3" t="s">
+      <c r="Z77"/>
+      <c r="AA77"/>
+      <c r="AB77"/>
+      <c r="AC77"/>
+      <c r="AD77"/>
+      <c r="AE77"/>
+      <c r="AF77"/>
+    </row>
+    <row r="78" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
         <v>108</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" t="s">
         <v>105</v>
       </c>
-      <c r="C78" s="6" t="s">
+      <c r="C78" t="s">
         <v>106</v>
       </c>
-      <c r="D78" s="9" t="s">
+      <c r="D78" t="s">
         <v>222</v>
       </c>
-      <c r="E78" s="9" t="s">
+      <c r="E78" t="s">
         <v>275</v>
       </c>
-      <c r="F78" s="9" t="s">
+      <c r="F78" t="s">
         <v>119</v>
       </c>
-      <c r="G78" s="9" t="s">
+      <c r="G78" t="s">
         <v>125</v>
       </c>
-      <c r="H78" s="9" t="s">
+      <c r="H78" t="s">
         <v>116</v>
       </c>
-      <c r="I78" s="9" t="s">
+      <c r="I78" t="s">
         <v>172</v>
       </c>
-      <c r="J78" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K78" s="9" t="s">
+      <c r="J78" t="s">
+        <v>175</v>
+      </c>
+      <c r="K78" t="s">
         <v>286</v>
       </c>
-      <c r="L78" s="9" t="s">
+      <c r="L78" t="s">
         <v>109</v>
       </c>
-      <c r="M78" s="9" t="s">
+      <c r="M78" t="s">
         <v>178</v>
       </c>
-      <c r="N78" s="9" t="s">
+      <c r="N78" t="s">
         <v>236</v>
       </c>
-      <c r="O78" s="9" t="s">
+      <c r="O78" t="s">
         <v>506</v>
       </c>
-      <c r="P78" s="9" t="s">
+      <c r="P78" t="s">
         <v>316</v>
       </c>
-      <c r="Q78" s="9" t="s">
+      <c r="Q78" t="s">
         <v>507</v>
       </c>
-      <c r="R78" s="9" t="s">
+      <c r="R78" t="s">
         <v>233</v>
       </c>
-      <c r="S78" s="9" t="s">
+      <c r="S78" t="s">
         <v>123</v>
       </c>
-      <c r="T78" s="10"/>
-      <c r="U78" s="9" t="s">
+      <c r="T78"/>
+      <c r="U78" t="s">
         <v>220</v>
       </c>
-      <c r="V78" s="9" t="s">
+      <c r="V78" t="s">
         <v>508</v>
       </c>
-      <c r="W78" s="9" t="s">
+      <c r="W78" t="s">
         <v>312</v>
       </c>
-      <c r="X78" s="7"/>
-      <c r="Y78" s="7"/>
-      <c r="Z78" s="7"/>
+      <c r="X78"/>
+      <c r="Y78"/>
+      <c r="Z78"/>
+      <c r="AA78"/>
+      <c r="AB78"/>
+      <c r="AC78"/>
+      <c r="AD78"/>
+      <c r="AE78"/>
+      <c r="AF78"/>
+    </row>
+    <row r="79" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A79"/>
+      <c r="B79"/>
+      <c r="C79"/>
+      <c r="D79"/>
+      <c r="E79"/>
+      <c r="F79"/>
+      <c r="G79"/>
+      <c r="H79"/>
+      <c r="I79"/>
+      <c r="J79"/>
+      <c r="K79"/>
+      <c r="L79"/>
+      <c r="M79"/>
+      <c r="N79"/>
+      <c r="O79"/>
+      <c r="P79"/>
+      <c r="Q79"/>
+      <c r="R79"/>
+      <c r="S79"/>
+      <c r="T79"/>
+      <c r="U79"/>
+      <c r="V79"/>
+      <c r="W79"/>
+      <c r="X79"/>
+      <c r="Y79"/>
+      <c r="Z79"/>
+      <c r="AA79"/>
+      <c r="AB79"/>
+      <c r="AC79"/>
+      <c r="AD79"/>
+      <c r="AE79"/>
+      <c r="AF79"/>
+    </row>
+    <row r="80" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A80"/>
+      <c r="B80"/>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80"/>
+      <c r="H80"/>
+      <c r="I80"/>
+      <c r="J80"/>
+      <c r="K80"/>
+      <c r="L80"/>
+      <c r="M80"/>
+      <c r="N80"/>
+      <c r="O80"/>
+      <c r="P80"/>
+      <c r="Q80"/>
+      <c r="R80"/>
+      <c r="S80"/>
+      <c r="T80"/>
+      <c r="U80"/>
+      <c r="V80"/>
+      <c r="W80"/>
+      <c r="X80"/>
+      <c r="Y80"/>
+      <c r="Z80"/>
+      <c r="AA80"/>
+      <c r="AB80"/>
+      <c r="AC80"/>
+      <c r="AD80"/>
+      <c r="AE80"/>
+      <c r="AF80"/>
+    </row>
+    <row r="81" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A81"/>
+      <c r="B81"/>
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="E81"/>
+      <c r="F81"/>
+      <c r="G81"/>
+      <c r="H81"/>
+      <c r="I81"/>
+      <c r="J81"/>
+      <c r="K81"/>
+      <c r="L81"/>
+      <c r="M81"/>
+      <c r="N81"/>
+      <c r="O81"/>
+      <c r="P81"/>
+      <c r="Q81"/>
+      <c r="R81"/>
+      <c r="S81"/>
+      <c r="T81"/>
+      <c r="U81"/>
+      <c r="V81"/>
+      <c r="W81"/>
+      <c r="X81"/>
+      <c r="Y81"/>
+      <c r="Z81"/>
+      <c r="AA81"/>
+      <c r="AB81"/>
+      <c r="AC81"/>
+      <c r="AD81"/>
+      <c r="AE81"/>
+      <c r="AF81"/>
+    </row>
+    <row r="82" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A82"/>
+      <c r="B82"/>
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82"/>
+      <c r="H82"/>
+      <c r="I82"/>
+      <c r="J82"/>
+      <c r="K82"/>
+      <c r="L82"/>
+      <c r="M82"/>
+      <c r="N82"/>
+      <c r="O82"/>
+      <c r="P82"/>
+      <c r="Q82"/>
+      <c r="R82"/>
+      <c r="S82"/>
+      <c r="T82"/>
+      <c r="U82"/>
+      <c r="V82"/>
+      <c r="W82"/>
+      <c r="X82"/>
+      <c r="Y82"/>
+      <c r="Z82"/>
+      <c r="AA82"/>
+      <c r="AB82"/>
+      <c r="AC82"/>
+      <c r="AD82"/>
+      <c r="AE82"/>
+      <c r="AF82"/>
+    </row>
+    <row r="83" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A83"/>
+      <c r="B83"/>
+      <c r="C83"/>
+      <c r="D83"/>
+      <c r="E83"/>
+      <c r="F83"/>
+      <c r="G83"/>
+      <c r="H83"/>
+      <c r="I83"/>
+      <c r="J83"/>
+      <c r="K83"/>
+      <c r="L83"/>
+      <c r="M83"/>
+      <c r="N83"/>
+      <c r="O83"/>
+      <c r="P83"/>
+      <c r="Q83"/>
+      <c r="R83"/>
+      <c r="S83"/>
+      <c r="T83"/>
+      <c r="U83"/>
+      <c r="V83"/>
+      <c r="W83"/>
+      <c r="X83"/>
+      <c r="Y83"/>
+      <c r="Z83"/>
+      <c r="AA83"/>
+      <c r="AB83"/>
+      <c r="AC83"/>
+      <c r="AD83"/>
+      <c r="AE83"/>
+      <c r="AF83"/>
+    </row>
+    <row r="84" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A84"/>
+      <c r="B84"/>
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84"/>
+      <c r="H84"/>
+      <c r="I84"/>
+      <c r="J84"/>
+      <c r="K84"/>
+      <c r="L84"/>
+      <c r="M84"/>
+      <c r="N84"/>
+      <c r="O84"/>
+      <c r="P84"/>
+      <c r="Q84"/>
+      <c r="R84"/>
+      <c r="S84"/>
+      <c r="T84"/>
+      <c r="U84"/>
+      <c r="V84"/>
+      <c r="W84"/>
+      <c r="X84"/>
+      <c r="Y84"/>
+      <c r="Z84"/>
+      <c r="AA84"/>
+      <c r="AB84"/>
+      <c r="AC84"/>
+      <c r="AD84"/>
+      <c r="AE84"/>
+      <c r="AF84"/>
+    </row>
+    <row r="85" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A85"/>
+      <c r="B85"/>
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="E85"/>
+      <c r="F85"/>
+      <c r="G85"/>
+      <c r="H85"/>
+      <c r="I85"/>
+      <c r="J85"/>
+      <c r="K85"/>
+      <c r="L85"/>
+      <c r="M85"/>
+      <c r="N85"/>
+      <c r="O85"/>
+      <c r="P85"/>
+      <c r="Q85"/>
+      <c r="R85"/>
+      <c r="S85"/>
+      <c r="T85"/>
+      <c r="U85"/>
+      <c r="V85"/>
+      <c r="W85"/>
+      <c r="X85"/>
+      <c r="Y85"/>
+      <c r="Z85"/>
+      <c r="AA85"/>
+      <c r="AB85"/>
+      <c r="AC85"/>
+      <c r="AD85"/>
+      <c r="AE85"/>
+      <c r="AF85"/>
+    </row>
+    <row r="86" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A86"/>
+      <c r="B86"/>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
+      <c r="H86"/>
+      <c r="I86"/>
+      <c r="J86"/>
+      <c r="K86"/>
+      <c r="L86"/>
+      <c r="M86"/>
+      <c r="N86"/>
+      <c r="O86"/>
+      <c r="P86"/>
+      <c r="Q86"/>
+      <c r="R86"/>
+      <c r="S86"/>
+      <c r="T86"/>
+      <c r="U86"/>
+      <c r="V86"/>
+      <c r="W86"/>
+      <c r="X86"/>
+      <c r="Y86"/>
+      <c r="Z86"/>
+      <c r="AA86"/>
+      <c r="AB86"/>
+      <c r="AC86"/>
+      <c r="AD86"/>
+      <c r="AE86"/>
+      <c r="AF86"/>
+    </row>
+    <row r="87" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A87"/>
+      <c r="B87"/>
+      <c r="C87"/>
+      <c r="D87"/>
+      <c r="E87"/>
+      <c r="F87"/>
+      <c r="G87"/>
+      <c r="H87"/>
+      <c r="I87"/>
+      <c r="J87"/>
+      <c r="K87"/>
+      <c r="L87"/>
+      <c r="M87"/>
+      <c r="N87"/>
+      <c r="O87"/>
+      <c r="P87"/>
+      <c r="Q87"/>
+      <c r="R87"/>
+      <c r="S87"/>
+      <c r="T87"/>
+      <c r="U87"/>
+      <c r="V87"/>
+      <c r="W87"/>
+      <c r="X87"/>
+      <c r="Y87"/>
+      <c r="Z87"/>
+      <c r="AA87"/>
+      <c r="AB87"/>
+      <c r="AC87"/>
+      <c r="AD87"/>
+      <c r="AE87"/>
+      <c r="AF87"/>
+    </row>
+    <row r="88" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A88"/>
+      <c r="B88"/>
+      <c r="C88"/>
+      <c r="D88"/>
+      <c r="E88"/>
+      <c r="F88"/>
+      <c r="G88"/>
+      <c r="H88"/>
+      <c r="I88"/>
+      <c r="J88"/>
+      <c r="K88"/>
+      <c r="L88"/>
+      <c r="M88"/>
+      <c r="N88"/>
+      <c r="O88"/>
+      <c r="P88"/>
+      <c r="Q88"/>
+      <c r="R88"/>
+      <c r="S88"/>
+      <c r="T88"/>
+      <c r="U88"/>
+      <c r="V88"/>
+      <c r="W88"/>
+      <c r="X88"/>
+      <c r="Y88"/>
+      <c r="Z88"/>
+      <c r="AA88"/>
+      <c r="AB88"/>
+      <c r="AC88"/>
+      <c r="AD88"/>
+      <c r="AE88"/>
+      <c r="AF88"/>
+    </row>
+    <row r="89" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A89"/>
+      <c r="B89"/>
+      <c r="C89"/>
+      <c r="D89"/>
+      <c r="E89"/>
+      <c r="F89"/>
+      <c r="G89"/>
+      <c r="H89"/>
+      <c r="I89"/>
+      <c r="J89"/>
+      <c r="K89"/>
+      <c r="L89"/>
+      <c r="M89"/>
+      <c r="N89"/>
+      <c r="O89"/>
+      <c r="P89"/>
+      <c r="Q89"/>
+      <c r="R89"/>
+      <c r="S89"/>
+      <c r="T89"/>
+      <c r="U89"/>
+      <c r="V89"/>
+      <c r="W89"/>
+      <c r="X89"/>
+      <c r="Y89"/>
+      <c r="Z89"/>
+      <c r="AA89"/>
+      <c r="AB89"/>
+      <c r="AC89"/>
+      <c r="AD89"/>
+      <c r="AE89"/>
+      <c r="AF89"/>
+    </row>
+    <row r="90" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A90"/>
+      <c r="B90"/>
+      <c r="C90"/>
+      <c r="D90"/>
+      <c r="E90"/>
+      <c r="F90"/>
+      <c r="G90"/>
+      <c r="H90"/>
+      <c r="I90"/>
+      <c r="J90"/>
+      <c r="K90"/>
+      <c r="L90"/>
+      <c r="M90"/>
+      <c r="N90"/>
+      <c r="O90"/>
+      <c r="P90"/>
+      <c r="Q90"/>
+      <c r="R90"/>
+      <c r="S90"/>
+      <c r="T90"/>
+      <c r="U90"/>
+      <c r="V90"/>
+      <c r="W90"/>
+      <c r="X90"/>
+      <c r="Y90"/>
+      <c r="Z90"/>
+      <c r="AA90"/>
+      <c r="AB90"/>
+      <c r="AC90"/>
+      <c r="AD90"/>
+      <c r="AE90"/>
+      <c r="AF90"/>
+    </row>
+    <row r="91" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A91"/>
+      <c r="B91"/>
+      <c r="C91"/>
+      <c r="D91"/>
+      <c r="E91"/>
+      <c r="F91"/>
+      <c r="G91"/>
+      <c r="H91"/>
+      <c r="I91"/>
+      <c r="J91"/>
+      <c r="K91"/>
+      <c r="L91"/>
+      <c r="M91"/>
+      <c r="N91"/>
+      <c r="O91"/>
+      <c r="P91"/>
+      <c r="Q91"/>
+      <c r="R91"/>
+      <c r="S91"/>
+      <c r="T91"/>
+      <c r="U91"/>
+      <c r="V91"/>
+      <c r="W91"/>
+      <c r="X91"/>
+      <c r="Y91"/>
+      <c r="Z91"/>
+      <c r="AA91"/>
+      <c r="AB91"/>
+      <c r="AC91"/>
+      <c r="AD91"/>
+      <c r="AE91"/>
+      <c r="AF91"/>
+    </row>
+    <row r="92" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A92"/>
+      <c r="B92"/>
+      <c r="C92"/>
+      <c r="D92"/>
+      <c r="E92"/>
+      <c r="F92"/>
+      <c r="G92"/>
+      <c r="H92"/>
+      <c r="I92"/>
+      <c r="J92"/>
+      <c r="K92"/>
+      <c r="L92"/>
+      <c r="M92"/>
+      <c r="N92"/>
+      <c r="O92"/>
+      <c r="P92"/>
+      <c r="Q92"/>
+      <c r="R92"/>
+      <c r="S92"/>
+      <c r="T92"/>
+      <c r="U92"/>
+      <c r="V92"/>
+      <c r="W92"/>
+      <c r="X92"/>
+      <c r="Y92"/>
+      <c r="Z92"/>
+      <c r="AA92"/>
+      <c r="AB92"/>
+      <c r="AC92"/>
+      <c r="AD92"/>
+      <c r="AE92"/>
+      <c r="AF92"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
